--- a/4CE_Phase1.1_File_Descriptions.xlsx
+++ b/4CE_Phase1.1_File_Descriptions.xlsx
@@ -2,18 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWEBER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21195" windowHeight="16800"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="FilesAndColumns" sheetId="1" r:id="rId2"/>
+    <sheet name="SevereCodes" sheetId="7" r:id="rId3"/>
+    <sheet name="Labs" sheetId="3" r:id="rId4"/>
+    <sheet name="Meds" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="684">
   <si>
     <t>DailyCounts</t>
   </si>
@@ -174,9 +177,6 @@
     <t>int (since = day 0+ relative to admission date)</t>
   </si>
   <si>
-    <t>Loinc Code (the loinc code we provide, not your local code(s))</t>
-  </si>
-  <si>
     <t>units (the units we provide--you must scale your lab values accordingly if you use different units)</t>
   </si>
   <si>
@@ -189,9 +189,6 @@
     <t>date (formatted as YYYY-MM-DD, e.g., 2020-04-15)</t>
   </si>
   <si>
-    <t>4CE Medication Category (the one we provide)</t>
-  </si>
-  <si>
     <t>int (based on earliest admission date)</t>
   </si>
   <si>
@@ -300,9 +297,6 @@
     <t>Determine if and when patients progressed to a severe health status</t>
   </si>
   <si>
-    <t>1) For each patient in the cohort, find all "severe codes" they have starting on the first admission/alignment date (see separate file for list of severe codes).</t>
-  </si>
-  <si>
     <t>2) The earliest severe code date is the date when the patient transitioned to severe status. Get this date for each patient.</t>
   </si>
   <si>
@@ -315,9 +309,6 @@
     <t>Our primary outcome measure is "ever_severe". We will compare the "ever_severe" group to the full cohort.</t>
   </si>
   <si>
-    <t xml:space="preserve">The csv files no not include counts for "never_severe". We are not comparing severe to not-severe. </t>
-  </si>
-  <si>
     <t>Notes:</t>
   </si>
   <si>
@@ -405,18 +396,12 @@
     <t>It shows us the trajectories over time of several lab tests for the cohort, aligned on patients' admission date.</t>
   </si>
   <si>
-    <t>The list of laboratory tests, LOINC codes, and lab units are in a separate file.</t>
-  </si>
-  <si>
     <t>You will need to map each LOINC code provided to your local lab code(s).</t>
   </si>
   <si>
     <t>You will need to multiply your lab values by a scale factor if your units do not match the units we provide.</t>
   </si>
   <si>
-    <t>If a lab value is something like "less than 0.1" (the detection limit), then use "0.1".</t>
-  </si>
-  <si>
     <t>Double check that you are mapping to the correct labs and scaling to the correct units. Contact us if you have questions.</t>
   </si>
   <si>
@@ -450,9 +435,6 @@
     <t>This file has one row per 4CE medication class.</t>
   </si>
   <si>
-    <t>The mappings from medication class to ATC and RxNorm codes are in a separate file. (NDC mappings are available if you need them.)</t>
-  </si>
-  <si>
     <t>Two counts are provided for the full cohort: patients with a drug in the medication class before getting COVID-19, and patients with a drug in the medication class since their admission date.</t>
   </si>
   <si>
@@ -469,6 +451,1635 @@
   </si>
   <si>
     <t>Column (yellow=primary key)</t>
+  </si>
+  <si>
+    <t>If a lab value is something like "less than 0.1" (the detection limit), then use the detection limit divided by 2 (e.g., 0.1/2 = 0.05).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The csv files do not include counts for "never_severe". We are not comparing severe to not-severe. </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LOINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units </t>
+  </si>
+  <si>
+    <t>Reference Low</t>
+  </si>
+  <si>
+    <t>Reference High</t>
+  </si>
+  <si>
+    <t>alanine aminotransferase (ALT)</t>
+  </si>
+  <si>
+    <t>1742-6</t>
+  </si>
+  <si>
+    <t>U/L</t>
+  </si>
+  <si>
+    <t>albumin</t>
+  </si>
+  <si>
+    <t>1751-7</t>
+  </si>
+  <si>
+    <t>g/dL</t>
+  </si>
+  <si>
+    <t>aspartate aminotransferase (AST)</t>
+  </si>
+  <si>
+    <t>1920-8</t>
+  </si>
+  <si>
+    <t>total bilirubin</t>
+  </si>
+  <si>
+    <t>1975-2</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
+  </si>
+  <si>
+    <t>C-reactive protein (CRP) (Normal Sensitivity)</t>
+  </si>
+  <si>
+    <t>1988-5</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>creatinine</t>
+  </si>
+  <si>
+    <t>2160-0</t>
+  </si>
+  <si>
+    <t>Ferritin</t>
+  </si>
+  <si>
+    <t>2276-4</t>
+  </si>
+  <si>
+    <t>ng/mL</t>
+  </si>
+  <si>
+    <t>lactate dehydrogenase (LDH)</t>
+  </si>
+  <si>
+    <t>2532-0</t>
+  </si>
+  <si>
+    <t>Fibrinogen</t>
+  </si>
+  <si>
+    <t>3255-7</t>
+  </si>
+  <si>
+    <t>procalcitonin</t>
+  </si>
+  <si>
+    <t>33959-8</t>
+  </si>
+  <si>
+    <t>D-dimer (FEU)</t>
+  </si>
+  <si>
+    <t>48065-7</t>
+  </si>
+  <si>
+    <t>ng/mL{FEU}</t>
+  </si>
+  <si>
+    <t>D-dimer (DDU)</t>
+  </si>
+  <si>
+    <t>48066-5</t>
+  </si>
+  <si>
+    <t>ng/mL{DDU}</t>
+  </si>
+  <si>
+    <t>cardiac troponin (High Sensitivity)</t>
+  </si>
+  <si>
+    <t>49563-0</t>
+  </si>
+  <si>
+    <t>prothrombin time (PT)</t>
+  </si>
+  <si>
+    <t>5902-2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>cardiac troponin (Normal Sensitivity)</t>
+  </si>
+  <si>
+    <t>6598-7</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>white blood cell count (Leukocytes)</t>
+  </si>
+  <si>
+    <t>6690-2</t>
+  </si>
+  <si>
+    <t>10*3/uL</t>
+  </si>
+  <si>
+    <t>lymphocyte count</t>
+  </si>
+  <si>
+    <t>731-0</t>
+  </si>
+  <si>
+    <t>neutrophil count</t>
+  </si>
+  <si>
+    <t>751-8</t>
+  </si>
+  <si>
+    <t>ACT Path</t>
+  </si>
+  <si>
+    <t>ACT RxNorm List</t>
+  </si>
+  <si>
+    <t>ACT NDC List</t>
+  </si>
+  <si>
+    <t>Severe Illness Medication</t>
+  </si>
+  <si>
+    <t>SIANES</t>
+  </si>
+  <si>
+    <t>ANESTHETICS, GENERAL</t>
+  </si>
+  <si>
+    <t>Propofol</t>
+  </si>
+  <si>
+    <t>N01AX10</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\PPreparations\8782\</t>
+  </si>
+  <si>
+    <t>RxNorm:8782,207793,312674,377483,884675,1188478,1808216,1808217,1808219,1808222,1808223,1808224,1808225,1808234,1808235,1862110,2050125</t>
+  </si>
+  <si>
+    <t>NDC:00038029011,00038029020,00038029050,00038029061,00038029062,00038029065,00044494401,00044494402,00044520603,00074494401,00074520603,00310029011,00310029020,00310029050,00310029061,00310029062,00310029065,00310030001,00310030002,00310030005,00310030009,00310030011,00310030020,00310030022,00310030050,00310030054,00310030061,00310030062,00310030064,00310030065,00310030066,00409469924,00409469930,00409469933,00409469940,00409469950,00409469953,00409469954,00409469961,00409469962,00409469963,00409520601,00409520602,00591213651,00591213655,00591213657,00591213668,00591213680,00591213695,00703001301,00703001302,00703001303,00703001304,00703285506,00703285601,00703285604,00703285801,00703285809,00703285901,00703285903,10019001301,10019001302,10019001303,10019001304,10019001306,10019001311,10019001320,10019001352,10019021301,10019021302,10019021303,10130010410,10130010423,10130010450,10130010499,11695280001,13985074020,25021060820,25021060850,25021060851,52584005457,52584026950,52584069933,54569407300,54569434000,54569482100,54569586200,54771494401,54771494402,54771520601,54868462900,55154285405,55154691105,55390010420,55390010450,55390010499,59632029001,59632029002,59632029005,60732030001,60732030002,60732030003,60732030005,60732030009,63323026910,63323026920,63323026922,63323026927,63323026929,63323026937,63323026950,63323026957,63323026959,63323026965,63323026967,63323026969,63323026970,63323026977,63323026978,63323026994,63323027020,63323027025,63323027026,63323027027,63323027050,63323027057,63323027065,63323027067,63323029730,63323029731,63323029750,63323029751,63323029753,63323029766,66758002501,66758002502,66758002503,66758002504</t>
+  </si>
+  <si>
+    <t>Other hypnotics and sedatives</t>
+  </si>
+  <si>
+    <t>Dexmetotomidine</t>
+  </si>
+  <si>
+    <t>N05CM18</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\48937\</t>
+  </si>
+  <si>
+    <t>RxNorm:48937,259859,284397,309710,377219,897073,897077,1249681,1373737,1535224,1535226,1535228,1535230,1718899,1718900,1718902,1718906,1718907,1718909,1718910,1732667,1732668,1732674,1788947</t>
+  </si>
+  <si>
+    <t>NDC:00074163802,00143953201,00143953225,00338955524,00338955712,00409163802,00409166010,00409166020,00409166050,00781329772,00781329795,00781335372,00781335396,16729023930,16729023993,16729043230,16729043293,17033000510,17478005502,24200760104,26637034105,42023014625,44567060004,44567060104,44567060224,44567060324,45963090641,45963090642,52483280501,54771105001,54771280501,54771280601,55150020902,57664059640,57664059650,57884309101,57884309102,57884309103,63323042102,63323042116,67457025100,67457025102,67457058000,67457058002,67457058100,67457058102,68382012401,68382012425,70771131901,70771131907,70860060502,70860060503,70860060541,71872712201</t>
+  </si>
+  <si>
+    <t>Ketamine</t>
+  </si>
+  <si>
+    <t>N01AX03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\KPreparations\6130\</t>
+  </si>
+  <si>
+    <t>RxNorm:6130,206967,206970,206972,238082,238083,238084,372528,631205,1087926,1301259,1486837,1605773</t>
+  </si>
+  <si>
+    <t>NDC:00015834027,00015834096,00015834110,00015834197,00015834305,00015834397,00024109001,00024109101,00071458112,00071458113,00071458115,00071458210,00071458508,00074205105,00074205310,00143950801,00143950810,00143950901,00143950910,00409205105,00409205310,00856201301,06208600110,06208601010,06208610810,10130047510,10139005510,10139005512,10139005610,10139005612,11695070001,11695070101,11695070201,11695683501,13985058410,13985070210,15082030170,17033010010,24200042444,24200042445,24200042449,24200042450,24200042652,24200042744,26637041101,26637073151,42023011310,42023011410,42023011510,42023013710,42023013810,42023013910,50989016106,50989099606,52584003710,52584003810,52584004005,52584010800,54771201301,54868439900,54868509300,55390047510,59399011410,59399011412,60793058110,61553032033,61553032070,61553033028,61553033165,61553033172,61570058102,61570058110,61570058201,61570058210,61570058505,61570058510,61786034857,62086000110,62086001008,62086010810,63286000100,63286010800,63286018102,64029458101,64029458102,64029458201,64029458202,64029458501,64029458502,66647302225,66647302242,67454018120,67457000100,67457000110,67457003410,67457010800,67457010810,67457018100,67457018110,67457018120</t>
+  </si>
+  <si>
+    <t>Benzodiazepine derivatives</t>
+  </si>
+  <si>
+    <t>Midazolam</t>
+  </si>
+  <si>
+    <t>N05CD08</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\MPreparations\6960\</t>
+  </si>
+  <si>
+    <t>RxNorm:6960,106517,199775,311700,311701,311702,372922,379133,404091,404092,422410,446503,998210,998211,1313988,1551393,1551395,1666776,1666777,1666797,1666798,1666800,1666814,1666821,1666823,2057964</t>
+  </si>
+  <si>
+    <t>NDC:00004016851,00004194601,00004194701,00004194709,00004197301,00004197401,00004197501,00004199806,00004199901,00004200006,00054356699,00054356999,00074229502,00074229505,00074229532,00074229535,00074229536,00074229539,00074229552,00074229601,00074229602,00074229630,00074229631,00074229632,00074229636,00074229651,00074230502,00074230505,00074230549,00074230550,00074230662,00074230760,00074230762,00074230801,00074230802,00074230849,00074230850,00074258702,00074258703,00074258705,00074258751,00074258752,00074258753,00074259601,00074259602,00074259603,00074259605,00074259649,00074259651,00074259652,00074259653,00247029502,00247029505,00247234402,00247234420,00364291331,00364291333,00364291347,00364291431,00364291533,00364291645,00364291647,00364291747,00364291831,00364291933,00364292889,00409230502,00409230505,00409230517,00409230521,00409230549,00409230550,00409230561,00409230562,00409230603,00409230611,00409230612,00409230622,00409230662,00409230703,00409230721,00409230760,00409230762,00409230801,00409230802,00409230849,00409230850,00409258705,00409258753,00409259603,00409259605,00409259652,00409259653,00574015004,00574015025,00641001802,00641001902,00641002701,00641002702,00641605601,00641605610,00641605701,00641605710,00641605725,00641605901,00641605910,00641606001,00641606010,00641606101,00641606110,00641606125,00641606301,00641606310,00641606325,00641619001,00641619010,00641620901,00641620925,00641621001,00641621010,00641621101,00641621110,10019002701,10019002702,10019002703,10019002704,10019002705,10019002706,10019002707,10019002708,10019002709,10019002710,10019002729,10019002736,10019002737,10019002739,10019002759,10019002764,10019002801,10019002802,10019002803,10019002804,10019002805,10019002810,10019002836,10019002837,10019002839,10019002859,10019012708,10019012732,10130012510,10130012705,10130012710,10130013702,10130013705,10130013801,10130013802,10130014102,11704065001,11704065010,15082040105,15082040110,15082040463,17478052302,17478052305,17478052310,17478052325,17478052355,17478052401,17478052402,17478052405,17478052410,17478052415,17856014601,17856020501,17856020502,17856020505,17856356601,17856356602,17856356603,23155060031,23155060041,23155060131,23155060132,23155060141,23155060142,23490593201,23490593301,23490593302,24200056203,24200056204,24200056244,24200056247,24200056266,24200056280,24200056303,24200056304,24200056306,24200056310,24200056311,24200056361,24200056546,24200056749,24200056937,24200056944,24200056945,25021065502,25021065505,25021065601,25021065602,25021066010,25021066105,25021066110,35356048210,46672064004,47781058846,47781058868,47781058917,47781058920,47781058922,47781058991,50090068300,50090068301,50090073800,50090073801,50090331200,50383086204,51662123601,51662123701,51662132401,52533000101,52533000102,52533000105,52533000115,52533000116,52533000131,52533000160,52533000171,52533000172,52533000175,52533000177,52584005501,52584005601,52584005901,52584030801,52584030802,52584059603,52959091501,54087032007,54087032032,54087032053,54087032107,54087032132,54087032142,54087032153,54087032173,54569511600,54569511601,54569525500,54569525501,54868458000,54868571100,54868609200,54868609201,55045274108,55045285701,55045288702,55154014305,55154014405,55154014505,55154014605,55154035205,55154035305,55154035405,55154035905,55154238405,55154238705,55154239405,55154285005,55154285305,55154286705,55154287405,55154287805,55154287908,55154288308,55154288905,55154310905,55154311205,55154473405,55154474305,55154699708,55154783105,55154939308,55154956205,55370002839,55370021702,55370021705,55370021710,55370021801,55370021802,55370021805,55370021810,55390012510,55390012605,55390012610,55390013702,55390013705,55390013801,55390013802,55390014102,55648076201,55648076202,55648076203,55648076204,55648076205,55648076206,55648076207,55648076208,55648076209,55648076301,55648076302,55648076303,55648076304,55648076305,55648076306,55648076307,55648076308,55648076309,55648076310,55648076311,55648076312,55648076401,55648076402,55648076403,55648076404,55648076405,55648076406,55648076501,55648076502,55648076503,55648076504,55648076505,55648076506,57664063340,57664063343,57664063441,57664063442,57664063444,57664063445,59911591102,59911591202,59911591302,59911591402,59911591502,59911591602,61553019648,61553019652,61553019879,61553019941,61553020241,61553027048,61553027052,61553029041,61553029202,61553030570,61553030972,61553035628,61553035679,61553049639,61703032007,61703032032,61703032053,61703032107,61703032132,61703032142,61703032153,61703032173,63304020418,63304020518,63323041102,63323041105,63323041110,63323041112,63323041113,63323041115,63323041118,63323041125,63323041200,63323041201,63323041202,63323041203,63323041205,63323041206,63323041210,63323041213,63323041218,63323041225,63775071101,63775071102,63775071103,63775071201,63775071202,63775071203,63775071204,64679076201,64679076202,64679076203,64679076204,64679076205,64679076206,64679076207,64679076208,64679076209,64679076301,64679076302,64679076303,64679076304,64679076305,64679076306,64679076307,64679076308,64679076309,64679076310,64679076311,64679076312,64679076401,64679076402,64679076403,64679076404,64679076405,64679076406,64679076501,64679076502,64679076503,64679076504,64679076505,64679076506,65293041102,65293041125,65293041210,65293041302,65293041310,65293041405,65293041410,65293041510,65293041605,65293041625,65293041701,65293041725,66647403294,66647403694,66647413511,66647413521,66647413533,66758001801,66758001802,66758001901,66758001902,66860013002,66860013102,66860013202,66860013302,66860014002,66860014102,66860014202,66860014302,66860014402,66860014502,66860014602,68083010601,68083010801,68083010802,68094071659,68094071662,68094076259,68094076262,68094076459,68094076462,68094076662,68258897301,68258898101,68258899101,70860060002,70860060105,70860060110,76045000120,76045000210,76045000220,76045000320</t>
+  </si>
+  <si>
+    <t>SICARDIAC</t>
+  </si>
+  <si>
+    <t>Adrenergic and dopaminergic agents</t>
+  </si>
+  <si>
+    <t>phenylephrine</t>
+  </si>
+  <si>
+    <t>C01CA06</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\PPreparations\8163\</t>
+  </si>
+  <si>
+    <t>RxNorm:8163,106686,198786,198787,198788,211704,211709,211712,211714,211715,212770,212771,212772,212773,238230,238996,238997,238999,239000,239001,241033,247940,260687,312395,312398,314175,351701,351702,351982,359907,373368,373369,373370,373372,373375,374570,376521,379042,387789,392099,393309,477358,477359,542391,542655,542674,562592,584580,584582,584584,584588,602511,603259,603276,603915,617785,669267,672683,672685,672891,692479,700414,704955,705163,705164,705170,827706,864089,1045470,1049182,1049184,1052767,1087043,1087047,1090087,1117374,1232651,1232653,1234563,1234569,1234571,1234576,1234578,1234579,1234581,1234584,1234585,1234586,1251018,1251022,1299137,1299141,1299145,1299879,1300092,1307224,1358843,1363777,1363785,1363786,1363787,1366958,1542385,1547926,1548673,1549386,1549388,1666371,1666372,1666374</t>
+  </si>
+  <si>
+    <t>NDC:00023000615,00024134002,00024134204,00024134505,00024134705,00024134706,00024134803,00024135105,00024135202,00024135301,00024135305,00024135504,00024135506,00024135901,00024136201,00024136401,00045053704,00045058118,00045058136,00058078012,00058079815,00065034203,00065034205,00065434201,00065434202,00067208601,00067208605,00067208615,00067208662,00067208701,00067208705,00074179301,00074180001,00081960065,00081960066,00081960067,00083710052,00085113101,00085124701,00113009423,00113009468,00113009489,00113064810,00113200462,00223669416,00223669505,00223669515,00223669605,00223669615,00247004800,00247004802,00247004805,00247004815,00247119901,00247199905,00274752531,00274754031,00280091505,00280092505,00280093505,00280094015,00280095015,00295111734,00295111834,00295111839,00295111934,00295111939,00363036312,00363039010,00363045307,00363045312,00363045323,00363045344,00363064810,00364237053,00364242646,00364709516,00364737672,00402079802,00402079815,00402079905,00409180001,00463901916,00472101416,00487040130,00498333010,00498333025,00498333050,00498333110,00498333125,00498333150,00501290218,00501290231,00501290279,00501291810,00517029925,00517040525,00527075127,00527075128,00527079027,00527079028,00536138912,00536138935,00536160085,00536372736,00548830100,00548830125,00641048225,00641608801,00641608825,00641614201,00641614225,00641622901,00641622925,00686074002,00686074006,00686074059,00703016301,00703016312,00703163104,00703163304,00713053512,00713053524,00713053548,00781681516,00832801716,00832801730,00832847616,00904530424,00904573305,00904573349,00904573362,00904573373,00904768822,00924013300,00924013301,00924013303,00924013400,00924013401,00924013403,00998010230,00998010330,00998011230,00998034203,00998034205,00998034207,00998040615,01981000581,01981020021,01981020022,02590039618,02590039624,02590396180,10019016301,10019016305,10019016312,10019016339,10119016312,10149017101,10202009489,10719026512,10719026610,10719029710,10719031512,10797004504,10797029904,10956069212,10986069212,11673009423,11673009468,11673009489,11673020468,11822001740,11822041705,11822041706,11822041740,11822041750,11822041760,11822099001,11822303960,11822320204,11822320240,11822453002,11822453004,11822453007,11917002717,11917004580,11917004588,11917006209,11917006210,12071006016,12071006028,12333908301,12547022900,14836000701,14836000702,14836030701,14836030702,15127008103,15127008118,16874040130,17238019315,17238052005,17238052015,17478020012,17478020020,17478020102,17478020115,17478020510,17478020520,17478020605,19810004701,19810004702,19810004703,21130045307,21130045344,21695052418,23900000802,23900000805,23900000806,24208074002,24208074006,24208074059,24208074502,24208074506,24208085560,24385039010,24385050612,24385060308,24385060368,24385060389,30142009423,30142009468,30142009489,30142053910,30142064810,30142067018,30142067036,30142067072,33992045308,35418033402,35418033467,35418033468,36000001705,36000001805,36000001905,36800009423,36800009447,36800009468,36800009489,36800033105,36800039010,36800064810,37000054005,37000054105,37000054305,37000080401,37012009423,37012009468,37012009489,37205047369,37205047389,37205048310,37205071516,37808009423,37808009489,37808020989,37808045323,37808064810,37808095323,41163009423,41163009468,41163009489,41163039010,41163045307,41163045344,41163064810,41163072801,41190009423,41190009468,41190009489,41190064810,41250009423,41250009447,41250009468,41250009489,41250064810,41250095307,41250095323,41268009468,41268009489,41520009423,41520009468,41520009489,41520039010,41520064810,41520072910,41520083110,42507009447,42507009468,42507009489,42507064810,42702010215,42702010305,42961033302,46122010253,46122014903,46994045344,47682001233,47682001248,47682001299,47682001733,47682001748,47682001799,47682013350,47682013413,47682013433,47682013446,47682013448,47682013464,47682013650,47682016113,47682016133,47682016199,47682016213,47682016299,47682017013,47682017033,47682017046,47682017048,47682017064,47682020513,47682020533,47682020599,47682032313,47682032399,47682080913,47682080933,47682080946,47682080948,47682080964,48083033027,48083033030,48083033031,48083033033,48083033036,48083033039,48083033041,49035009468,49035009489,49035013162,49035013168,49035013189,49035035423,49035035443,49035039010,49035045323,49035064810,49260061616,49260061650,49260071616,49260071650,49348019727,49348052472,49348070007,49348070048,49348095004,49483023400,49483023418,49483023436,49614044089,49738001923,49738001989,49738009423,49738009489,49999082736,50090099200,50090365900,50332012604,50332012607,50332012608,50428033799,50428210914,50428297625,50428432561,50580054650,50580054651,50580055404,50580066118,50580066136,50580066172,50580078404,50580078504,50594045344,50844044407,50844045344,50844095308,50844095344,51394026512,51394026610,51432064620,51432064820,51662124901,51944047035,51944047042,51944047535,51944047542,51944447002,51944447005,51944447035,51944447042,51944447502,51944447535,51944447542,51944449542,52238071802,52238071805,52238071815,52238072015,52584001639,52584014201,52584029925,52584080001,53012020115,53187067018,53268034612,53268074012,53268085510,53304030601,53441067018,53443050212,53443050220,53443050310,53443050312,53443050320,54458084714,54569144200,54569165701,54569230400,54569318400,54569402400,54569582000,54575001601,54575001602,54575001603,54575001604,54575001701,54799053002,54799053015,54799053105,54868189900,54868281200,54868281201,54868371700,54868571600,55045332601,55154285205,55154285208,55154285505,55154512808,55154512905,55154572105,55154573505,55238071815,55301045323,55301045344,55312009447,55312009489,55315045344,55315095344,55316009423,55316009489,55316064810,55319045308,55670016313,55670016399,55670047913,55670047999,55910009468,55910009489,55910027623,55910027668,55910027689,55910045344,56062009423,56062009489,56062064810,56184012105,57243045344,57344013102,57344013103,57344013104,57344013105,57499053105,57706086909,57896033601,57896033603,58016609701,58016622501,58552030701,58552030702,58768078012,59196000701,59390017913,59390019305,59390019313,59390019405,59414010215,59414011205,59426092315,59726067018,59726067026,59726067036,59741030212,59741030224,59779009423,59779009428,59779009468,59779009489,59779039010,59779045307,59779045323,59779045344,59779077130,59779083830,59779095307,59779095323,60843012505,60843071803,60843071815,60855074002,60855074006,60855074059,61314034201,61314034202,61715004418,62011007701,62011007702,62011008501,62211027293,62542064200,62542064201,63029040101,63448031015,63629159401,63717025901,63717025999,63717026001,63868014418,63868014419,63868014423,63868014436,63868014437,63868014472,63868014474,63940045303,63940045344,63941067018,63941067036,63981045369,64048500001,64048500101,64092080218,64358052001,64358052005,64376043740,65923000554,66758001601,66758001602,66758001603,66758001604,66758001701,67060033302,67060033367,67060033368,67091020718,67091020772,68001033165,68016001521,68016023515,68016023518,68016023524,68016023536,68016075715,68016075724,68169993006,68258895301,68391009423,68391009478,68552069303,68552069315,68552069403,68788001401,68950002501,68950002502,68950002503,69097053431,69097053497,69097053535,69097053596,69097061437,69103253605,69103253606,69168027293,69536002515,69536005015,69536005021,69536010015,69536010021,69536012515,69536015015,69536015021,69536017515,69536017521,69842056910,69842064810,70000012601,70000012602,70000013201,70121157701,70121157705,70121157801,70121157807,70121157901,70253045307,70253045344,70518103800,70518103801,70692010024,70925009468,71105033368,71872704201,76014000410,76014000425,76014000430,76014000432,76014000433</t>
+  </si>
+  <si>
+    <t>Vasopressin and analogues</t>
+  </si>
+  <si>
+    <t>Vasopressin</t>
+  </si>
+  <si>
+    <t>H01BA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\VPreparations\11149\</t>
+  </si>
+  <si>
+    <t>RxNorm:11149,313578,374283,1593738,2103181,2103182,2103184</t>
+  </si>
+  <si>
+    <t>NDC:00071420002,00071420003,00071420045,00071420046,00469299000,00469302000,00517041010,00517051025,00517102025,00591355269,00686051025,00686102025,10797004203,10797005104,10797010204,10797010205,42023011725,42023016401,42023016425,42023019001,42023055225,43063008401,52584002025,52584005310,52584030201,54569391600,54569391601,54868574000,54868574001,54868626700,55154572405,55154955805,61570042001,61570042002,61570042003,63323030201,63323030209,64029420000,64029420001,64029420002,64029420003,65219030201,71872701401</t>
+  </si>
+  <si>
+    <t>Norepinephrine</t>
+  </si>
+  <si>
+    <t>C01CA03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\NPreparations\7512\</t>
+  </si>
+  <si>
+    <t>RxNorm:7512,209217,242969,1745276</t>
+  </si>
+  <si>
+    <t>NDC:00024112302,00074144304,00074704101,00143931801,00143931810,00247120004,00409144304,00409144314,00409144325,00409144355,00409337504,00409337525,00574085410,00703115301,00703115303,00781893285,24200011604,24200011610,24200011613,36000016201,36000016210,51662131501,52584044304,54868572100,55154045405,55154318505,55154445008,55390000210,61553011511,61553011561,61553012011,61553013411,61553015311,65174085410,66647615633,67457085200,67457085204</t>
+  </si>
+  <si>
+    <t>EPINEPHrine</t>
+  </si>
+  <si>
+    <t>C01CA24</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\3992\</t>
+  </si>
+  <si>
+    <t>RxNorm:3992,106779,106780,141848,198620,198621,204843,212343,244284,245317,247596,310116,310117,310127,310132,313967,372029,372030,372031,377281,727310,727316,727345,727347,727373,727386,727410,746206,746207,880658,883806,891437,891438,1305268,1305269,1490057,1546216,1546217,1658178,1660013,1660014,1660016,1661387,1721536,1870205,1870207,1870225,1870230,1870232,1989112,1989117,1991328,1991329</t>
+  </si>
+  <si>
+    <t>NDC:00023022015,00024583100,00024583102,00024583300,00024583302,00058077512,00065024910,00065026407,00071401113,00071418803,00074309605,00074432001,00074481005,00074490101,00074490118,00074492101,00074492118,00074492123,00074492133,00074492134,00074724101,00074724161,00077032275,00115169430,00115169449,00115169530,00115169549,00118998401,00118998406,00143998403,00143998490,00182615264,00182615364,00186065301,00223752001,00223752005,00247013430,00247025901,00247025905,00247025910,00247043501,00247043510,00247045015,00247078101,00247091510,00247096310,00247184430,00268030101,00268030102,00268030201,00268030401,00363503610,00363504610,00409490101,00409490110,00409490118,00409492120,00409492134,00409724101,00409724110,00409724120,00409724125,00409724160,00409724161,00469942377,00469942387,00472097015,00472097099,00498009617,00498009622,00517106125,00517106171,00517107125,00517113001,00517113005,00527017256,00527017258,00548101400,00548101600,00548104600,00548107100,00548201600,00548301600,00548331600,00548906100,00641142035,00641142036,00686106125,00686107125,00814295546,00839702461,00904777035,00998024910,10797010704,10797011301,10797011312,11098006501,11695714005,11704023301,11704023302,11704023312,11704023401,11704023402,11704023412,11704030112,11704030212,11704050001,11704050002,11704050101,11704050102,11917005456,11917005457,11980012215,11980022015,13436070001,13436070002,13436070101,13436070102,13985049334,13985053250,14043023150,15343010420,15343010540,15343012522,17022144207,17270503000,17270504000,21695094701,23490549702,24357081120,24357091101,24357091120,27705070000,27705070001,27705070002,27705070101,27705070102,36000002305,37205010605,37205010705,38739003001,38739020001,38739020002,38739020006,38739020012,42023010101,42023010110,42023010210,42023010301,42023012225,42023015925,42023016801,42023016810,43835000101,44827030102,49326033101,49348002529,49348075129,49349074701,49349074714,49502010101,49502010102,49502010201,49502010202,49502050001,49502050002,49502050101,49502050102,49999071802,49999071803,50090041800,50090041801,50090124300,50090136000,50090205800,50090273300,50090273400,50090315500,50629091919,50989010211,51662122101,51662122201,51662122301,51662122401,51662122501,51662129001,51662130701,52054080302,52054080402,52125078501,52238063015,52504080402,52584000118,52584000418,52584000434,52584001905,52584010301,52584015925,52584024101,52584024110,54288010301,54288010310,54505010101,54505010102,54505010201,54505010202,54569139100,54569139200,54569142200,54569154700,54569157800,54569167300,54569167301,54569307500,54569307501,54569472600,54569625700,54569625800,54569642500,54868136300,54868206500,54868206501,54868240002,54868280400,54868280401,54868301500,54868364100,54868481900,54868481901,54868572500,54868623900,54868623901,55045320701,55045320702,55045359801,55045369603,55045378001,55045990303,55154238105,55154238108,55154318608,55154319508,55154572305,55154572308,57866304503,58005000402,58016317701,58196006531,59630080101,59630080102,59630080201,59630080202,59630080301,59630080302,59630080401,59630080402,59762017101,59762017102,59762017201,59762017202,60793040111,60842002101,60842002201,60842002301,61553036965,61570030031,61570040111,61570041880,61570041881,61786024201,62174053707,62250010301,62250010310,62778002507,62778002621,62778002622,63286004104,63739045605,63739045621,63739046705,63739046721,64029300301,64029401101,64029418801,64029418802,64725050001,64725050101,65044998101,65044998102,65044998406,66758001001,66860002001,66860002102,66860002103,68030907901,68055077510,68258304101,68788637602,68950002601,70385200802,70385200901,70385201701,70518041300,70518045400,70518052800,70518095100,70518121500,70518122400,70518134200,71872700701,71872704001,71872710301,71872711701,71872712001,71872713401,71872713501,76329331601,76329906100,87900050935,87900051035,87900093260,87900103260</t>
+  </si>
+  <si>
+    <t>Platelet aggregation inhibitors excl. heparin</t>
+  </si>
+  <si>
+    <t>Epoprostenol</t>
+  </si>
+  <si>
+    <t>B01AC09</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\8814\</t>
+  </si>
+  <si>
+    <t>RxNorm:8814,211199,211200,562501,562502,1009216,1302755,1789858</t>
+  </si>
+  <si>
+    <t>NDC:00081046001,00081046401,00173051700,00173051900,00703198501,00703199501,10139090015,20694011101,20694011201,51952051700,51952051900,65044551801,66215040101,66215040201,66215040301</t>
+  </si>
+  <si>
+    <t>Other respiratory system products</t>
+  </si>
+  <si>
+    <t>Nitric Oxide</t>
+  </si>
+  <si>
+    <t>R07AX01</t>
+  </si>
+  <si>
+    <t>Phosphodiesterase inhibitors</t>
+  </si>
+  <si>
+    <t>Milrinone</t>
+  </si>
+  <si>
+    <t>C01CE02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\MPreparations\52769\</t>
+  </si>
+  <si>
+    <t>RxNorm:52769,311705,347930,404093,1791839,1791840,1791842,1791854,1791859,1791861,1939322</t>
+  </si>
+  <si>
+    <t>NDC:00024120005,00024120006,00024120010,00024120020,00024120025,00024120050,00024120301,00024120302,00024120315,00024120325,00074112501,00074277501,00074277502,00074277602,00074277623,00143932601,00143932610,00143970801,00143970802,00143970810,00143970901,00143970902,00143970910,00143971001,00143971002,00143971003,00143971010,00143971025,00143971801,00143971810,00143971901,00143971910,00264300032,00338601048,00338601137,00409021201,00409021202,00409021203,00409021210,00409021211,00409112501,00409112502,00409277501,00409277502,00409277602,00409277623,00641590701,00641590702,00641606501,00641606510,00641606701,00641606710,00703800501,00703800503,00703800601,00703800603,00703800801,10019007001,10019007002,10019007003,10019007010,10019007020,10130001901,10130001902,10130001903,10139005710,10139005720,49856071800,49856071801,49856074001,49856074002,53360120001,53360120002,53360120005,55154810205,55390001910,55390002010,55390002101,55390007410,55390007510,55390007601,55390007801,55390007901,59911590502,59911590602,59911590702,59911590802,60505071800,60505071801,60505074001,60505074002,61703024221,61703024232,61703024250,61763024221,61763024232,61763024250,62778005901,62778005902,62778005903,62778006001,62778006002,62778006101,62778006102,62778009229,62778009329,63286016002,63323061710,63323061720,63323061750,67457016020,68083031801,68083031810</t>
+  </si>
+  <si>
+    <t>DOBUTamine</t>
+  </si>
+  <si>
+    <t>C01CA07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\3616\</t>
+  </si>
+  <si>
+    <t>RxNorm:3616,204395,309985,309986,309987,1812167,1812168,1812170</t>
+  </si>
+  <si>
+    <t>NDC:00002717501,00002717510,00002737501,00002737510,00002749601,00002750001,00024059301,00024059401,00074202520,00074202554,00074234401,00074234402,00074234632,00074234634,00074234732,00074344010,00074344020,00074372402,00074372432,00074472901,00186193101,00186193103,00264982359,00338107102,00338107302,00338107303,00338107402,00338107502,00338107702,00364303155,00409202520,00409202554,00409202560,00409202564,00409234401,00409234402,00409234462,00409234468,00409234488,00409234632,00409234634,00409234732,00409234733,00409372432,00409472901,00517207510,00641235945,00702737501,00702737510,00703181503,10019018120,10019018420,10119018120,10130056020,10130056090,52584004820,52584005190,54868571700,54868571701,54868571702,54868577700,55154035105,55390056020,55390056090</t>
+  </si>
+  <si>
+    <t>Dopamine</t>
+  </si>
+  <si>
+    <t>C01CA04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\3628\</t>
+  </si>
+  <si>
+    <t>RxNorm:3628,238217,238218,238219,310011,310012,310013,727842,727843,727844,1114874,1114880,1114888,1292716,1292731,1292740,1292751,1292887,1743862,1743869,1743871,1743877,1743879,1743938,1743941,1743950,1743953</t>
+  </si>
+  <si>
+    <t>NDC:00047421008,00047421045,00047422008,00071421008,00071421045,00071422008,00074414102,00074414103,00074414202,00074414203,00074415502,00074426501,00074426601,00074426618,00074580901,00074581901,00074581916,00074582001,00074582010,00074582011,00074780802,00074780803,00074780822,00074780824,00074780902,00074780903,00074780922,00074780924,00074781002,00074781022,00074910401,00074910413,00074910420,00074910501,00074910518,00074910601,00094004005,00094004006,00094004007,00094004605,00094004606,00094004607,00094004705,00094004706,00094004707,00143925201,00143925225,00143925301,00143925325,00143925401,00143925425,00143925501,00143925525,00186063801,00186063901,00186064101,00186064201,00186064301,00186101013,00186101112,00186101213,00186101312,00186101413,00186105003,00186105103,00186105203,00186105503,00186105602,00223748405,00223748505,00223748605,00223748705,00246514410,00247115605,00247119305,00264144155,00264144255,00264148155,00264148255,00264149255,00264514410,00264514420,00264514810,00264514820,00264514920,00338100502,00338100503,00338100702,00338100703,00338100902,00409414102,00409414103,00409414202,00409414203,00409426501,00409582001,00409582011,00409780822,00409780824,00409780911,00409780922,00409780924,00409780931,00409781011,00409781022,00409910413,00409910420,00409910421,00469133020,00469134020,00469135020,00469909287,00469909387,00517130525,00517180525,00517190525,00548613500,00548613600,00548613700,00590004005,00590004006,00590004007,00590004606,00590004607,00590004706,00590004707,00641011225,00641011425,00641141335,00641141635,00686130525,00686140525,00686160304,00686161304,00686180525,00703160304,00703161304,10797013004,10797018004,10797019004,24200084666,24200084910,39769000905,39769001005,51662122001,51662131601,52584000825,52584010420,52584080525,52584082001,54569422300,54868001500,55154473508,55154570805,55154570807,55154570808,55154571205,61703020705,61703020909,61786016626</t>
+  </si>
+  <si>
+    <t>Other cardiac stimulants</t>
+  </si>
+  <si>
+    <t>angiotensin II</t>
+  </si>
+  <si>
+    <t>C01CX09</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\1999003\</t>
+  </si>
+  <si>
+    <t>RxNorm:1999003,1999006,1999007,1999012</t>
+  </si>
+  <si>
+    <t>NDC:68547050102</t>
+  </si>
+  <si>
+    <t>MUSCLE RELAXANTS</t>
+  </si>
+  <si>
+    <t>vecuronium</t>
+  </si>
+  <si>
+    <t>M03AC03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\VPreparations\71535\</t>
+  </si>
+  <si>
+    <t>RxNorm:71535,240606,376856,404136,859437</t>
+  </si>
+  <si>
+    <t>NDC:00052044115,00052044117,00052044160,00069009401,00069009402,00069010804,00069010805,00074163201,00074163249,00074163401,00074163449,00209914022,00209914092,00209914126,00209914196,00209914322,00209914392,00364306133,00364306154,00402105310,00409163201,00409163249,00409163401,00409163449,00591306179,00703048101,00703048202,00703291401,00703291403,00703292501,00703292503,10019048101,10019048110,10019048202,10130003710,10130003910,23360016008,23360016010,24200076050,25021065710,25021065820,41616093140,41616093144,41616093240,41616093244,47335093140,47335093144,47335093240,47335093244,55154036505,55154045705,55154236305,55154527505,55390003710,55390003910,55390018110,55390018210,59911538902,59911583802,59911583902,61553030265,61553030272,61786035601,63323041410,63323078110,63323078220,66647601242,67457043800,67457043810,67457047500,67457047520,67457057100,67457057110,67457057200,67457057220,68083013901,68083013910,68083014001,68083014010</t>
+  </si>
+  <si>
+    <t>rocuronium bromide</t>
+  </si>
+  <si>
+    <t>M03AC09</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\RPreparations\68139\</t>
+  </si>
+  <si>
+    <t>RxNorm:68139,198383,207901,375623,584528,584530,828589,828591,830752,1234995,1242617</t>
+  </si>
+  <si>
+    <t>NDC:00052045005,00052045010,00052045015,00052045016,00052045085,00052045086,00143925001,00143925010,00143925101,00143925110,00409955805,00409955810,00409955849,00409955850,00703239401,00703239403,00703239501,00703239503,00781322070,00781322075,00781322092,00781322095,10139023505,10139023510,10139023511,10139023515,24200075549,25021066205,25021066210,39822420001,39822420002,39822420005,39822420006,47781061617,47781061620,47781061722,47781061791,52533006415,54569422000,54643141501,54643141502,54643141503,54643141504,55150022505,55150022610,59651011501,59651011510,59651011601,59651011610,60889045000,60889045001,60889045002,61553032133,61553032170,61553032872,61786022257,63323042605,63323042610,65293042605,65293042610,65293042710,66647601025,66647601042,66914102901,66914102902,67457022800,67457022805,67457022810,67457022899,67457057300,67457057305,67457057400,67457057410,68083011501,68083011502,68083036401,68083036410,68083036501,68083036510,70860065105,70860065110,71872703601</t>
+  </si>
+  <si>
+    <t>Cisatracurium</t>
+  </si>
+  <si>
+    <t>M03AC11</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\319864\</t>
+  </si>
+  <si>
+    <t>RxNorm:199211,199212,210676,210677,319864,377135,1730193,1730194,1730196</t>
+  </si>
+  <si>
+    <t>NDC:00074437805,00074437824,00074438001,00074438010,00074438079,00074438220,00074438291,00081054047,00081054050,00081054301,00081054600,00173054047,00173054050,00173054301,00173054600,00409437805,00409438010,00409438220,00703203301,00703203303,00703204501,00703204503,00703205601,00703205603,00740438010,00740438220,00781315075,00781315095,00781315270,00781315295,00781315380,00781315395,00781903775,00781903795,00781903870,00781903895,00781903980,00781903995,24200076550,24200076651,25021066805,25021066920,25021067010,57884306101,57884306201,57884306301,63323041605,63323041710,63323041820</t>
+  </si>
+  <si>
+    <t>Potential treatment of COVID-19</t>
+  </si>
+  <si>
+    <t>HCQ</t>
+  </si>
+  <si>
+    <t>Aminoquinolines</t>
+  </si>
+  <si>
+    <t>hydroxychloroquine</t>
+  </si>
+  <si>
+    <t>P01BA02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\HPreparations\5521\</t>
+  </si>
+  <si>
+    <t>RxNorm:5521,197796,202317,370656,979092,979094</t>
+  </si>
+  <si>
+    <t>NDC:00024156104,00024156210,00024156214,00093977401,00093977405,00143212801,00179185670,00179185671,00179185672,00182260901,00247222000,00247222030,00339529111,00364262701,00378037301,00378037305,00378037399,00406209601,00406209605,00440761560,00490716100,00490716101,00490716102,00490716103,00490716104,00490716105,00490716106,00490716107,00490716108,00490716109,00490716110,00490716112,00490716114,00490716115,00490716116,00490716118,00490716120,00490716121,00490716124,00490716125,00490716126,00490716127,00490716128,00490716130,00490716132,00490716135,00490716136,00490716140,00490716142,00490716144,00490716145,00490716148,00490716150,00490716156,00490716160,00490716167,00490716169,00490716170,00490716171,00490716172,00490716173,00490716175,00490716176,00490716177,00490716179,00490716180,00490716181,00490716182,00490716183,00490716184,00490716187,00490716189,00490716190,00490716191,00490716192,00490716193,00490716196,00490716197,00490716198,00490716199,00536571001,00591069801,00591069805,00591304101,00591304105,00603394421,00615821839,00677159001,00781140101,00781140701,00781140705,00781140710,00781140752,00781140788,00781140797,00781599401,00781599405,00839796306,00904510760,00904650806,00904650861,00955079001,00955079005,10544057890,12634080112,16714047401,16714075301,17236061001,21695048630,23490572403,23490572406,23490572409,23629002701,23629027001,24987056210,24987056220,26053017001,33261093300,33261093330,33261093333,33261093360,33261093390,38245077410,38245077450,42291031801,42291031818,42291031850,42291031890,42291031901,42291031918,42291032001,42291032018,42291033590,42292001101,42292001106,43353005109,43353005153,43353005160,43353005180,43353010309,43353010353,43353010360,43353010380,43353076153,43353076180,43353079416,43353079453,43353079460,43353079480,43353097209,43353097253,43353097260,43353097280,43353099709,43353099753,43353099760,43598072101,43598072105,49349016202,49999037260,50090068101,50090187301,50090250801,51129136901,51129142601,51129403001,51129403002,51660029601,51660029603,51660029605,51660029610,51875037701,51875037702,52544069801,52544069805,52555064201,52761037701,52959017600,52959017660,53002048560,53002485002,53002485006,53360079000,53360156200,53978013306,54569498100,54569498101,54868382100,54868382101,54868382102,54868382103,54868382104,55045276600,55154207400,55154342900,55154342904,55154342906,55154342908,55175503101,55887091601,55887091630,55887091660,57261037701,57451029601,57451029605,57451500801,57451500802,57451500803,57451500804,57664076113,57664076188,57866902701,59212056210,59212056220,60429070001,60429070030,60429070060,61919013230,62269025024,62269025029,62269140701,63304029601,63304029603,63304029605,63304029610,63629334301,63629334302,63629334303,63629334304,63629334305,63739077710,65162061010,65841063301,65841063305,65841063330,66267040815,66267040820,66267040830,66267040840,66267040860,66336055530,66336055540,66336055560,66993005702,66993005704,66993005720,67228023003,67228023006,67228042303,67228042306,67544098180,68084002601,68084026901,68084026911,68115063300,68151051108,68180012001,68180012002,68258906301,68258926901,68382009601,68382009605,68382009630,68382009677,69189005801,69189009701,69238154401,71335089701,71335089702,71335089703,71335089704,71335089705,71610004709,71610004753,71610004760,71610004780</t>
+  </si>
+  <si>
+    <t>Potential treatment of COVID-20</t>
+  </si>
+  <si>
+    <t>Chloroquine</t>
+  </si>
+  <si>
+    <t>P01BA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\2393\</t>
+  </si>
+  <si>
+    <t>RxNorm:2393,197474,213378,226388,249663,250175,261104,371407,755624,755625,756408,1116758,1116760,1117346,1117351,1117353,1117531</t>
+  </si>
+  <si>
+    <t>NDC:00024007701,00024008401,00024008456,00115279000,00115279001,00115279002,00115279003,00115279004,00115279006,00115701001,00115701002,00115701009,00115705601,00115705606,00143119501,00143119505,00143119510,00143119525,00143119550,00143212501,00143212505,00143212510,00143212522,00143212525,00182046901,00223069101,00223069102,00247041510,00247041512,00247041515,00247041516,00247041518,00247041520,00247041522,00247122501,00247122506,00247122510,00280008401,00280008402,00332216009,00332216015,00364047001,00364243101,00440725314,00591554801,00591554803,00591554804,00591554901,00591554903,00591554904,00677101101,00719120710,00719120713,00781110001,00814164114,00814164130,00839114206,23490527205,23490527301,43063045410,43063045440,43567054612,51432007703,54569377702,54569377705,54569523800,54569523801,54569523802,54569523803,54569523804,54868318500,54868395300,55045160607,55045297101,55045297102,55289085610,55289085640,57866907302,60429007650,60429007725,63304046003,63304046010,63304046050,63304046103,63304046105,63304046126,63629486201,63629537301,64896701001,64896701002,64896701009,64980017701,64980017705,64980017710,64980017750,64980017801,64980017802,64980017805,64980017810,66267088304,66267088312,68071000904,68071004604,68151048702</t>
+  </si>
+  <si>
+    <t>ILI</t>
+  </si>
+  <si>
+    <t>Interleukin inhibitors</t>
+  </si>
+  <si>
+    <t>Anakinra</t>
+  </si>
+  <si>
+    <t>L04AC03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\72435\</t>
+  </si>
+  <si>
+    <t>RxNorm:72435,351141,352056,727708,727711,727714,727715</t>
+  </si>
+  <si>
+    <t>NDC:55513017701,55513017707,55513017728,66658023401,66658023407,66658023428</t>
+  </si>
+  <si>
+    <t>Interleukin inhibitor</t>
+  </si>
+  <si>
+    <t>Sarilumab</t>
+  </si>
+  <si>
+    <t>L04AC14</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\SPreparations\1923319\</t>
+  </si>
+  <si>
+    <t>RxNorm:1923319,1923332,1923333,1923338,1923345,1923347,2003754,2003755,2003757,2003766,2003767</t>
+  </si>
+  <si>
+    <t>NDC:00024590801,00024590802,00024591001,00024591002,00024592001,00024592002,00024592201,00024592202</t>
+  </si>
+  <si>
+    <t>Tocilizumab</t>
+  </si>
+  <si>
+    <t>L04AC07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\612865\</t>
+  </si>
+  <si>
+    <t>RxNorm:612865,895760,895764,1441526,1441527,1441530,1657973,1657974,1657976,1657979,1657980,1657981,1657982</t>
+  </si>
+  <si>
+    <t>NDC:50242013501,50242013504,50242013601,50242013604,50242013701,50242013704,50242013801,50242013886</t>
+  </si>
+  <si>
+    <t>Siltuximab</t>
+  </si>
+  <si>
+    <t>L04AC11</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\SPreparations\1535218\</t>
+  </si>
+  <si>
+    <t>RxNorm:1535218,1535242,1535247,1658131,1658132,1658135,1658139,1658141</t>
+  </si>
+  <si>
+    <t>NDC:57894042001,57894042101</t>
+  </si>
+  <si>
+    <t>INTERFERON</t>
+  </si>
+  <si>
+    <t>Interferon</t>
+  </si>
+  <si>
+    <t>interferon beta-1b</t>
+  </si>
+  <si>
+    <t>L03AB08</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\IPreparations\72257\</t>
+  </si>
+  <si>
+    <t>RxNorm:72257,198360,207059,860244,1721323</t>
+  </si>
+  <si>
+    <t>NDC:00078056912,00078056961,00078056999,50419052101,50419052103,50419052105,50419052115,50419052201,50419052301,50419052304,50419052309,50419052315,50419052325,50419052335,50419052380,50419052401,50419052405,50419052409,50419052435,50419052481,53905052301,53905052308,53905052315,53905052325</t>
+  </si>
+  <si>
+    <t>peginterferon alfa-2a</t>
+  </si>
+  <si>
+    <t>L03AB11</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\PPreparations\120608\</t>
+  </si>
+  <si>
+    <t>RxNorm:120608,351270,352297,378926,403986,731325,731326,731328,731330,1650893,1650894,1650896,1650922,1650940,1651307</t>
+  </si>
+  <si>
+    <t>NDC:00004035009,00004035039,00004035099,00004035230,00004035239,00004035298,00004035730,00004035799,00004036009,00004036030,00004036509,00004036530,12806035001,12806035009,12806035209,54868488700</t>
+  </si>
+  <si>
+    <t>REMDESIVIR</t>
+  </si>
+  <si>
+    <t>Antiviral</t>
+  </si>
+  <si>
+    <t>Remdesivir</t>
+  </si>
+  <si>
+    <t>COVIDVIRAL</t>
+  </si>
+  <si>
+    <t>DIRECT ACTING ANTIVIRALS</t>
+  </si>
+  <si>
+    <t>lopinavir and ritonavir</t>
+  </si>
+  <si>
+    <t>J05AR10</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\LPreparations\284640\</t>
+  </si>
+  <si>
+    <t>RxNorm:284477,284640,311368,311369,374642,374643,597729,597730,602770,746645,746647,847741,847745,847749</t>
+  </si>
+  <si>
+    <t>NDC:00007679922,00007679930,00074052206,00074052260,00074395646,00074395977,00074679922,00074679930,00179172370,00179172371,00179172372,00490702800,00490702801,00490702802,00490702803,00490702804,00490702805,00490702806,00490702807,00490702808,00490702809,00490702810,00490702830,00490702860,00490702890,00527194748,11014001901,11014129501,11819034220,12613052206,12613679906,17856679902,21695036212,24236067601,24236067602,24236067606,24236067613,35356011160,35356011201,35356011230,49349002402,49349002406,49349002413,49349002421,51129361301,51129361302,52959013418,52959096812,53808027601,54569552500,54569575200,54569575201,54569575202,54569619900,54868556600,55045348201,55154695500,55154695504,55154695505,55154695506,55289094712,66336062412,67263023212,68071074812,68258197201,70518009100,70518009101,70518009102</t>
+  </si>
+  <si>
+    <t>Darunavir</t>
+  </si>
+  <si>
+    <t>J05AE10</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\460132\</t>
+  </si>
+  <si>
+    <t>RxNorm:460132,643073,643074,670026,794610,824338,824876,831868,831870,850455,850457,1236627,1236628,1236632,1359269,1359271</t>
+  </si>
+  <si>
+    <t>NDC:24236029901,24236029902,24236092702,35356011330,35356028460,49349080702,50090132700,50090149100,52125061302,53808067201,53808077301,54569581400,54569608600,54569615900,54569636600,54569640300,54569814000,54868563100,54868596900,54868636900,59604056001,59604056101,59604056201,59604056301,59604056401,59676056001,59676056101,59676056201,59676056301,59676056401,59676056501,59676056630,67263059060,68258198006,68258198606,69189056601,70518068900,70518148300</t>
+  </si>
+  <si>
+    <t>Ribavirin</t>
+  </si>
+  <si>
+    <t>J05AP01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\RPreparations\9344\</t>
+  </si>
+  <si>
+    <t>RxNorm:9344,108766,207406,248109,248110,248112,312817,312818,352007,352337,373772,373773,373774,376293,378671,539485,544400,597718,597722,616129,616131,616133,701411,701413,754738,757597,757598,757599,757600,790286,795742,795743,847330,896790,902312,902313,1298334,1486197,1486198,1486200,1486202,1486203,1487498,1487500,1863148,1992160</t>
+  </si>
+  <si>
+    <t>NDC:00004008604,00004008694,00004008699,00074319716,00074319730,00074322414,00074322456,00074323914,00074323956,00074327114,00074327156,00074328214,00074328256,00085119403,00085131801,00085132704,00085135105,00085138507,00093722758,00093722763,00093722772,00093722777,00093723281,00187000701,00187000714,00247225012,00247225030,00406204616,00406226042,00406226056,00406226070,00406226084,00480722758,00480722763,00480722772,00480722777,00480723281,00781204301,00781204304,00781204310,00781204313,00781204316,00781204328,00781204342,00781204367,00781517701,00781517704,00781517710,00781517716,00781517728,00781517742,00781517767,10130000314,16241006941,16241006956,16241006976,16241007041,16241007056,16241007076,16241033741,16241033776,42291071818,42291071856,42291071870,42291071884,49349048634,49349082906,49884004532,49884007114,49884007141,49884007176,49884033841,49884033876,49884034041,49884034076,49884085656,49884085692,49884085693,49884085694,51564010111,53095000701,53095000702,53095000714,53808078101,53808078201,53922119401,53922119402,53922119403,53922119404,53922119405,53922132704,54738095016,54738095156,54738095256,54738095318,54738095342,54738095356,54738095370,54738095384,54868452100,54868452101,54868452102,54868452103,54868503500,59930152301,59930152302,59930152303,59930152304,63285002101,63552035018,63552035056,63552035092,63552035093,63552035094,63552035099,63552036016,63552036156,63552036195,63552036256,63552036292,63552036332,64158097314,65841004603,65841004610,65841004628,65841004630,65841012907,65841012914,65841012917,65841026003,65841026004,65841026007,65841026009,65841026010,65841026012,65841026013,65841026028,65841026030,65841060307,65841060314,65841060317,65841063207,65841063214,65841063217,65862020705,65862020739,65862020768,65862029005,65862029018,65862029039,65862029042,65862029056,65862029068,65862029070,65862029084,66435010001,66435010114,66435010116,66435010118,66435010142,66435010156,66435010170,66435010184,66435010216,66435010295,66435010356,66435010395,66435010456,66435010492,66435010556,66435010599,66435010656,66435010699,66435010756,66435010799,66435010856,66435010899,68084015011,68084015065,68084017911,68084017965,68382004603,68382004610,68382004628,68382004630,68382004677,68382012707,68382012714,68382012717,68382012807,68382012814,68382012817,68382012907,68382012914,68382012917,68382026003,68382026004,68382026007,68382026009,68382026010,68382026012,68382026013,68382026028,68382026030,68382026077,68382039501,68382039504,68682001906,69189204301</t>
+  </si>
+  <si>
+    <t>Tracked Drugs</t>
+  </si>
+  <si>
+    <t>ACEI</t>
+  </si>
+  <si>
+    <t>ACE inhibitors, plain</t>
+  </si>
+  <si>
+    <t>captopril</t>
+  </si>
+  <si>
+    <t>C09AA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\1998\</t>
+  </si>
+  <si>
+    <t>RxNorm:1998,199931,247516,308962,308963,308964,317173,371254,374938</t>
+  </si>
+  <si>
+    <t>NDC:00003045006,00003045011,00003045051,00003045054,00003045075,00003045210,00003045224,00003045239,00003045250,00003045251,00003045275,00003045294,00003045295,00003048206,00003048250,00003048251,00003048275,00003048550,00003048551,00047052224,00047052232,00047054224,00047054232,00047054324,00047055924,00047055932,00056072170,00056072190,00056072270,00056072290,00056072470,00056072490,00056072770,00056072790,00093009101,00093009110,00093009201,00093009210,00093009701,00093009710,00093009801,00093813201,00093813210,00093813301,00093813310,00093813401,00093813410,00093813501,00143117101,00143117109,00143117110,00143117125,00143117130,00143117190,00143117201,00143117209,00143117210,00143117225,00143117230,00143117290,00143117301,00143117309,00143117310,00143117325,00143117330,00143117401,00143117409,00143117410,00143117425,00143117430,00182262201,00182262205,00182262210,00182262301,00182262305,00182262310,00182262389,00182262401,00182262405,00182262410,00182262501,00185003101,00185003110,00185006101,00185006110,00185047101,00185047110,00185059101,00185059105,00185059110,00247122200,00247138114,00247138130,00247138160,00247138190,00247163530,00247163600,00247163601,00247163614,00247163630,00247163660,00247163690,00247163699,00247163700,00247163730,00247163760,00339522511,00339637311,00339637314,00364262801,00364262802,00364262805,00364262806,00364262901,00364262902,00364262905,00364263001,00364263002,00364263005,00364263101,00378300701,00378300710,00378301201,00378301210,00378301701,00378301710,00378302201,00440723160,00440723190,00440723192,00440723194,00440723260,00440723290,00440723292,00440723294,00536347101,00536347105,00536347201,00536347210,00536347301,00536347305,00536347401,00536427201,00536427205,00536427301,00536427401,00536427405,00536427501,00603255521,00603255532,00603255621,00603255632,00603255721,00603255732,00603255821,00615451931,00615451939,00615451953,00615451963,00615452031,00615452039,00615452053,00615452063,00615452131,00615452139,00615452143,00615452153,00615452163,00615452165,00677159201,00677159210,00677159301,00677159310,00677159401,00677159410,00677159501,00781182801,00781182810,00781182813,00781182901,00781182910,00781182913,00781183801,00781183810,00781183813,00781183901,00781183910,00781183913,00781805201,00781805210,00781806101,00781806110,00781807501,00781807510,00781808001,00781808010,00839799406,00839799412,00839799416,00839799506,00839799512,00839799516,00839799606,00839799612,00839799616,00839806406,00839806416,00855082750,00904504540,00904504560,00904504561,00904504567,00904504580,00904504591,00904504640,00904504660,00904504661,00904504680,00904504740,00904504760,00904504761,00904504780,00904504840,00904504860,00904504880,10544017530,11845112001,11845112004,11845112101,11845112104,11845112201,11845112204,11845112301,12634077071,12783045004,12783045005,12783045205,12783045206,12783045207,12783048205,12783048501,12783048505,13411018402,13411018403,13411018406,13411018409,13411018410,13411023102,13411023103,13411023106,13411023109,13411023110,13411023302,13411023303,13411023306,13411023309,13411023310,13411054906,15548004501,15548004503,15548004505,15548004601,15548004602,15548004603,15548004701,15548004703,15548004801,15548045051,15548045054,15548045075,15548045250,15548045251,15548045294,15548045295,15548048250,15548048251,15548048275,15548048550,21695047730,21695047778,21695047830,23490519101,23490519201,23490519301,23490519302,23490519303,23490519400,23490519401,23490519402,24236001002,24236022702,24236039502,24236090902,26053008401,33261018200,33261018230,33261018260,33261018290,33261053630,33261053660,33261097400,33261097430,33261097460,33261097490,38245031210,38245031220,38245047110,38245047120,38245065310,38245074310,38245074320,42254033578,42254035390,43063014630,43806013240,43806013270,43806013280,43806013340,43806013370,43806013380,43806013440,43806013470,43806013480,43806013540,43806013570,43806013580,48581612101,48581612103,48581612201,48581612203,48581612301,48581612303,48581612401,48581612403,49349030602,49856000306,49856000309,49856000406,49856000409,49856000506,49856000509,49856000606,49856000609,49884044401,49884044410,49884044501,49884044510,49884044601,49884044610,49884044701,49884044710,49884061901,49884061910,49884062001,49884062010,49884062101,49884062110,49884062201,49884079301,49884079374,49884079401,49884079410,49884079474,49884079501,49884079510,49884079574,49884079601,49999010500,49999010510,49999010530,49999010560,49999051130,49999051160,50090184003,50436610301,50436610401,50436610602,51079086301,51079086319,51079086320,51079086401,51079086419,51079086420,51129045201,51129130901,51129178601,51129188801,51129188901,51129191601,51129224201,51129239101,51129239201,51129254001,51129280701,51129373801,51129373802,51129394001,51129394002,51138001330,51138001430,51138001530,51138001630,51138050515,51138050530,51138050630,51138050730,51138050820,51138050845,51285095002,51285095005,51285095102,51285095105,51285095202,51285095205,51285095302,51285095602,51285095605,51285095702,51285095705,51285095802,51655027824,51655097524,51875034801,51875034802,51875034804,51875034901,51875034902,51875034904,51875035001,51875035002,51875035501,51875035502,51875035504,51875095502,51875095505,52125082002,52347045201,52544068801,52544068805,52544068810,52544068901,52544068905,52544068910,52544069001,52544069005,52544069010,52544069101,52555063701,52555063710,52555063801,52555063810,52555063901,52555063910,52555064001,53002043100,53002043130,53002043150,53002043160,53002043190,53002108600,53002108603,53002108606,53217000300,53217000330,53217000360,53217000390,53467045203,53506072130,53808021701,53808034701,53808034801,53808035901,53808091101,53808091201,53978023601,53978023603,53978023604,53978023606,53978051701,53978051703,53978051704,53978051705,53978051708,53978093901,53978093903,53978093909,54124025802,54124025815,54124025830,54441011510,54441011511,54441011515,54441011525,54441011550,54569052200,54569052201,54569052203,54569052300,54569052302,54569052350,54569424600,54569424601,54569424603,54569424604,54569424605,54569424607,54569424700,54569424702,54569424703,54569424704,54569459300,54569459301,54569459303,54697005101,54697005102,54697005103,54697005104,54697005105,54697006201,54697006202,54697006203,54697006204,54697006205,54868066901,54868066902,54868066903,54868066905,54868066906,54868141501,54868141502,54868177501,54868177503,54868177504,54868372300,54868372301,54868372302,54868372303,54868372304,54868372305,54868372400,54868372401,54868372402,54868372403,54868372404,54868372500,54868372501,54868372502,54868372503,54868372504,54868519600,54868519601,54868519602,55045237600,55045237608,55045237609,55045242400,55045242406,55154068900,55154069300,55154073200,55154370600,55154370700,55154370707,55154546500,55154547300,55154549307,55289021230,55289021290,55289034430,55289034490,55289034497,55289050601,55289050630,55289050697,55370014207,55370014209,55370014407,55370014409,55370014507,55370014509,55370016407,55370016409,55648090201,55648090202,55648090203,55648090204,55648090205,55648090301,55648090302,55648090303,55648090304,55648090305,55648090401,55648090402,55648090403,55648090404,55648090405,55648090501,55648090502,55648090503,55648090504,55887043030,55887058201,55887058230,55887058260,55887058290,55887098730,55953001340,55953013240,55953013270,55953013280,55953013340,55953013370,55953013380,55953013440,55953013470,55953013480,55953013540,55953013570,55953013580,57480083801,57480083806,57480083901,57480083906,57480084001,57480084006,57480084101,57721090201,57721090202,57721090205,57721090301,57721090302,57721090305,57721090401,57721090402,57721090405,57721090501,57721090504,57866610301,57866610302,57866610303,57866610304,57866610601,57866610602,57866610603,57866610604,57866610702,57866610703,58016016500,58016016600,58056011010,58056011050,58864006628,59564012820,59772704501,59772704503,59772704504,59772704505,59772704506,59772704507,59772704601,59772704602,59772704603,59772704604,59772704605,59772704606,59772704701,59772704703,59772704704,59772704705,59772704801,59911583201,59911583202,59911583301,59911583302,59911583401,59911583402,59911583501,59930165501,59930165502,59930165503,59930165601,59930165602,59930165603,59930165701,59930165702,59930165703,59930165801,59930165802,59930165803,60429002901,60429002910,60429002990,60429003001,60429003010,60429003012,60429003027,60429003060,60429003090,60429003101,60429003110,60429003112,60429003127,60429003130,60429003160,60429003190,60429025701,60491010160,60491010168,60491010180,60491010260,60491010268,60491010280,60491010301,60491010360,60491010368,60505000306,60505000309,60505000406,60505000409,60505000506,60505000509,60505000606,60505000609,60687030411,60687030421,60687031511,60687031521,60760030130,60760030230,60760030330,60763101100,60763101102,60763101200,60763101202,60763101300,60763101302,60763101400,60951072170,60951072190,60951072270,60951072290,60951072470,60951072490,60951072770,60951072790,61392014725,61392014765,61392014795,61392060425,61392060430,61392060460,61392060490,61392060525,61392060530,61392060531,61392060539,61392060560,61392060565,61392060590,61392060595,61786003102,61786062102,62033010120,62584032250,62584032450,62584096585,62645040110,63629133801,63629133802,63629133803,63629133804,63629133805,63629170601,63629170602,63629170603,63629254101,63629254102,63629254103,63629254104,63629289601,63739004201,63739004203,63739004210,63739004215,63739004301,63739004303,63739004310,63739004315,63874034701,63874034702,63874034705,63874034720,63874034730,63874034740,63874034742,63874034745,63874034790,63874034801,63874034810,63874034814,63874034820,63874034830,63874034860,63874034890,63874034901,64579001300,64579001301,64579001400,64579001420,64579001500,64579001501,64679090201,64679090202,64679090205,64679090301,64679090302,64679090305,64679090401,64679090402,64679090405,64679090501,64679090502,64679090504,64725005003,64725005203,64725005303,64725039403,65084033310,65084033312,65084033410,65084033412,65084033510,65084033512,65084033610,65222098730,66105066602,66105066603,66105066606,66105066609,66105066610,66105069402,66105069403,66105069406,66105069409,66105069410,66105069502,66105069503,66105069506,66105069509,66105069510,66105078223,66267004020,66267004030,66267004040,66267004060,66267004090,66267004230,66267004260,66267004290,66267029310,66267029320,66267029330,66267029340,66267029360,66267029390,66267054010,66267054020,66267054030,66267054040,66267054060,66267054090,66336061860,66336075030,66336075060,66336075090,66336079460,66336094630,66336094660,66336094690,67228002503,67228002506,67228002603,67228002606,67228016403,67228016406,67296067801,67544015045,67544015060,67544015073,67544015092,67544068731,67544068732,67544086832,67544096032,68115005830,68115005900,68115005930,68115005990,68115006020,68115006030,68115006040,68115006060,68115006090,68115042590,68151005008,68645016059,68645016159,68645016259,68645016359,68788117203,68788117209,68788234200,68788234203,68788234206,68788234209,68788906101,68788906103,68788906106,68788906108,68788906109,68788906201,68788906203,68788906206,68788906208,68788906209,68788972101,68788972103,68788972106,68788972108,68788972109,68788973101,68788973103,68788973106,68788973108,68788973109,68788984201,68788984203,68788984206,68788984209,68788984301,68788984303,68788984306,68788984309,69158000300,69158000400,69158000500,69189117301,70518040600,71335082601,71335082602,71335082603,71335082604,71335082605</t>
+  </si>
+  <si>
+    <t>enalapril</t>
+  </si>
+  <si>
+    <t>C09AA02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\3827\</t>
+  </si>
+  <si>
+    <t>RxNorm:3827,205778,205779,205780,205781,310063,310065,310066,310067,372007,378288,807349,858804,858806,858810,858812,858813,858815,858817,858819,858821,1435623,1435624,1435630</t>
+  </si>
+  <si>
+    <t>NDC:00006001428,00006001468,00006001482,00006001487,00006001494,00006001498,00006071228,00006071268,00006071281,00006071282,00006071287,00006071294,00006071298,00006071328,00006071368,00006071381,00006071382,00006071387,00006071394,00006071398,00006071428,00006071468,00006071482,00006071487,00006071494,00006382401,00006382404,00068070061,00068070065,00068070361,00068070365,00068070561,00068070565,00093002601,00093002610,00093002701,00093002710,00093002750,00093002801,00093002810,00093002850,00093002901,00093002910,00093002950,00172419500,00172419510,00172419560,00172419580,00172419585,00172419600,00172419610,00172419660,00172419680,00172419685,00172419700,00172419710,00172419760,00172419770,00172419780,00172419785,00172419793,00172419797,00172419800,00172419810,00172419860,00172419870,00172419880,00172419885,00172419893,00185011401,00185011410,00185011450,00185012701,00185012710,00185012750,00185014701,00185014710,00185014750,00185021401,00185021405,00185021410,00185021418,00185021450,00185021490,00187014030,00187014090,00187014110,00187014130,00187014190,00187014210,00187014230,00187014290,00187014310,00187014330,00187014390,00228265811,00228265896,00228265911,00228265996,00228266011,00228266096,00228266111,00228266196,00247057802,00247057803,00247057830,00247057845,00247057903,00247057930,00247138014,00247188102,00247188105,00247188130,00247188160,00247188230,00247188260,00247188299,00247215530,00247215560,00247215590,00247230630,00247230660,00247230690,00364269801,00364269802,00364270101,00364270102,00364272701,00364272702,00364273401,00364273402,00378105101,00378105105,00378105201,00378105210,00378105301,00378105310,00378105401,00378105405,00403224101,00403224130,00591066801,00591066805,00591066901,00591066905,00591067001,00591067005,00591067101,00591067105,00591067110,00615458939,00615459031,00615459039,00615459063,00615459131,00615459139,00615459163,00615459331,00615459339,00615790739,00615790839,00615790939,00781122901,00781122910,00781122913,00781123101,00781123110,00781123113,00781123201,00781123210,00781123213,00781123301,00781123310,00781544101,00781544110,00781544201,00781544210,00781544301,00781544310,00781544401,00781544410,00904550160,00904550260,00904550261,00904550280,00904550360,00904550380,00904550460,00904550480,00904560960,00904560961,00904560980,00904561060,00904561061,00904561080,00904561160,00904561161,00904561180,10544017030,10544019590,10544029330,10544029390,10544063230,10544063330,12634074760,12634074860,13411018803,13411018810,13411018903,13411018910,13411019003,13411019010,13411033403,14593041701,14593041710,14593041801,14593041850,14593042001,14593042010,14593042050,15338020030,15338021130,15338022030,15338023330,16590027730,16590027760,16590027790,16590039230,16590039260,16590039290,16714044201,16714044202,16714044301,16714044302,16714044401,16714044402,16714044501,16714044502,17106100100,17106100200,17106100300,17106100400,21695048730,21695048790,21695048830,21695048860,21695048890,21695048930,21695048990,23490052300,23490052303,23490052305,23490052306,23490052309,23490549101,23490549102,23490549108,23490549109,23490549201,23490549202,23490549401,23490549402,24236005102,24236005119,24236005202,24236005219,24236031702,24236031720,24236060802,24236060820,27444004906,27444004907,27444004909,27444005006,27444005007,27444005009,27444005106,27444005107,27444005109,27444005206,27444005207,27444005209,33261063200,33261063230,33261063260,33261063290,33261066800,33261066830,33261066860,33261066890,33261069300,33261069302,33261069307,33261069314,33261069320,33261069321,33261069328,33261069330,33261069360,33261069390,33261097700,33261097730,33261097760,33261097790,33358012630,33358012730,33358012760,33358012830,33358012860,35356054130,35356054160,35356054190,35356086930,35356086960,35356086990,35356087130,35356087160,35356087190,35356094530,35356094560,35356094590,43353004532,43353004580,43353052160,43353052180,45865039930,45865039951,45865039960,45865039990,45865040330,45865040351,45865040360,45865040390,45865040430,45865040451,45865040460,45865040490,48866030100,48866030101,48866030102,48866030200,48866030201,48866030202,48866030300,48866030301,48866030302,48866030400,48866030401,48866030402,48866035101,48866035102,48866035201,48866035202,48866035301,48866035302,48866035401,48866035402,49158050001,49158050010,49158050050,49158050101,49158050110,49158050150,49158050201,49158050210,49158050250,49158050301,49158050310,49158050350,49349014402,49349014419,49349056202,49349056220,49349057502,49349057519,49864001402,49864001404,49864001406,49864001407,49864071202,49864071204,49864071207,49864071208,49864071302,49864071304,49864071307,49864071308,49864071402,49864071404,49864071407,49864071408,49864341101,49864341201,49864341301,49864341401,49884059101,49884059110,49884059201,49884059210,49884059301,49884059310,49884059401,49884059410,49999023900,49999023930,49999023960,49999024000,49999024030,49999034500,49999034530,50090068900,50090068901,50090069000,50090069001,50090069002,50090069004,50090069100,50090069101,50090069200,50090069201,50090285500,50090316601,50090327500,50111089101,50111089103,50111089201,50111089203,50111089301,50111089303,50111089401,50111089403,50436093401,50436435201,50436435301,50436465301,50436685801,50436685901,51079095001,51079095020,51079095101,51079095120,51079095201,51079095220,51079095301,51079095320,51129171101,51129171201,51129175001,51129181601,51129194701,51129268001,51129286501,51129286502,51129287001,51129287002,51129291301,51129291302,51129300001,51129300002,51129309701,51129334501,51129334502,51129345001,51129345002,51129347601,51129347602,51129348201,51129348202,51129351801,51129351802,51129353301,51129353302,51129371501,51129371502,51129374501,51129374502,51129387201,51129387202,51129387701,51129387702,51129390001,51129390002,51129405301,51129405302,51129412201,51129412202,51129428601,51129428602,51129447001,51129447002,51138003330,51138003430,51138003530,51138003630,51138033330,51138033430,51138033530,51138033630,51655027924,51655027952,51655028624,51655028724,51655062024,51655063624,51655063625,51655067924,51655067925,51655067952,51655067953,51655067984,51660052201,51660052210,51660052301,51660052310,51660052401,51660052410,51660052501,51660052510,51672403701,51672403703,51672403801,51672403803,51672403901,51672403903,51672404001,51672404003,52125009202,52125012402,52125016402,52125033602,52125033619,52125042602,52125052402,52125095902,52544066801,52544066805,52544066901,52544066905,52544067001,52544067005,52544067101,52549403901,52549403902,52549403903,52549404001,52549404002,52549404003,52652100101,52652400101,52959018030,52959018060,52959094230,53002102100,53002102102,53002102103,53002102105,53002102106,53808024201,53808024301,53808024401,53808064801,53808066301,53808083301,53808096601,53978017603,53978112203,53978301303,53978301603,54348072630,54348072660,54569060600,54569060601,54569060602,54569060603,54569060700,54569060701,54569060703,54569060717,54569060750,54569061200,54569325801,54569513300,54569513301,54569513400,54569513401,54569513402,54569513404,54569513500,54569513501,54868054100,54868054101,54868054103,54868054104,54868062000,54868062001,54868062002,54868062003,54868062004,54868062005,54868109000,54868109001,54868109004,54868109005,54868109006,54868228000,54868228002,54868433100,54868433101,54868433102,54868433103,54868433200,54868433201,54868433202,54868435700,54868435701,54868435702,54868435703,54868435800,54868435801,54868435802,54868435803,55045222301,55045231908,55045279900,55045279901,55045279902,55045279906,55045279909,55045282700,55045282704,55045282706,55045282708,55045282709,55045282800,55045283200,55045283208,55048022030,55048022130,55048022230,55048022330,55154133900,55154134000,55154500100,55154500107,55154500307,55154501407,55154547500,55175395400,55175395405,55175395503,55289048330,55289059130,55289059190,55289062203,55289062230,55289069410,55289069430,55289069490,55289098430,55289098490,55370092207,55370092209,55370092307,55370092309,55370092407,55370092409,55370092507,55370092509,55648092301,55648092302,55648092303,55648092307,55648092309,55648092310,55648092401,55648092402,55648092403,55648092407,55648092409,55648092410,55648092501,55648092502,55648092503,55648092507,55648092509,55648092510,55648092601,55648092602,55648092603,55648092607,55648092609,55648092610,55700003230,55700003260,55700003290,55887009930,55887022730,55887022760,55887022790,55887055830,55887055860,55887055890,55887059601,55887059630,55887059660,55887059690,55887061201,55887061230,55887061260,55887061290,55887061292,55887098430,57866685901,57866685902,57866685903,57866685904,57866686101,57866686201,57866686202,58016053060,58016056900,58016056930,58016056960,58016056990,58016057100,58016057130,58016057160,58016057190,58016057200,58016057230,58016057260,58016057290,58016057900,58016057901,58016057902,58016057903,58016057904,58016057905,58016057906,58016057907,58016057908,58016057909,58016057910,58016057912,58016057914,58016057915,58016057916,58016057918,58016057920,58016057921,58016057924,58016057925,58016057926,58016057927,58016057928,58016057930,58016057932,58016057935,58016057936,58016057940,58016057942,58016057944,58016057945,58016057948,58016057950,58016057956,58016057960,58016057967,58016057969,58016057970,58016057971,58016057972,58016057973,58016057975,58016057976,58016057977,58016057979,58016057980,58016057981,58016057982,58016057983,58016057984,58016057987,58016057989,58016057990,58016057991,58016057992,58016057993,58016057996,58016057997,58016057998,58016057999,58016058000,58016058001,58016058002,58016058003,58016058004,58016058005,58016058006,58016058007,58016058008,58016058009,58016058010,58016058012,58016058014,58016058015,58016058016,58016058018,58016058020,58016058021,58016058024,58016058025,58016058026,58016058027,58016058028,58016058030,58016058032,58016058035,58016058036,58016058040,58016058042,58016058044,58016058045,58016058048,58016058050,58016058056,58016058060,58016058067,58016058069,58016058070,58016058071,58016058072,58016058073,58016058075,58016058076,58016058077,58016058079,58016058080,58016058081,58016058082,58016058083,58016058084,58016058087,58016058089,58016058090,58016058091,58016058092,58016058093,58016058096,58016058097,58016058098,58016058099,58016058100,58016058101,58016058102,58016058103,58016058104,58016058105,58016058106,58016058107,58016058108,58016058109,58016058110,58016058112,58016058114,58016058115,58016058116,58016058118,58016058120,58016058121,58016058124,58016058125,58016058126,58016058127,58016058128,58016058130,58016058132,58016058135,58016058136,58016058140,58016058142,58016058144,58016058145,58016058148,58016058150,58016058156,58016058160,58016058167,58016058169,58016058170,58016058171,58016058172,58016058173,58016058175,58016058176,58016058177,58016058179,58016058180,58016058181,58016058182,58016058183,58016058184,58016058187,58016058189,58016058190,58016058191,58016058192,58016058193,58016058196,58016058197,58016058198,58016058199,58118122708,58118122808,58864075430,58864075530,58864076230,59772554101,59772554103,59772554201,59772554203,59772554301,59772554303,59772554401,59772554403,60312000400,60312001430,60312001490,60312071210,60312071230,60312071290,60312071310,60312071330,60312071390,60312071410,60312071430,60312071490,60346053430,60346061230,60346061290,60346090130,60429007101,60429007105,60429007110,60429007127,60429007130,60429007160,60429007190,60429007201,60429007205,60429007210,60429007227,60429007230,60429007260,60429007290,60429007301,60429007305,60429007310,60429007327,60429007330,60429007360,60429007390,60429007401,60429007405,60429007410,60429007427,60429007430,60429007460,60429007490,60429018301,60429018305,60429018310,60429018327,60429018330,60429018360,60429018390,60429018401,60429018405,60429018410,60429018427,60429018430,60429018460,60429018490,60429018501,60429018505,60429018510,60429018527,60429018530,60429018560,60429018590,60429018601,60429018605,60429018610,60429018627,60429018630,60429018660,60429018690,60491068630,60491068660,60491068668,60491068730,60491068734,60491068830,60491068834,60491068860,60491068930,60491068934,60505004906,60505004907,60505004909,60505005006,60505005007,60505005009,60505005106,60505005107,60505005109,60505005206,60505005207,60505005209,60760022430,60760022530,60760022630,60760022730,60760077730,61392064925,61392064930,61392064931,61392064939,61392064960,61392064965,61392064990,61392064995,61392065025,61392065030,61392065031,61392065039,61392065060,61392065065,61392065090,61392065095,61392065125,61392065130,61392065131,61392065139,61392065160,61392065165,61392065190,61392065195,61392065225,61392065230,61392065231,61392065239,61392065260,61392065265,61392065290,61392065295,61786007702,61786016802,61786016902,61786090902,61786090919,61786093802,61919027730,61919037230,62584048250,62584048350,62584048450,62584048541,62584048641,63187039730,63187039760,63187039790,63187097730,63187097760,63187097790,63304052201,63304052210,63304052301,63304052310,63304052401,63304052410,63304052501,63304052510,63304083401,63304083410,63304083501,63304083510,63304083601,63304083610,63304083701,63304083710,63629152201,63629152202,63629152203,63629152204,63629152205,63629152501,63629152502,63629152503,63629152504,63629152601,63629152602,63629152603,63629152604,63629152605,63629631901,63629631902,63629631903,63629663801,63629663802,63739030210,63739030215,63739032205,63739032210,63739032215,63739032310,63739032315,63874042301,63874042307,63874042310,63874042314,63874042320,63874042330,63874042360,63874065501,63874065510,63874065514,63874065520,63874065530,63874065560,63874098701,63874098710,63874098714,63874098720,63874098730,63874098760,64455014010,64455014011,64455014030,64455014090,64455014110,64455014111,64455014130,64455014190,64455014210,64455014211,64455014230,64455014290,64455014310,64455014311,64455014330,64455014390,64579009400,64579009401,64579009500,64579009501,64579009600,64579009601,64579009801,64679092301,64679092302,64679092303,64679092304,64679092307,64679092309,64679092310,64679092401,64679092402,64679092403,64679092404,64679092407,64679092409,64679092410,64679092501,64679092502,64679092503,64679092504,64679092507,64679092509,64679092510,64679092601,64679092602,64679092603,64679092604,64679092607,64679092609,64679092610,64725012303,64725012503,64725012603,64725092401,66267025330,66267032310,66267032320,66267032330,66267032340,66267032360,66267032390,66267032391,66267037030,66267038010,66267038020,66267038030,66267038040,66267038060,66267038090,66267038091,66267041310,66267041315,66267041320,66267041330,66267041335,66267041340,66267041360,66267041390,66267041392,66267100900,66336038930,66336038960,66336038990,66336039130,66336039160,66336039190,66336039330,66336039360,66336039390,66685030100,66685030102,66685030200,66685030201,66685030202,66685030300,66685030301,66685030302,66685030400,66685030401,66685030402,67046015630,67046015730,67046015830,67046015930,67046015960,67046016030,67046016130,67046016160,67228016903,67228016906,67228031703,67228031706,67228031803,67228031806,67228034503,67228034506,67296075601,67296075602,67544016060,67544016080,67544016580,67544016680,67544017580,67544031580,67544035080,67544055930,67544055932,67544071132,67544077932,67544081832,67651001801,67651001805,67651001901,67651001905,67651002001,67651002005,67651002101,67651002105,68071009530,68071193603,68071193609,68071193803,68071193806,68071193808,68071193809,68071306703,68071306706,68071306708,68071306709,68071317303,68071317309,68071322101,68071322103,68071322106,68071322109,68071324501,68071324503,68071324506,68071324509,68071330301,68071330303,68071330306,68071330309,68084009800,68084009806,68084009900,68084009906,68084039001,68084039011,68084039101,68084039111,68084039201,68084039211,68115012700,68115012715,68115012730,68115012760,68115012800,68115012820,68115012830,68115012860,68115012890,68115012920,68115012930,68115012940,68115012960,68115043115,68115043120,68115043130,68115043140,68115043160,68258607503,68645045490,68645045590,68645045690,68645045790,68682071001,68682071010,68682071030,68682071090,68682071101,68682071110,68682071130,68682071190,68682071201,68682071210,68682071230,68682071290,68682071301,68682071310,68682071330,68682071390,68788083503,68788083506,68788083509,68788083603,68788083606,68788083609,68788083703,68788083706,68788083709,68788092403,68788092406,68788092409,68788092503,68788092506,68788092509,68788092903,68788092906,68788092909,68788724401,68788724403,68788724406,68788724409,68788993101,68788993103,68788993106,68788993109,68788993201,68788993203,68788993206,68788993209,68788993301,68788993303,68788993306,68788993309,70518002800,70518004500,70518004600,70518052000,70518052001,70518059200,70518062300,70518062400,70518119000,70518133900,70518135100,70518137200,70518137400,70518156400,70518156401,70518162600,70518166400,70786092301,70786092401,70786092501,70786092601,71205007430,71205007460,71205007490,71205007530,71205007560,71205007590,71335005501,71335005502,71335005503,71335005504,71335005505,71335030501,71335030502,71335030503,71335030504,71335030505,71335047801,71335047802,71335047803,71335047804</t>
+  </si>
+  <si>
+    <t>lisinopril</t>
+  </si>
+  <si>
+    <t>C09AA03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\LPreparations\29046\</t>
+  </si>
+  <si>
+    <t>RxNorm:29046,104375,104376,104377,104378,197884,205326,206764,206765,206766,206771,213482,311353,311354,314076,314077,372614,542702,542704,1806883,1806884,1806890</t>
+  </si>
+  <si>
+    <t>NDC:00006001528,00006001531,00006001558,00006001572,00006001907,00006001928,00006001954,00006001958,00006001972,00006001982,00006001986,00006001987,00006001992,00006001994,00006010607,00006010628,00006010631,00006010654,00006010658,00006010672,00006010682,00006010686,00006010687,00006010692,00006010694,00006020707,00006020728,00006020731,00006020754,00006020758,00006020772,00006020782,00006020786,00006020787,00006020792,00006020794,00006023758,00038013010,00038013034,00038013039,00038013110,00038013134,00038013139,00038013210,00038013234,00038013239,00038013410,00038013439,00078167301,00078167331,00078167334,00093111101,00093111201,00093111210,00093111301,00093111310,00093111401,00093111410,00093111501,00093111505,00093111510,00093515701,00143126501,00143126509,00143126510,00143126530,00143126601,00143126609,00143126610,00143126630,00143126645,00143126701,00143126709,00143126710,00143126718,00143126730,00143126745,00143126751,00143126801,00143126809,00143126810,00143126818,00143126830,00143126845,00143126851,00143127001,00143127009,00143127010,00143127018,00143127030,00143127045,00143127051,00143128001,00143128010,00143128030,00143971301,00143971310,00143971399,00143971401,00143971410,00143971499,00143971501,00143971510,00143971599,00143971601,00143971610,00143971699,00172375700,00172375710,00172375760,00172375770,00172375800,00172375810,00172375860,00172375870,00172375880,00172375900,00172375910,00172375960,00172375970,00172375980,00172375985,00172376000,00172376010,00172376060,00172376070,00172376080,00172376085,00172376100,00172376110,00172376160,00172376170,00172376180,00172376200,00172376210,00172376260,00172376270,00172376280,00179013544,00179115701,00179115705,00179115730,00179115745,00179115750,00179115777,00179116801,00179116802,00179116830,00179116850,00179116890,00179116901,00179116930,00179116945,00179116950,00179120301,00179120304,00179120330,00179120345,00179120350,00179120360,00179145601,00179145630,00179145650,00179145660,00179145690,00179150801,00179150811,00179150820,00179150830,00179150850,00179150860,00179150890,00179190601,00179190630,00179190650,00179190660,00179190690,00179191501,00179191530,00179191550,00179191560,00179191590,00179192501,00179192530,00179192550,00179192560,00179192590,00179198370,00179198371,00179198372,00179198401,00179198430,00179198450,00179198460,00179198490,00179198501,00179198530,00179198550,00179198560,00179198590,00179198801,00179198830,00179198850,00179198860,00179198890,00185002501,00185002510,00185010101,00185010110,00185010133,00185010201,00185010210,00185010233,00185010301,00185010310,00185010333,00185010401,00185010410,00185060201,00185060210,00185060501,00185060510,00185061001,00185061010,00185062001,00185062010,00185063001,00185063010,00185064001,00185064010,00185540001,00185540010,00185540033,00247102300,00247102330,00247102359,00247102360,00247102377,00247102379,00247102395,00247114710,00247114730,00247114760,00247114810,00247139630,00247191930,00247192030,00247192130,00247200106,00247200130,00247202100,00247202130,00247202160,00247223700,00247223730,00247231830,00247231860,00247231890,00310013010,00310013011,00310013012,00310013034,00310013039,00310013095,00310013110,00310013111,00310013112,00310013134,00310013139,00310013173,00310013195,00310013210,00310013211,00310013234,00310013239,00310013273,00310013310,00310013311,00310013395,00310013410,00310013411,00310013510,00310013511,00378202593,00378207201,00378207205,00378207301,00378207310,00378207401,00378207410,00378207501,00378207510,00378207601,00378207605,00378207701,00378207705,00403277901,00403277930,00403302901,00403302930,00440767481,00440767485,00440767490,00440767581,00440767585,00440767590,00440767681,00440767685,00440767690,00440767781,00440767785,00480111101,00480111201,00480111210,00480111301,00480111310,00480111401,00480111410,00480111501,00480111505,00480515701,00591040500,00591040501,00591040505,00591040530,00591040600,00591040601,00591040605,00591040610,00591040633,00591040651,00591040700,00591040701,00591040710,00591040730,00591040733,00591040800,00591040801,00591040810,00591040830,00591040833,00591040900,00591040901,00591040905,00591040910,00591040930,00591040975,00591088500,00591088501,00591088510,00591088530,00591088533,00603420921,00603420928,00603421002,00603421016,00603421021,00603421028,00603421030,00603421032,00603421060,00603421102,00603421121,00603421128,00603421132,00603421134,00603421160,00603421202,00603421221,00603421228,00603421232,00603421234,00603421260,00603421321,00603421328,00603421402,00603421404,00603421421,00603421428,00603421430,00603421432,00603421460,00615552105,00615552131,00615552139,00615552153,00615552163,00615553005,00615553031,00615553039,00615553053,00615553063,00615553105,00615553131,00615553139,00615553153,00615553163,00615553831,00615553839,00615553853,00615553863,00615553939,00615554005,00615554031,00615554039,00615554063,00615763931,00615763939,00615764005,00615764031,00615764039,00615764105,00615764131,00615764139,00615764205,00615764231,00615764239,00615764339,00615764405,00615764431,00615764439,00615777430,00615777439,00615777505,00615777530,00615777531,00615777539,00615777605,00615777630,00615777631,00615777639,00615777705,00615777730,00615777731,00615777739,00615777839,00615777905,00615777930,00615777939,00615791705,00615791730,00615791739,00615791805,00615791830,00615791839,00615793405,00615793430,00615793439,00615796605,00615796630,00615796639,00615798039,00615798105,00615798130,00615798139,00615805305,00615805330,00615805339,00615805405,00615805439,00615805705,00615805730,00615805739,00615806105,00615806139,00615806230,00615806239,00615806305,00615806330,00615806339,00615806405,00615806430,00615806439,00615806505,00615806539,00781166501,00781166510,00781166531,00781166534,00781166592,00781166601,00781166610,00781166631,00781166634,00781166692,00781166701,00781166710,00781166731,00781166734,00781166792,00781166801,00781166810,00781166831,00781166834,00781166892,00781166901,00781166910,00781166931,00781166934,00781166992,00781167301,00781167310,00781167331,00781167334,00781167392,00781524101,00781524110,00781524131,00781524201,00781524210,00781524231,00781524251,00781524301,00781524310,00781524331,00781524351,00781524401,00781524410,00781524431,00781524451,00781524501,00781524510,00781524531,00781524551,00781524601,00781524610,00781524631,00781524651,00904563761,00904563843,00904563846,00904563861,00904563889,00904563943,00904563946,00904563948,00904563961,00904563989,00904563993,00904564043,00904564046,00904564048,00904564061,00904564089,00904564093,00904564161,00904564243,00904564246,00904564248,00904564252,00904564261,00904564289,00904564293,00904575789,00904577889,00904580843,00904580845,00904580846,00904580848,00904580861,00904580880,00904580889,00904580893,00904580943,00904580946,00904580948,00904580961,00904580980,00904580989,00904580993,00904581043,00904581046,00904581048,00904581052,00904581058,00904581061,00904581080,00904581089,00904581093,00904581143,00904581146,00904581161,00904581180,00904581189,00904581240,00904581289,00904606380,00904606480,00904606580,00904606680,00904648461,00904648480,00904648561,00904648580,00904648661,00904648680,00904648761,00904648780,10544023830,10544023860,10544023930,10544023960,10544024030,10544024060,10544058530,10544062330,10544090390,10544090400,10544090500,11819009690,11819011190,11819029290,11819029345,11819029390,11819029445,11819029490,11819029545,11819029590,11819029595,12280012960,12280014400,13411037703,13411037803,13411037903,13411038003,16590030630,16590030660,16590030690,16590030730,16590030760,16590030771,16590030790,16590035630,16590035640,16590035645,16590035660,16590035671,16590035690,16729019401,16729019417,16729019501,16729019516,16729019517,16729019601,16729019616,16729019617,16729019701,16729019716,16729019717,16729019801,16729019816,16729019817,16729019901,16729019916,16729019917,16729037501,16729037601,16729037616,16729037617,16729037701,16729037716,16729037717,16729037801,16729037816,16729037817,16729037901,16729037916,16729037917,16729038001,16729038016,16729038017,18837027730,21695032830,21695032890,21695032915,21695032930,21695032978,21695032990,21695033020,21695033030,21695033060,21695033090,21695033130,21695033140,21695033160,21695033190,21695034530,21695034590,23490082700,23490082703,23490082705,23490082706,23490082709,23490082903,23490082905,23490082906,23490082909,23490581500,23490581501,23490581601,23490581602,23490581606,23490581702,23490581802,23490581902,24196050101,24196050105,24196050201,24196050210,24196050301,24196050310,24196050401,24196050410,24196050501,24196050601,24196050605,24236007602,24236007902,24236008002,24236015302,24236015402,24236035102,24236037602,24236041202,24236041219,24236041220,24236054402,24236061502,24236061520,24236072002,24236072020,24236075002,24236086602,24236090002,24658024010,24658024090,24658024110,24658024130,24658024145,24658024190,24658024210,24658024215,24658024218,24658024230,24658024245,24658024290,24658024310,24658024315,24658024318,24658024330,24658024345,24658024390,24658024401,24658024410,24658024510,24658024515,24658024518,24658024530,24658024545,24658024560,24658024590,31722041701,31722041705,31722041710,31722041730,31722041801,31722041805,31722041810,31722041830,31722041901,31722041905,31722041910,31722041930,31722042001,31722042005,31722042010,31722042030,31722042101,31722042105,31722042110,31722042130,31722042201,31722042205,31722042210,31722042230,33261010930,33261010960,33261010990,33261011002,33261011007,33261011014,33261011020,33261011021,33261011028,33261011030,33261011060,33261011090,33261033202,33261033207,33261033214,33261033220,33261033221,33261033228,33261033230,33261033260,33261033290,33261037300,33261037302,33261037330,33261037360,33261037390,33261093530,33261093560,33261093590,33358021130,33358021230,33358021330,33458021130,35356069530,35356087000,35356087910,35356087930,35356087960,35356087990,35356094830,35356094860,35356094890,35356097330,35356097360,35356097390,42549070590,42708003130,42708003230,42708003330,42708009430,42708009530,42708009630,43063000701,43063000714,43063000730,43063000760,43063000790,43063000793,43063000798,43063003201,43063007430,43063007490,43063013890,43063041401,43063041412,43063041414,43063041430,43063041460,43063041490,43063041498,43063048030,43063048090,43063048414,43063048430,43063048460,43063048490,43063048498,43063048512,43063048530,43063048560,43063048590,43063048598,43063052530,43063052590,43063076901,43063076912,43063076914,43063076930,43063076960,43063076990,43063076993,43063076998,43063078614,43063078630,43063078660,43063078690,43063078693,43063078698,43063080030,43063080090,43063081001,43063081101,43063081130,43063081190,43063081201,43063081212,43063081214,43063081230,43063081260,43063081290,43063081293,43063081298,43063081301,43063081314,43063081330,43063081360,43063081390,43063081393,43063081398,43063081401,43063081501,43063081530,43063081560,43063081590,43353000930,43353000960,43353003730,43353003760,43353003780,43353006230,43353006245,43353006260,43353006280,43353007160,43353011345,43353011360,43353012130,43353012145,43353012160,43353012180,43353016830,43353016845,43353016853,43353016860,43353016880,43353016960,43353017945,43353017960,43353027060,43353027130,43353027160,43353029730,43353029745,43353029760,43353029780,43353029830,43353030130,43353030930,43353030953,43353031315,43353031360,43353033330,43353033345,43353035030,43353035045,43353035060,43353035080,43353035460,43353035560,43353036330,43353036360,43353036515,43353036530,43353036545,43353036560,43353037115,43353037130,43353037145,43353037160,43353037180,43353037430,43353037460,43353041160,43353048845,43353048860,43353051645,43353064360,43353066216,43353066230,43353066260,43353066280,43353079330,43353099330,43353099345,43353099353,43353099360,43353099380,43353099392,43547035103,43547035110,43547035150,43547035210,43547035211,43547035303,43547035310,43547035311,43547035403,43547035410,43547035411,43547035503,43547035510,43547035511,43547035550,43547035610,43547035611,43547041410,43547041450,43547041503,43547041504,43547041509,43547041510,43547041511,43547041525,43547041550,43547041604,43547041609,43547041610,43547041611,43547041615,43547041650,43547041704,43547041709,43547041710,43547041711,43547041715,43547041750,43547041810,43547041850,43547041904,43547041909,43547041910,43547041911,43547041915,43547041918,43547041925,43547041950,43683014730,44514048018,44514048110,44514048218,44514048318,45865063530,48433031501,48433031510,48433033201,48433033210,48433033275,48866070100,48866070101,48866070102,48866070103,48866070200,48866070201,48866070202,48866070203,48866070204,48866070300,48866070301,48866070302,48866070303,48866070304,48866070400,48866070401,48866070402,48866070403,48866070404,48866070500,48866070501,48866070502,48866070503,48866070600,48866070601,48866070602,48866070603,48866070604,49349001602,49349006002,49349006019,49349006020,49349006902,49349006910,49349006919,49349006920,49349006938,49349015802,49349015820,49349015828,49349016702,49349016719,49349016720,49349025602,49349031602,49349037402,49349037419,49349039102,49349039119,49349054702,49349054724,49349054730,49349054802,49349054819,49349054820,49349054830,49349054831,49349054838,49349054920,49349054930,49349054931,49349054938,49856018500,49856018501,49856018507,49856018509,49856018600,49856018601,49856018607,49856018609,49856018700,49856018701,49856018707,49856018709,49856018800,49856018801,49856018900,49856018901,49856018908,49856018909,49864001501,49864001901,49864020701,49864357701,49864357801,49864357901,49864365801,49884055601,49884055610,49884055701,49884055710,49884055801,49884055810,49884055901,49884055910,49884056001,49884056010,49884063501,49884063510,49999018210,49999018230,49999018260,49999018290,49999018310,49999018330,49999018360,49999018390,49999029500,49999029510,49999029530,49999029590,49999046910,49999046930,49999046960,49999046990,49999087000,49999087030,49999087060,49999087090,50090080303,50090080304,50090080400,50090080403,50090080404,50090080405,50090080500,50090080503,50090080504,50090080505,50090080800,50090080802,50090080900,50090080903,50090081000,50090081003,50090082300,50090082302,50090094600,50090150700,50090150703,50090150704,50090150705,50090173700,50090173703,50090173705,50090178502,50090207200,50090207203,50090207204,50090207205,50090207300,50090207303,50090207304,50090207305,50090207400,50090207402,50090216800,50090216802,50090222803,50090238400,50090238402,50090238500,50090238503,50090238504,50090238505,50090239500,50090239503,50090239504,50090239505,50090241200,50090241202,50090243100,50090243102,50090265300,50090274300,50090274302,50090275300,50090285100,50090293400,50090295200,50090298800,50090298803,50090298804,50090298805,50090298900,50090298903,50090298904,50090298905,50090299002,50090317500,50090375703,50090376300,50090376503,50090377400,50436035201,50436035203,50436035303,50436035403,50436037601,50436200001,50436200003,50436300001,50436400001,50436400003,50436500001,50436500003,50436798801,50436870001,50436870003,51079025640,51079026140,51079098101,51079098110,51079098120,51079098130,51079098140,51079098156,51079098157,51079098160,51079098201,51079098217,51079098219,51079098220,51079098230,51079098240,51079098256,51079098257,51079098260,51079098301,51079098317,51079098319,51079098320,51079098330,51079098340,51079098356,51079098357,51079098360,51079098401,51079098420,51079098440,51079098450,51129110501,51129133001,51129161401,51129227401,51129255501,51129267901,51129273901,51129276001,51129277001,51129277601,51129295601,51129380701,51129380702,51129382301,51129382302,51129383001,51129383002,51129390901,51129390902,51129394101,51129394102,51129403501,51129403502,51129406501,51129406502,51129430701,51129430702,51138006330,51138006430,51138006530,51138006630,51138006730,51138006830,51138013430,51138013530,51138013630,51138013730,51138013830,51138013930,51655023124,51655023224,51655023252,51655023253,51655023284,51655023552,51655024424,51655028024,51655028050,51655028052,51655028053,51655029224,51655029226,51655029252,51655029253,51655040130,51655040226,51655040802,51655040852,51660053101,51660053201,51660053210,51660053301,51660053310,51660053401,51660053410,51660053501,51660053510,52125006302,52125015802,52125015819,52125016502,52125021302,52125026902,52125029102,52125030502,52125032102,52125037919,52125037920,52125040620,52125044320,52125048002,52125048019,52125048020,52125059020,52125059320,52125089502,52427043890,52427043990,52427044090,52427044190,52427044290,52427044390,52555077701,52555077801,52555077810,52555077901,52555077910,52555078001,52555078010,52555078101,52555078110,52652300101,52959072815,52959072820,52959072830,52959072890,52959072930,52959072960,52959072990,52959075300,52959075330,52959075360,52959085420,52959085430,52959085490,52959097330,52959097530,53002112300,53002112303,53002112306,53002117800,53002117803,53002117806,53002122500,53002122503,53002122506,53002146300,53002146303,53002146306,53217001230,53217001260,53217001290,53217020210,53217020230,53217020290,53217025302,53217025330,53217025360,53217025390,53217028302,53217028330,53217028360,53217028390,53217030302,53217030330,53217030360,53217030390,53217032290,53217033390,53808010401,53808037901,53808061701,53808069202,53808070001,53808070101,53808070201,53808070301,53808086702,53808086802,53808087002,53808088802,53808099902,53978100009,53978101709,53978301503,53978301509,53978301703,53978301709,53978306303,54458087210,54458087310,54458087410,54458087710,54458090502,54458090602,54458099410,54458099510,54458099512,54458099610,54458099710,54458099809,54458099909,54458099910,54569175203,54569194400,54569194401,54569194402,54569194403,54569205101,54569205102,54569266501,54569266502,54569330000,54569330001,54569377100,54569472100,54569543400,54569543403,54569543404,54569543405,54569543500,54569543503,54569543504,54569543505,54569543700,54569543702,54569543800,54569543803,54569547200,54569547202,54569572800,54569851500,54569852700,54569858300,54569858400,54868100100,54868100101,54868129600,54868129601,54868129602,54868150100,54868150101,54868150200,54868196000,54868196001,54868196100,54868196101,54868196102,54868196103,54868197000,54868197001,54868197002,54868197003,54868464600,54868464601,54868464602,54868464603,54868464604,54868464605,54868465600,54868465601,54868465602,54868465603,54868465700,54868465701,54868465702,54868465703,54868465704,54868465705,54868465706,54868465707,54868465708,54868465800,54868465801,54868465802,54868465803,54868465804,54868465805,54868467800,54868467801,54868467802,54868467803,54868467804,54868478000,54868478001,54868478002,54921013002,54921013010,54921013034,54921013039,54921013095,54921013102,54921013110,54921013134,54921013139,54921013195,54921013202,54921013210,54921013234,54921013239,54921013295,54921013410,54921013510,55045229208,55045238908,55045292900,55045292906,55045292908,55045293600,55045293608,55045293700,55045293800,55045293808,55045297500,55045297506,55045297508,55045305900,55045305908,55045317900,55045377208,55048038730,55048038760,55048038790,55048038830,55048038860,55048038890,55048038930,55048042930,55048047390,55154073500,55154333100,55154333600,55154334600,55154479800,55154497700,55154497800,55154499200,55154501100,55154501107,55154501500,55154501507,55154505100,55154505200,55154505300,55154508200,55154589200,55154615700,55154615709,55154615800,55154615809,55154615900,55154615909,55154617600,55154617609,55154619100,55154619109,55154627609,55154627709,55154628100,55154628104,55154628106,55154628109,55154628209,55154628509,55154663000,55154663800,55154665003,55154665103,55154665203,55154665303,55154690100,55154690101,55154690107,55154763900,55154764100,55154838503,55154838509,55154838603,55154838609,55154838703,55154838709,55154838803,55154838809,55154838903,55154838909,55175396403,55289010630,55289010660,55289050930,55289057730,55289063801,55289063812,55289063814,55289063830,55289063860,55289063890,55289063893,55289063898,55289069614,55289069630,55289069660,55289069690,55289069698,55289088430,55289088490,55289091730,55289091790,55289092908,55289092930,55648092701,55648092702,55648092703,55648092705,55648092801,55648092802,55648092803,55648092805,55648092806,55648092901,55648092902,55648092903,55648092905,55648092906,55648094101,55648094102,55648094103,55648094105,55648094106,55648094201,55648094202,55648094203,55648094205,55648095301,55648095302,55648095303,55648095305,55700003730,55700003760,55700003790,55700047930,55700047960,55700047990,55700048030,55700048090,55700051318,55700051330,55700051360,55700051390,55700051430,55700051460,55700051490,55700054790,55700055830,55700055860,55700055890,55887056930,55887056960,55887056990,55887058101,55887058130,55887058160,55887058190,55887058930,55887058990,55887059030,55887059060,55887059090,55887059101,55887059110,55887059120,55887059130,55887059160,55887059190,57237005200,57237005205,57237005300,57237005399,57237005400,57237005499,57237005500,57237005599,57237005600,57237005699,57237005700,57237005799,57297051201,57297051202,57297051203,57297051209,57297051230,57297051301,57297051302,57297051303,57297051304,57297051305,57297051309,57297051330,57297051401,57297051402,57297051403,57297051404,57297051405,57297051409,57297051430,57297051501,57297051502,57297051503,57297051504,57297051505,57297051509,57297051530,57297051601,57297051602,57297051603,57297051609,57297051630,57297051701,57297051702,57297051703,57297051704,57297051709,57297051730,57866200001,57866200002,57866400001,57866400002,57866500001,57866500002,57866670001,57866670101,57866670501,57866670601,57866798501,57866798901,57866870001,58016006900,58016006901,58016006902,58016006903,58016006904,58016006905,58016006906,58016006907,58016006908,58016006909,58016006910,58016006912,58016006914,58016006915,58016006916,58016006918,58016006920,58016006921,58016006924,58016006925,58016006926,58016006927,58016006928,58016006930,58016006932,58016006935,58016006936,58016006940,58016006942,58016006944,58016006945,58016006948,58016006950,58016006956,58016006960,58016006967,58016006969,58016006970,58016006971,58016006972,58016006973,58016006975,58016006976,58016006977,58016006979,58016006980,58016006981,58016006982,58016006983,58016006984,58016006987,58016006989,58016006990,58016006991,58016006992,58016006993,58016006996,58016006997,58016006998,58016006999,58016036200,58016036214,58016036221,58016036228,58016036230,58016036260,58016036300,58016036314,58016036321,58016036330,58016036360,58016036390,58016056400,58016056430,58016056460,58016056490,58016064600,58016064630,58016064660,58016064690,58016076000,58016076030,58016076060,58016076090,58016091700,58016091701,58016091702,58016091703,58016091704,58016091705,58016091706,58016091708,58016091709,58016091710,58016091712,58016091714,58016091715,58016091716,58016091718,58016091720,58016091721,58016091724,58016091725,58016091726,58016091727,58016091728,58016091730,58016091732,58016091735,58016091736,58016091740,58016091742,58016091744,58016091745,58016091748,58016091750,58016091756,58016091760,58016091767,58016091769,58016091770,58016091771,58016091772,58016091773,58016091775,58016091776,58016091777,58016091779,58016091780,58016091781,58016091782,58016091783,58016091784,58016091787,58016091789,58016091790,58016091791,58016091792,58016091793,58016091796,58016091797,58016091798,58016091799,58016093500,58016093501,58016093502,58016093503,58016093504,58016093505,58016093506,58016093507,58016093508,58016093509,58016093510,58016093512,58016093514,58016093515,58016093516,58016093518,58016093520,58016093521,58016093524,58016093525,58016093526,58016093527,58016093530,58016093532,58016093535,58016093536,58016093540,58016093542,58016093544,58016093545,58016093548,58016093550,58016093556,58016093560,58016093567,58016093569,58016093570,58016093571,58016093572,58016093573,58016093575,58016093576,58016093577,58016093579,58016093580,58016093581,58016093582,58016093583,58016093584,58016093587,58016093589,58016093590,58016093591,58016093592,58016093593,58016093596,58016093597,58016093598,58016093599,58016095600,58016095630,58016095660,58016095690,58016096300,58016096301,58016096302,58016096303,58016096304,58016096305,58016096306,58016096307,58016096308,58016096309,58016096310,58016096312,58016096314,58016096315,58016096316,58016096318,58016096320,58016096321,58016096324,58016096325,58016096326,58016096327,58016096328,58016096330,58016096332,58016096335,58016096336,58016096340,58016096342,58016096344,58016096345,58016096348,58016096350,58016096356,58016096360,58016096367,58016096369,58016096370,58016096371,58016096372,58016096373,58016096375,58016096376,58016096377,58016096379,58016096380,58016096381,58016096382,58016096383,58016096384,58016096387,58016096389,58016096390,58016096391,58016096392,58016096393,58016096396,58016096397,58016096398,58016096399,58016099800,58016099801,58016099802,58016099803,58016099804,58016099805,58016099806,58016099807,58016099808,58016099809,58016099810,58016099812,58016099814,58016099815,58016099816,58016099818,58016099820,58016099821,58016099824,58016099825,58016099826,58016099827,58016099828,58016099830,58016099832,58016099835,58016099836,58016099840,58016099842,58016099844,58016099845,58016099848,58016099850,58016099856,58016099860,58016099867,58016099869,58016099870,58016099871,58016099872,58016099873,58016099875,58016099876,58016099877,58016099879,58016099880,58016099881,58016099882,58016099883,58016099884,58016099887,58016099889,58016099890,58016099891,58016099892,58016099893,58016099896,58016099897,58016099898,58016099899,58016263814,58016263821,58016263830,58016263860,58016263890,58018091790,58087007630,58087007730,58118051200,58118051203,58118051208,58118051209,58118051300,58118051303,58118051308,58118051309,58118051400,58118051403,58118051406,58118051408,58118051409,58118051500,58118051503,58118051508,58118051509,58118051700,58118051703,58118051708,58118051709,58118063008,58118063108,58118063308,58118063408,58118063508,58118198008,58118198108,58864000063,58864000630,58864060315,58864060330,58864060390,58864061815,58864061830,58864065430,58864075030,58864075330,58864075390,59115014401,59115014410,59115014499,59115014501,59115014510,59115014599,59115014601,59115014610,59115014699,59115014701,59115014710,59115014799,59762227001,59762227003,59762227007,59762227101,59762227103,59762227107,59762227201,59762227203,59762227207,59762227301,59762227303,59762227307,59762227401,59762227403,59762227407,59762227501,59762227503,59762227507,60312001954,60312010654,60312011000,60312011100,60312011200,60312020754,60346053730,60346059530,60346087103,60346087130,60429020601,60429020605,60429020701,60429020710,60429020730,60429020745,60429020790,60429020801,60429020810,60429020830,60429020845,60429020850,60429020890,60429020901,60429020910,60429020915,60429020918,60429020930,60429020945,60429020950,60429020990,60429021101,60429021105,60429021201,60429021210,60429021218,60429021230,60429021245,60429021260,60429021290,60429072801,60429072810,60429072830,60429072890,60429072901,60429072910,60429072930,60429072945,60429072990,60429073001,60429073010,60429073030,60429073045,60429073090,60429073101,60429073110,60429073130,60429073145,60429073190,60429073210,60429073230,60429073290,60429073301,60429073310,60429073330,60429073345,60429073390,60440013000,60440013001,60440013002,60440013100,60440013101,60440013102,60440013200,60440013201,60440013202,60440013301,60440013501,60491052330,60491052334,60491052430,60491052434,60491052530,60491052534,60491052630,60491052634,60491071101,60491071130,60491071134,60491071201,60491071220,60491071230,60491071234,60491071301,60491071320,60491071330,60491071334,60491071730,60491071734,60505018400,60505018401,60505018500,60505018501,60505018507,60505018509,60505018600,60505018601,60505018607,60505018609,60505018700,60505018701,60505018707,60505018709,60505018800,60505018801,60505018809,60505018900,60505018901,60505018908,60505018909,60505268301,60505268401,60505268408,60505268409,60505268501,60505268508,60505268509,60505268601,60505268608,60505268609,60505268801,60505268808,60505268809,60687017725,60687017795,60687032501,60687032511,60687033301,60687033311,60760012830,60760012890,60760026530,60760026630,60760026690,60760026730,60760026790,60760026930,60760027030,60760027090,60760035790,60760035830,60760035890,60760035930,60760035990,60760036030,61392069323,61392069325,61392069330,61392069331,61392069339,61392069360,61392069365,61392069390,61392069395,61392069423,61392069425,61392069430,61392069431,61392069439,61392069460,61392069465,61392069490,61392069495,61392069525,61392069530,61392069531,61392069539,61392069560,61392069625,61392069630,61392069660,61392069690,61392092925,61392092930,61392092931,61392092939,61392092960,61392092965,61392092990,61392092995,61392093025,61392093030,61392093031,61392093039,61392093060,61392093065,61392093090,61392093095,61392093125,61392093130,61392093131,61392093139,61392093160,61392093165,61392093190,61392093195,61392093225,61392093230,61392093231,61392093239,61392093260,61392093265,61392093290,61392093295,61786024002,61786037802,61786042302,61786042319,61786051120,61786078302,61786078319,61786080502,61786080602,61786081502,61786081519,61786082102,61786083802,61786083819,61786083820,61786087402,61786087420,61786088102,61786088119,61786088802,61786088819,61786088820,61786091602,61786091619,61786091620,61786094502,61786096519,61786096520,61786096919,61786096920,61919016190,61919030630,61919030660,61919030690,61919030730,61919030760,61919030790,61919033230,61919033290,61919035630,61919035690,61919056190,61919090930,61919094290,62301004444,62318018400,62318018401,62318018500,62318018501,62318018600,62318018601,62318018700,62318018701,62318018800,62318018801,62318018900,62318018901,62584092550,62584092590,63187009830,63187009860,63187009890,63187009930,63187009990,63187023730,63187023760,63187023790,63187025730,63187025760,63187025790,63187044230,63187044290,63187053430,63187053460,63187053490,63187072230,63187072260,63187072290,63187077500,63187077530,63187077560,63187077590,63187078030,63187078060,63187078090,63187082130,63187082160,63187082190,63187082530,63187082560,63187082590,63304053101,63304053111,63304053177,63304053201,63304053210,63304053211,63304053277,63304053301,63304053310,63304053311,63304053377,63304053401,63304053410,63304053411,63304053477,63304053501,63304053510,63304053511,63304053577,63304059901,63304059910,63629176101,63629176102,63629176103,63629176104,63629268801,63629268802,63629268803,63629268804,63629268805,63629268806,63629268807,63629290801,63629290802,63629290803,63629290804,63629290805,63629290806,63629290807,63629293501,63629293502,63629293503,63629293504,63629293505,63629524701,63629524702,63629524703,63629570401,63629570402,63629570403,63629570404,63629636501,63629636502,63629652501,63629652502,63629652503,63629652504,63629652601,63629652602,63629652603,63629665101,63629665102,63629683601,63629744501,63739034810,63739034815,63739034910,63739034915,63739034943,63739035010,63739035015,63739035043,63874051401,63874051410,63874051414,63874051415,63874051416,63874051420,63874051428,63874051430,63874051460,63874051490,63874052201,63874052215,63874052230,63874052260,63874055801,63874055810,63874055814,63874055816,63874055828,63874055830,63874055860,63874055890,63874061810,63874061815,63874061830,63874061840,63874061860,63874111409,64205021030,64205021130,64205021230,64205021430,64679092701,64679092702,64679092703,64679092705,64679092709,64679092801,64679092802,64679092803,64679092805,64679092806,64679092810,64679092901,64679092902,64679092903,64679092905,64679092906,64679092910,64679094101,64679094102,64679094103,64679094105,64679094106,64679094110,64679094201,64679094202,64679094203,64679094205,64679094209,64679095301,64679095302,64679095303,64679095305,64679095309,64725019803,64725019903,64725051401,64725101001,64725102001,64725515001,64725540001,65084011610,65084012010,65243012103,65243012109,65243012145,65243030303,65243030306,65243030309,65243030312,65243030318,65243031403,65243031406,65243031409,65243031412,65243031445,65243034103,65243034106,65243034109,65243034112,65243034145,65862003700,65862003701,65862003705,65862003713,65862003730,65862003799,65862003800,65862003801,65862003805,65862003813,65862003830,65862003899,65862003900,65862003901,65862003905,65862003913,65862003930,65862003999,65862004000,65862004001,65862004005,65862004030,65862004065,65862004099,65862004100,65862004101,65862004105,65862004130,65862004159,65862004199,65862004200,65862004201,65862004205,65862004230,65862004249,65862004299,66105054803,66105055510,66116027930,66116030430,66116031030,66116032630,66116039130,66116050030,66116050230,66116071830,66116081330,66116081930,66116082930,66116083030,66116083130,66116084130,66116086130,66116087230,66116087430,66267036530,66267036630,66267036730,66267045120,66267045130,662</t>
+  </si>
+  <si>
+    <t>perindopril</t>
+  </si>
+  <si>
+    <t>C09AA04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\PPreparations\54552\</t>
+  </si>
+  <si>
+    <t>RxNorm:54552,261257,261258,262076,312311,312312,312313,373293,854925,854927,854984,854986,854988,854990</t>
+  </si>
+  <si>
+    <t>NDC:00032110101,00032110141,00032110201,00032110241,00032110301,00054011025,00054011125,00054011225,00527191901,00527192001,00801110101,00801110201,00801110301,10135059901,10135060001,35356060130,51129209901,54868455200,54868455201,54868455500,54868455501,61894000002,61894000102,61894000202,65862028601,65862028653,65862028701,65862028719,65862028801,65862028859,68180023501,68180023601,68180023701,76234000001,76234000101,76234000201</t>
+  </si>
+  <si>
+    <t>ramipril</t>
+  </si>
+  <si>
+    <t>C09AA05</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\RPreparations\35296\</t>
+  </si>
+  <si>
+    <t>RxNorm:35296,104383,104384,104385,198187,198188,198189,251856,251857,260333,261962,346568,347739,347972,348000,373748,373749,401965,401968,629055,656757,845488,845489</t>
+  </si>
+  <si>
+    <t>NDC:00039010310,00039010311,00039010407,00039010410,00039010411,00039010507,00039010510,00039010511,00039010610,00054010625,00054010720,00054010725,00054010729,00054010820,00054010825,00054010829,00054010925,00054010929,00088010347,00088010349,00088010427,00088010447,00088010449,00088010527,00088010547,00088010549,00088010647,00093743501,00093743510,00093743601,00093743605,00093743610,00093743701,00093743705,00093743710,00093743801,00093743805,00093743810,00179175970,00179175971,00179175972,00228269511,00228269550,00228269611,00228269650,00228269711,00228269750,00247109030,00247109060,00247109103,00247109130,00247109160,00480743601,00480743605,00480743701,00480743705,00480743801,00480743805,00490022801,00490022802,00490022803,00490022804,00490022805,00490024230,00615138331,00615138339,00781212601,00781212701,00781212705,00781212710,00781212801,00781212805,00781212826,00781212901,00781212905,00781212910,10544058830,12280006100,14288094225,14288094320,14288094325,14288094329,14288094420,14288094425,14288094429,14288094525,14288094529,16252057000,16252057001,16252057030,16252057100,16252057101,16252057150,16252057200,16252057201,16252057250,16252057300,16252057301,16252057310,16252057350,16729015201,16729015216,16729015301,16729015316,16729015401,16729015416,16729015501,16729015516,17856010802,21695082130,21695082190,21695082230,21695082260,21695082278,21695082290,21695082330,21695082360,24658020001,24658020005,24658020101,24658020105,24658020201,24658020205,24658020301,24658020305,26053028901,26053029001,26053040201,26053040301,31722027101,31722027105,31722027110,31722027201,31722027205,31722027210,31722027301,31722027305,31722027310,31722027401,31722027405,31722027410,33261090300,33261090330,33261090360,33261090390,33261096700,33261096730,33261096760,33261096790,35356089330,35356089360,35356089390,41284050000,41284050001,41284050100,41284050101,41284050107,41284050156,41284050200,41284050201,41284050207,41284050256,41284050300,41284050301,41284050307,41284057000,41284057030,41284057100,41284057101,41284057150,41284057200,41284057201,41284057250,41284057300,41284057301,41284057350,42291069201,42549070730,42549070790,43063030304,43063030330,43063030390,43063050230,45865044130,45865044149,45865044151,45865044160,45865044190,45865044330,45865044349,45865044351,45865044360,45865044390,49349031302,49856287501,49856287503,49856287505,49856287508,49856287600,49856287601,49856287603,49856287605,49856287608,49856287700,49856287701,49856287703,49856287705,49856287708,49856287800,49856287801,49856287803,49856287805,49856287808,49999087130,49999087190,49999093430,50090111800,50090111801,50090112000,50090112001,50090135400,50090214800,50090214801,50090216900,50090216901,50090247500,50090247501,50090257700,50090257701,50090305900,50436997101,50436998101,51129196501,51129284601,51129284602,51129309401,51129309402,51129453601,51129453602,51129456201,51129456202,51129456301,51129456302,51129903401,51138042430,51138042530,51138042610,51138042630,51138042710,51138042730,51655011752,51655030130,53104014400,53104014404,53104014405,53104014409,53104014500,53104014504,53104014507,53104014509,53104014600,53104014604,53104014607,53104014609,53104014700,53104014704,53104014707,53104014709,54569371300,54569371400,54569593600,54569611100,54569611101,54569611200,54569611201,54569641600,54868264400,54868264401,54868264402,54868264500,54868264501,54868264502,54868264503,54868384600,54868384601,54868384602,54868384603,54868574700,54868574701,54868584200,54868584201,54868584202,54868584203,54868584300,54868584301,54868584302,54868584303,54868584304,54868585600,54868585601,54868589600,55045206101,55045206108,55111043801,55111043805,55111043810,55111043830,55111043860,55111043878,55111043879,55111043885,55111043890,55111043901,55111043905,55111043910,55111043930,55111043960,55111043978,55111043979,55111043985,55111043990,55111044001,55111044005,55111044010,55111044030,55111044060,55111044078,55111044079,55111044085,55111044090,55111044101,55111044105,55111044110,55111044130,55111044160,55111044178,55111044179,55111044185,55111044190,55154120700,55154120701,55154120800,55154120801,55154120807,55154121100,55154121101,55154121104,55154121106,55154121208,55154225000,55154495600,55154495700,55289086730,55700040730,55700040760,55700040790,55700055130,55700055190,57237022201,57237022230,57237022301,57237022305,57237022401,57237022405,57237022501,57237022505,57297058801,57297058802,57297058901,57297058902,57297059001,57297059002,57297059101,57297059102,58016047400,58016047401,58016047402,58016047403,58016047404,58016047405,58016047406,58016047407,58016047408,58016047409,58016047410,58016047412,58016047414,58016047415,58016047416,58016047418,58016047420,58016047421,58016047425,58016047426,58016047427,58016047428,58016047430,58016047432,58016047435,58016047436,58016047440,58016047442,58016047444,58016047445,58016047448,58016047450,58016047456,58016047460,58016047467,58016047469,58016047470,58016047471,58016047472,58016047473,58016047475,58016047476,58016047477,58016047479,58016047480,58016047481,58016047482,58016047483,58016047484,58016047487,58016047490,58016047491,58016047492,58016047493,58016047496,58016047497,58016047498,58016047499,58118059008,58118059009,58118059108,58118059109,58864067430,58864084730,60429003801,60429003810,60429003901,60429003910,60429004001,60429004010,60429004101,60429004110,60491002730,60491002734,60491002830,60491002834,60491002930,60491002934,60491003030,60491003034,60505287501,60505287503,60505287505,60505287508,60505287600,60505287601,60505287603,60505287605,60505287608,60505287700,60505287701,60505287703,60505287705,60505287708,60505287800,60505287801,60505287803,60505287805,60505287808,60687032111,60687032121,60687033201,60687033211,60687034301,60687034311,60687035401,60687035411,60760047690,60760047790,60760063290,60760063390,60793050000,60793050001,60793050100,60793050101,60793050105,60793050107,60793050156,60793050200,60793050201,60793050205,60793050207,60793050256,60793050300,60793050301,60793050305,60793050307,60793071001,60793071005,60793071101,60793071105,60793071180,60793071201,60793091001,60793091005,60793091101,60793091105,60793091107,60793091180,60793091501,60793091505,60793091507,61392042625,61392042630,61392086831,61392086839,61570011001,61570011056,61570011101,61570011105,61570011107,61570011110,61570011150,61570011156,61570011201,61570011205,61570011207,61570011210,61570011250,61570011256,61570012001,61570012005,61570012007,61570012010,61570012080,61570015001,61570015005,61919015730,61919017990,61919083330,62584096200,62584096250,63187007330,63187007360,63187007390,63187027730,63187027760,63187027790,63187050330,63187050360,63187050390,63187064430,63187064460,63187064490,63187067530,63187067560,63187067590,63187081630,63187081660,63187081690,63187085430,63187085460,63187085490,63187091530,63187091560,63187091590,63304044110,63304044130,63304044169,63304044210,63304044230,63304044269,63629125301,63629125302,63629125303,63629125304,63629125401,63629125402,63629125403,63629125404,63629726001,63629726002,63629726003,63629726004,65084023410,65084023510,65084023710,65841065501,65841065505,65841065506,65841065516,65841065530,65841065601,65841065605,65841065606,65841065616,65841065630,65841065701,65841065705,65841065706,65841065716,65841065730,65841065801,65841065805,65841065806,65841065816,65841065830,65841069901,65841069905,65841069906,65841069910,65841069916,65841069930,65841070001,65841070005,65841070006,65841070010,65841070016,65841070030,65841070101,65841070105,65841070106,65841070110,65841070116,65841070130,65841070201,65841070205,65841070206,65841070210,65841070216,65841070230,65862047401,65862047410,65862047430,65862047449,65862047499,65862047501,65862047505,65862047510,65862047530,65862047549,65862047599,65862047601,65862047605,65862047610,65862047630,65862047649,65862047699,65862047701,65862047705,65862047710,65862047730,65862047749,65862047799,67253067110,67253067210,67253067211,67253067310,67253067311,67253067410,67253067411,67544051531,67787027101,67787027110,67787027201,67787027210,67787027301,67787027305,67787027310,67787027401,67787027405,67787027410,68001014004,68001014100,68001014103,68001014200,68001014203,68001014300,68001014303,68071099730,68084026601,68084026611,68084026701,68084026711,68084026801,68084026811,68084029401,68084029411,68084029421,68115037810,68115037820,68115037830,68115037840,68115037860,68115053000,68115053030,68115053060,68115081200,68115081230,68115081260,68151068102,68180058801,68180058802,68180058809,68180058901,68180058902,68180058909,68180059001,68180059002,68180059009,68180059101,68180059102,68180059109,68258602103,68258602203,68258602209,68258602303,68258602309,68382014401,68382014405,68382014406,68382014416,68382014430,68382014477,68382014501,68382014505,68382014506,68382014516,68382014530,68382014577,68382014601,68382014605,68382014606,68382014616,68382014630,68382014677,68382014701,68382014705,68382014706,68382014716,68382014730,68382014777,68382037401,68382037405,68382037406,68382037410,68382037416,68382037430,68382037501,68382037505,68382037506,68382037510,68382037516,68382037530,68382037601,68382037605,68382037606,68382037610,68382037616,68382037630,68382037701,68382037705,68382037706,68382037710,68382037716,68382037730,68788680401,68788680402,68788680403,68788680406,68788680409,68788700801,68788700802,68788700803,68788700806,68788700809,68788719801,68788719802,68788719803,68788719806,68788719809,69189047501,70518117500,70518120000,71205002930,71205002960,71205002990,71205008030,71205008060,71205008090,71335019601,71335019602,71335019603,71335019604,71335019605,71335089401,71335089402,71335089403,71335089404,71335089405,76282027101,76282027105,76282027110,76282027201,76282027205,76282027210,76282027301,76282027305,76282027310,76282027401,76282027405,76282027410</t>
+  </si>
+  <si>
+    <t>quinapril</t>
+  </si>
+  <si>
+    <t>C09AA06</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\QPreparations\35208\</t>
+  </si>
+  <si>
+    <t>RxNorm:35208,207891,207892,207893,207895,312748,312749,312750,314203,373731</t>
+  </si>
+  <si>
+    <t>NDC:00071052723,00071052740,00071052798,00071053023,00071053040,00071053099,00071053223,00071053240,00071053299,00071053523,00071053540,00071053599,00093104505,00093104598,00093105005,00093105098,00093105105,00093105198,00093105305,00093105398,00093545698,00093545798,00093545898,00093545998,00185002301,00185002305,00185002309,00185003301,00185003305,00185003309,00185003310,00185004901,00185004905,00185004909,00185004910,00185006701,00185006705,00185006709,00185006710,00247152530,00247152559,00247152590,00247195530,00247195560,00247195590,00247195630,00247195660,00247195690,00247195730,00247195760,00247195790,00247232030,00247232060,00247232090,00378001705,00378001777,00378011705,00378011777,00378022605,00378022677,00378025405,00378025477,00378027205,00378027277,00378111705,00378111777,00440807206,00480104505,00480104598,00480105005,00480105098,00480105105,00480105198,00480105305,00480105398,12280005990,12280022890,17856099302,21695039330,21695039430,23490936403,26053028401,26053028501,26053028601,26053028701,31722026710,31722026790,31722026810,31722026890,31722026910,31722026990,31722027010,31722027090,35356091330,35356091360,35356091390,42291070190,42291070290,42291070390,42291070490,43063035830,43063035890,43547041009,43547041109,43547041209,43547041309,49856017200,49856017201,49856017202,49856017205,49856017300,49856017301,49856017302,49856017305,49856017400,49856017401,49856017402,49856017405,49856017500,49856017501,49856017502,49856017505,49884099009,49884099109,49884099209,49884099309,50090093700,50090093800,50090094000,50090211600,50090211700,50090211701,50090264300,50268068811,50268068815,50268068911,50268068915,50268069011,50268069015,50268069111,50268069115,51129310801,51129310802,51129330701,51129330702,51129332001,51129332002,51129367301,51129367302,51129431501,51129431502,51129447901,51129447902,51138032930,51138033030,51138033130,51138033230,51138034830,51138034930,51138035030,51138035130,51655074224,51655074225,51660054890,51660054990,51660055090,51660055190,52152024104,52152024108,52152024204,52152024208,52152024304,52152024308,52152024404,52152024408,53217008930,53217008960,53217008990,54569398400,54569398401,54569398500,54569445400,54569570900,54569571000,54569571100,54868266500,54868266501,54868266600,54868266601,54868266602,54868266603,54868266604,54868330700,54868330701,54868344500,54868344501,54868524100,54868524101,54868524102,54868524500,54868524501,54868524502,54868524600,54868524601,54868524602,54868527900,55045364109,55045364209,55045364309,55045364409,55048062730,55048062790,55048062830,55048062890,55048062930,55048062990,55111062110,55111062190,55111062210,55111062290,55111062310,55111062390,55111062410,55111062490,55154052808,55154052908,55154103202,55154103208,55154241800,55154241807,55154242300,55154242400,55289055230,55289055330,55289055430,55289055530,55567027109,55567027209,55567027309,55567027409,55864085930,57297055609,57297055703,57297055709,57297055803,57297055809,57297055903,57297055909,57866442001,57866442101,57866442301,57866442401,58016079801,58016079802,58016079803,58016079804,58016079805,58016079806,58016079807,58016079808,58016079809,58016079810,58016079812,58016079814,58016079815,58016079816,58016079818,58016079820,58016079821,58016079824,58016079825,58016079826,58016079827,58016079828,58016079832,58016079835,58016079836,58016079840,58016079842,58016079844,58016079845,58016079848,58016079850,58016079867,58016079869,58016079870,58016079871,58016079872,58016079873,58016079875,58016079876,58016079877,58016079879,58016079880,58016079881,58016079882,58016079883,58016079884,58016079887,58016079889,58016079890,58016079891,58016079892,58016079893,58016079896,58016079897,58016079898,58016079899,58864085930,58864086330,58864086930,59762501901,59762502001,59762502101,59762502201,60491000130,60491000134,60491000330,60491000334,60491000430,60491000434,60505017200,60505017201,60505017202,60505017205,60505017300,60505017301,60505017302,60505017305,60505017400,60505017401,60505017402,60505017405,60505017500,60505017501,60505017502,60505017505,61392045425,61392045430,61392045431,61392045439,61392047425,61392047430,61392047431,61392047439,62037053110,62037053190,62037053210,62037053290,62037053310,62037053390,62037053410,62037053490,62756031008,62756031018,62756031081,62756031083,62756031088,62756031108,62756031118,62756031181,62756031183,62756031188,62756031208,62756031218,62756031281,62756031283,62756031288,62756031308,62756031318,62756031381,62756031383,62756031388,63187042530,63187042560,63187042590,63187087430,63187087460,63187087490,63304054810,63304054830,63304054890,63304054910,63304054930,63304054990,63304055010,63304055030,63304055090,63304055110,63304055130,63304055190,63629124001,63629124101,63629124102,63629124201,63629436701,63629436702,63629436703,63874005810,63874005815,63874005830,63874005890,63874037910,63874037930,63874058110,63874058130,63874058190,65427001901,65427002001,65427002101,65427002201,65427052723,65427052740,65427052798,65427053023,65427053040,65427053099,65427053223,65427053240,65427053299,65862061710,65862061730,65862061755,65862061778,65862061790,65862061799,65862061810,65862061830,65862061855,65862061878,65862061890,65862061899,65862061910,65862061919,65862061930,65862061978,65862061990,65862061999,65862062010,65862062030,65862062039,65862062078,65862062090,65862062099,66105010109,66105010209,66105010309,66105052409,66267032820,66267032830,66267032860,66267032930,66267033030,66267033060,66267046910,66267046920,66267046930,66267046940,66267046960,67787026790,67787026890,67787026990,67787027090,68001018605,68001018705,68001018805,68001018905,68001026005,68071039030,68071076928,68071077130,68071325803,68071325808,68084089911,68084089921,68084089925,68084089995,68115088990,68151102001,68151102101,68151102201,68180055403,68180055409,68180055609,68180055703,68180055709,68180055803,68180055809,68180055903,68180055909,68258602703,68258602709,68258602803,68258602809,68788689401,68788689403,68788689406,68788689409,69097083905,69097083915,69097084105,69097084115,69097084205,69097084215,69097084305,69097084315,69189027801,69189034101</t>
+  </si>
+  <si>
+    <t>benazepril</t>
+  </si>
+  <si>
+    <t>C09AA07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\BPreparations\18867\</t>
+  </si>
+  <si>
+    <t>RxNorm:18867,207780,207792,207800,207820,308607,308609,308612,308613,371001,898687,898689,898690,898692,898719,898721,898723,898725</t>
+  </si>
+  <si>
+    <t>NDC:00078001801,00078001901,00078002001,00078002101,00078044705,00078044805,00078044905,00078045005,00083005930,00083005932,00083005944,00083005990,00083006330,00083006332,00083006344,00083006390,00083007930,00083007932,00083007944,00083007990,00083009430,00083009432,00083009490,00093512401,00093512501,00093512505,00093512601,00093512605,00093512701,00093512705,00172535010,00172535060,00172535070,00172535080,00172535110,00172535160,00172535170,00172535180,00172535182,00172535185,00172535210,00172535260,00172535270,00172535280,00172535282,00172535285,00172535310,00172535360,00172535370,00172535380,00172535382,00172535384,00185004801,00185004805,00185005301,00185005305,00185050501,00185050505,00185080801,00185080805,00185082001,00185082005,00193512501,00193512601,00247112430,00247112510,00247112530,00247112560,00247112610,00247112630,00247112660,00247112710,00247112730,00247213630,00247213660,00247213730,00247215130,00247215160,00339574311,00339574411,00378044101,00378044301,00378044401,00378044701,00440772390,00440772490,00480512401,00480512501,00480512505,00480512601,00480512605,00480512701,00781189101,00781189201,00781189301,00781189401,00904618940,00904619040,00904619140,00904619240,10544055430,10544055490,10544056130,10544056190,10544056630,10544056690,10609152301,10609152401,10609152404,10609152501,10609152504,10609152601,10609152604,12280003300,12634075760,12634077871,13411029303,13411029403,13411029503,13411029603,13811062710,13811062810,13811062850,13811062910,13811062950,13811063010,13811063050,16590025930,16590025960,16590025990,16590028030,17856050502,18527010111,18527010112,18527010121,18527010122,18527010131,18527010132,18527010141,18527010142,21695032630,21695032660,21695032690,21695032730,21695032760,21695032790,21695061290,21695087730,21695087790,23490018703,23490018706,23490018709,23490018803,23490018806,23490018809,23490018903,23490018906,23490018909,23490105706,23490105807,23490143403,23490511801,23490511901,23490512003,23490512009,23490512101,23629000801,23629008001,26053007001,26053041401,30698044701,30698044801,30698044901,30698045001,33261017930,33261017960,33261017990,33261018000,33261018002,33261018030,33261018060,33261018090,33261084600,33261084630,33261084660,33261084690,33358004830,33358004930,35356043230,35356043260,35356043290,35356058730,35356058760,35356058790,35356086130,35356086160,35356086190,35356091030,35356091060,35356091090,42254015630,42254015690,42254019290,42254025590,42254032890,42291016001,42291016050,42291016090,42291016101,42291016150,42291016190,42291016201,42291016218,42291016250,42291016290,42291016301,42291016318,42291016350,42291016390,43063013130,43063013230,43063013290,43063028830,43063028890,43063040330,43063067730,43063067930,43063067990,43063074830,43063078730,43353047960,43547033510,43547033610,43547033650,43547033710,43547033750,43547033810,43547033850,45865074730,49349030202,49856026501,49856026503,49856026505,49856026508,49856026601,49856026603,49856026605,49856026608,49856026701,49856026703,49856026705,49856026708,49856026801,49856026803,49856026805,49856026808,49999028730,49999075930,50090091200,50090091201,50090091202,50090091300,50090091301,50090091400,50090091401,50090091500,50090324300,50090324301,50090335900,50090377500,50268010911,50268010915,50268011011,50268011015,50268011111,50268011115,50268011211,50268011215,50436033703,50436314001,50436314501,50436314601,51079014220,51079014501,51079014520,51079014601,51079014620,51129282601,51129295101,51129295102,51129311901,51129311902,51129315501,51129315502,51129315601,51129315602,51129332701,51129332702,51129341201,51129341202,51129355901,51129355902,51129396101,51129396102,51129417601,51129417602,51129442301,51129442302,51129446201,51129446202,51129446501,51129446502,51138037930,51138038030,51138038130,51138038230,51138039630,51138039730,51138039830,51138039930,51655006552,51655006652,51655006752,51655064424,51655064452,51655064453,51655064524,51655064552,51655064553,51655064624,51655064652,51655064653,51660073601,51660073605,51660073690,51660073701,51660073705,51660073790,51660073801,51660073805,51660073890,51660073901,51660073905,51660073990,52959083130,52959083190,52959083530,52959083560,52959084130,52959084160,52989083530,53217007630,53217007660,53217007690,53217019030,54458086210,54458086216,54458086310,54458086316,54458089310,54458095610,54458095710,54458095810,54458095910,54569335900,54569335901,54569335902,54569342300,54569342301,54569342304,54569478800,54569478801,54569566800,54569566801,54569566802,54569566900,54569566901,54569567000,54569567001,54868235000,54868235001,54868235002,54868235003,54868235004,54868235100,54868235101,54868235102,54868235103,54868235200,54868235201,54868369000,54868369001,54868500100,54868500101,54868500102,54868507900,54868507901,54868507902,54868520400,54868520401,54868520402,54868520403,54868539200,55045237408,55045281908,55045287008,55045316300,55045316400,55045316500,55048003930,55048004030,55048004330,55154567200,55154567300,55154615400,55154615500,55154620308,55154965000,55154965100,55154965500,55289008630,55289008697,55289010930,55289010997,55289028830,55289034130,55289096330,55567015300,55567015313,55567015318,55567015335,55567015400,55567015413,55567015418,55567015435,55567015500,55567015513,55567015518,55567015535,55567015600,55567015613,55567015618,55567015635,55700029030,55700029060,55700029090,55700029130,55700029190,55700031730,55700031790,55887022330,55887022390,55887032230,55887032260,55887032290,55887032292,55887038530,55887038590,55887087530,57866599001,57866599101,57866599201,58016026400,58016042000,58016042010,58016042030,58016042060,58016042090,58016068500,58016068510,58016068530,58016068560,58016068590,58016068600,58016068601,58016068602,58016068603,58016068604,58016068605,58016068606,58016068607,58016068608,58016068609,58016068610,58016068612,58016068614,58016068615,58016068616,58016068618,58016068620,58016068621,58016068624,58016068625,58016068626,58016068627,58016068628,58016068630,58016068632,58016068635,58016068636,58016068640,58016068642,58016068644,58016068645,58016068648,58016068650,58016068656,58016068660,58016068667,58016068669,58016068670,58016068671,58016068672,58016068673,58016068675,58016068676,58016068677,58016068679,58016068680,58016068681,58016068682,58016068683,58016068684,58016068687,58016068689,58016068690,58016068691,58016068692,58016068693,58016068696,58016068697,58016068698,58016068699,58118033703,58118033709,58118033808,58118033809,58118033908,58118033909,58118034003,58118034009,58177034104,58177034204,58177034208,58177034304,58177034308,58177034404,58177034408,59762314601,59762314602,59762314701,59762314702,59762314801,59762314802,60429015801,60429015890,60429015901,60429015990,60429016001,60429016005,60429016018,60429016090,60491037330,60491037334,60491037430,60491037434,60491037630,60491037634,60491038330,60491038334,60505026501,60505026503,60505026505,60505026508,60505026601,60505026603,60505026605,60505026608,60505026701,60505026703,60505026705,60505026708,60505026801,60505026803,60505026805,60505026808,60760008190,60760008230,60760008290,60760008330,60760035190,60760035290,61392077925,61392077930,61392077931,61392077939,61392080525,61392080530,61392080531,61392080539,61786033619,61786034319,61786066902,61786078419,61919028030,61919028060,62037051601,62037051610,62037051701,62037051710,62037051801,62037051810,62037051901,62037051910,62682604403,63187039330,63187039360,63187039390,63187049930,63187049960,63187049990,63187050030,63187050060,63187050090,63187090630,63187090660,63187090690,63304033701,63304033801,63304033805,63304033901,63304033905,63304034001,63304034005,63304073600,63304073601,63304073605,63304073610,63304073630,63304073677,63304073690,63304073701,63304073705,63304073710,63304073730,63304073777,63304073790,63304073801,63304073805,63304073810,63304073830,63304073877,63304073890,63304073901,63304073905,63304073910,63304073930,63304073977,63304073990,63629172801,63629172802,63629172803,63629172804,63629172805,63629172806,63629267201,63629267202,63629267203,63629267204,63629267901,63629267902,63629267903,63629292301,63629292302,63629292303,63629292304,63629644901,63874112301,63874112303,63874114900,64220005202,64220005302,64220005303,64220005401,64220005402,64220005403,64220005502,64220005503,65162075103,65162075110,65162075150,65162075203,65162075210,65162075250,65162075303,65162075310,65162075350,65162075403,65162075410,65162075450,65862011601,65862011661,65862011690,65862011701,65862011761,65862011790,65862011801,65862011890,66267013430,66267013530,66267013560,66267013630,66336012430,66336012490,66336023230,66336036630,66336069130,66336077330,66336077360,66336077390,66636069130,67263025701,67263030401,67544094232,68071002630,68071002660,68071002690,68071012630,68071012691,68071013530,68071014630,68071014660,68071014690,68071014691,68071021705,68071021730,68071102603,68071102606,68071102609,68071114602,68071114603,68071114606,68071114609,68071177001,68071196902,68071196903,68071196906,68071196909,68071305702,68071305703,68071305706,68071305709,68071314202,68071314203,68071314206,68071314209,68071332401,68071332403,68071332406,68071419803,68071419806,68071419809,68084073925,68084073995,68115021300,68115021510,68115021520,68115021530,68115021540,68115021560,68115021620,68115021630,68115021640,68115021660,68115021690,68115021720,68115021730,68115021740,68115021760,68115021790,68115049020,68115049030,68115049040,68115049060,68115059700,68115061500,68115062100,68115065400,68115082400,68258906201,68382016901,68382016910,68382016916,68382017001,68382017010,68382017016,68382017030,68382017077,68382017101,68382017110,68382017116,68382017130,68382017177,68382017201,68382017210,68382017216,68382017230,68382017277,68788034203,68788059503,68788059506,68788059509,68788073603,68788073606,68788073609,68788073703,68788073706,68788073709,68788073803,68788073806,68788073809,68788535003,68788535006,68788535009,68788535101,68788535102,68788535106,68788535109,68788535200,68788535203,68788535206,68788535209,68788636101,68788636103,68788636106,68788636108,68788636109,68788688901,68788688903,68788688906,68788688908,68788688909,68788695701,68788695703,68788695706,68788695708,68788695709,68788724801,68788724803,68788724806,68788724808,68788724809,68788896801,68788896803,68788896806,68788896808,68788896809,68788905001,68788905003,68788905006,68788905008,68788905009,68788905101,68788905103,68788905106,68788905108,68788905109,68788905201,68788905203,68788905206,68788905208,68788905209,68788905301,68788905303,68788905306,68788905308,68788905309,68788931301,68788931303,68788931306,68788931309,68788932701,68788932703,68788932706,68788932709,68788994501,68788994503,68788994506,68788994509,68788994601,68788994603,68788994606,68788994609,68788994701,68788994703,68788994706,68788994709,69189043401,70518021600,70518025200,70518164000,70771114800,70771114801,70771114809,70771114900,70771114901,70771114902,70771114904,70771114909,70771115000,70771115001,70771115002,70771115004,70771115009,70771115100,70771115101,70771115102,70771115104,70771115109,70786033701,70786033801,71335001101,71335001102,71335001103,71335007801,71335007802,71335007803,71335007804,71335007805,71335007806,71335026701,71335026702,71335026703,71335026704,71335045701,71335045702,71335045703,71335045704,71335085401,71335085402,71335085403,71335085404</t>
+  </si>
+  <si>
+    <t>cilazapril</t>
+  </si>
+  <si>
+    <t>C09AA08</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\21102\</t>
+  </si>
+  <si>
+    <t>RxNorm:21102,199707,199708,199709,199937,371506</t>
+  </si>
+  <si>
+    <t>fosinopril</t>
+  </si>
+  <si>
+    <t>C09AA09</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\FPreparations\50166\</t>
+  </si>
+  <si>
+    <t>RxNorm:50166,205707,211535,310422,313982,313987,372274,857169,857171,857183,857187,857189</t>
+  </si>
+  <si>
+    <t>NDC:00087015822,00087015845,00087015846,00087015850,00087015851,00087015885,00087015895,00087060941,00087060942,00087060945,00087060950,00087060951,00087060985,00087120201,00087120212,00087120213,00087120245,00087120251,00093722210,00093722298,00093722310,00093722398,00093722410,00093722498,00179160770,00179160771,00179160772,00179176870,00179176871,00179176872,00185004101,00185004109,00185004110,00185004190,00185004201,00185004209,00185004210,00185004290,00185004701,00185004709,00185004710,00185004790,00247113130,00247113160,00247113230,00247113260,00247205830,00247217130,00247230530,00247230560,00247230590,00440555000,00440555030,00440555045,00440555060,00440555081,00440555085,00440555090,00440555100,00440555130,00440555145,00440555160,00440555181,00440555185,00440555190,00440555200,00440555230,00440555245,00440555260,00440555281,00440555285,00440555290,00480722210,00480722298,00480722310,00480722398,00480722410,00480722498,00781508310,00781508392,00781508410,00781508492,00781508592,15338022190,15338022290,15338022390,15548015846,15548015885,15548015895,15548020213,15548022703,15548027203,15548027210,15548027303,15548027310,15548060941,15548060942,15548060945,15548060985,16252053000,16252053090,16252053100,16252053190,16252053200,16252053290,17856004102,23629002201,24658010010,24658010090,24658010110,24658010190,24658010210,24658010290,26053015001,31722020010,31722020090,31722020110,31722020190,31722020210,31722020290,35356096130,35356096160,35356096190,43353087045,43547038609,43547038611,43547038709,43547038711,43547038809,43547038811,49856251002,49856251003,49856251004,49856251102,49856251103,49856251104,49856251202,49856251203,49856251208,50090089000,50090111200,50090150400,50090250000,50090297700,50090342800,50090344400,50090378000,50436027401,50436313801,51129329801,51129329802,51129374601,51129374602,51129374701,51129374702,51129377301,51129377302,51129850501,51138052030,51138052130,51138052230,51138052330,51138052430,51138052530,53217027730,53217027760,53217027830,53217027860,54569380800,54569380900,54569494800,54569562100,54569609800,54569859200,54868236800,54868236801,54868236802,54868327900,54868327901,54868327902,54868327903,54868420900,54868505500,54868505501,54868506400,54868506401,54868518200,54868518201,54868518202,54907077501,54907077509,54907077601,54907077609,54907077701,54907077709,55045318906,55887030430,55887030460,55887030490,57783273703,57866027401,57866027502,57866313801,57866380001,57866380301,58864010430,58864051015,58864066730,58864077430,58864077490,60429023410,60429023445,60429023490,60429023510,60429023518,60429023545,60429023590,60429023610,60429023618,60429023645,60429023690,60429075510,60429075545,60429075590,60429075610,60429075618,60429075645,60429075690,60429075710,60429075718,60429075745,60429075790,60505251002,60505251003,60505251004,60505251102,60505251103,60505251104,60505251202,60505251203,60505251204,60505251208,60760042830,60760042930,61786053502,62037093505,62037093510,62037093530,62037093590,62037093605,62037093610,62037093630,62037093690,62037093705,62037093710,62037093730,62037093790,62540722203,62540722205,62540722303,62540722305,62540722403,62540722405,63304077501,63304077505,63304077510,63304077530,63304077590,63304077601,63304077605,63304077610,63304077630,63304077690,63304077701,63304077705,63304077710,63304077730,63304077790,63629527901,63629527902,63629527903,63629699401,63629699402,63629729301,63629729302,63629729303,63629766301,63629766302,63629766303,63629766304,63629766305,63629766306,63629766307,64579018100,64579018101,65243009203,65243009206,65243009303,65243009306,65243009403,65243009406,65862047130,65862047149,65862047190,65862047199,65862047230,65862047239,65862047290,65862047299,65862047322,65862047330,65862047390,65862047399,66105054609,67544004215,67544004230,67544004245,67544004253,67544004260,67544004270,67544004273,67544004280,67544004292,67544004294,67544030630,67544030640,67544030645,67544030660,67544031130,67544031140,67544031145,67544032110,67544032115,67544032130,67544032145,67544032160,67544032215,67544032230,67544032245,67544032253,67544032260,67544032270,67544032273,67544032280,67544032292,67544032294,67544038030,67544038060,67544038115,67544038130,67544038145,67544038153,67544038160,67544038170,67544038173,67544038180,67544038192,67544038194,67544043115,67544043130,67544043145,67544043153,67544043160,67544043170,67544043173,67544043180,67544043192,67544043194,67544045415,67544045430,67544045440,67544045445,67544045460,67544048915,67544048930,67544048960,67787020005,67787020010,67787020090,67787020105,67787020110,67787020190,67787020210,67787020290,68071004845,68071015745,68071015790,68071015792,68071021692,68115049220,68115049230,68115049240,68258608603,68258610603,68462036705,68462036710,68462036790,68462036805,68462036810,68462036890,68462036910,68462036990,68505251002,68505251004,68533004200,68533004212,68533004225,68533004240,68533004300,68533004312,68533004325,68533004340,68533004400,68533004412,68533004425,68533004440,68552022110,68552022190,68552022210,68552022290,68552022310,68552022390,69097085605,69097085615,69097085705,69097085715,69097085805,69097085815,71335018701,71335018702,71335038101,71335038102,71335038103,71335038104,71335072601,71335072602,71335072603,71335072604,71335087301,71335087302,71335087303,71335087304,76282020010,76282020090,76282020110,76282020190,76282020210,76282020290</t>
+  </si>
+  <si>
+    <t>trandolapril</t>
+  </si>
+  <si>
+    <t>C09AA10</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\38454\</t>
+  </si>
+  <si>
+    <t>RxNorm:38454,199351,199352,199353,199622,199816,199817,210671,210672,210673,374176,374177,411434</t>
+  </si>
+  <si>
+    <t>NDC:00048580501,00048580541,00048580596,00048580601,00048580641,00048580696,00048580701,00048580741,00048580796,00074227811,00074227813,00074227871,00074227911,00074227913,00074227971,00074228011,00074228013,00074228071,00093732501,00093732601,00093732701,00143912501,00143912601,00143912701,00378324101,00378324105,00378324193,00378324201,00378324205,00378324293,00378324301,00378324305,00378324393,00480732501,00480732601,00480732701,00781532001,00781532010,00781532011,00781532101,00781532110,00781532201,00781532210,16252054100,16252054130,16252054200,16252054290,16252054300,16252054390,26053033501,26053033601,26053033701,41284006500,41284006512,41284006540,41284006548,41284006600,41284006612,41284006640,41284006648,41284006700,41284006712,41284006740,41284006745,41284054100,41284054130,41284054200,41284054290,41284054300,41284054390,42291083701,42291083801,42291083901,42806005201,42806005210,42806005301,42806005310,42806005401,42806005410,49999029430,51129140001,51129240101,51129316601,51129316602,51129444701,51129444702,51138057330,51138057430,51138057510,51138057530,53104010600,53104010601,53104010604,53104010605,53104010606,53104010607,53104010609,53104010700,53104010701,53104010704,53104010705,53104010706,53104010707,53104010709,53104010800,53104010801,53104010804,53104010805,53104010806,53104010807,53104010809,54868509900,54868509901,54868606100,54868606101,55111048101,55111048105,55111048130,55111048160,55111048178,55111048201,55111048205,55111048230,55111048260,55111048278,55111048301,55111048305,55111048330,55111048360,55111048378,57237008901,57237009001,57237009101,57297056601,57297056701,57297056801,59762214001,59762214006,59762214101,59762214106,59762214201,59762214206,60429097801,60429097901,60429098001,64720016110,64720016111,64720016210,64720016211,64720016310,64720016311,65862016401,65862016453,65862016499,65862016501,65862016581,65862016599,65862016601,65862016661,65862016699,67253010610,67253010710,67253010810,67787022901,67787023001,67787023101,68151075700,68151359100,68180056601,68180056701,68180056801,68258610003,68462018501,68462018505,68462018511,68462018601,68462018605,68462018611,68462018701,68462018705,68462018711,68533006500,68533006512,68533006540,68533006548,68533006600,68533006612,68533006640,68533006648,68533006700,68533006712,68533006740,68533006745</t>
+  </si>
+  <si>
+    <t>spirapril</t>
+  </si>
+  <si>
+    <t>C09AA11</t>
+  </si>
+  <si>
+    <t>moexipril</t>
+  </si>
+  <si>
+    <t>C09AA13</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\MPreparations\30131\</t>
+  </si>
+  <si>
+    <t>RxNorm:30131,206277,206313,311734,311735,372945,1299896,1299897,1299963,1299965</t>
+  </si>
+  <si>
+    <t>NDC:00091370701,00091370709,00091370781,00091370797,00091371501,00091371509,00091371597,00093001701,00093515001,00131370701,00131370709,00131370797,00131371501,00131371509,00131371597,00247127700,00574011001,00574011215,16252061001,16252061101,26053023901,51129461301,51129461302,51217370700,51217371500,54569427600,54569499000,54569591600,54868408800,54868408801,54868408802,54868488300,54868488301,54868488302,54868542300,54868542301,54868592800,60505027101,60505027103,60505027105,60505027108,60505027201,60505027203,60505027205,60505027208,62175017137,62175017141,62175017146,62175017737,62175017741,62175017746,68151147200,68151147301,68462020801,68462020810,68462020890,68462020901,68462020910,68462020990,69189032501</t>
+  </si>
+  <si>
+    <t>zofenopril</t>
+  </si>
+  <si>
+    <t>C09AA15</t>
+  </si>
+  <si>
+    <t>imidapril</t>
+  </si>
+  <si>
+    <t>C09AA16</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\IPreparations\60245\</t>
+  </si>
+  <si>
+    <t>RxNorm:60245,389182,389183,389184,393442</t>
+  </si>
+  <si>
+    <t>ARB</t>
+  </si>
+  <si>
+    <t>Angiotensin II receptor blockers (ARBs), plain</t>
+  </si>
+  <si>
+    <t>Losartan</t>
+  </si>
+  <si>
+    <t>C09CA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\LPreparations\52175\</t>
+  </si>
+  <si>
+    <t>RxNorm:52175,108725,206256,261209,311379,311380,314073,372651,979480,979482,979485,979487,979492,979494</t>
+  </si>
+  <si>
+    <t>NDC:00006095101,00006095128,00006095154,00006095158,00006095182,00006095187,00006095201,00006095207,00006095227,00006095228,00006095230,00006095231,00006095240,00006095254,00006095258,00006095282,00006095287,00006096001,00006096007,00006096027,00006096028,00006096030,00006096031,00006096040,00006096054,00006096058,00006096081,00006096082,00006096086,00054012322,00054012422,00054012522,00056095128,00056095154,00056095158,00056095228,00056095231,00056095254,00056095258,00093736410,00093736498,00093736510,00093736556,00093736598,00093736610,00093736656,00093736698,00093936610,00093936656,00093936698,00179020001,00179020201,00179020301,00179150501,00179150530,00179150550,00179150560,00245019301,00245019310,00245019330,00245019355,00245019389,00245019390,00245019401,00245019410,00245019430,00245019455,00245019489,00245019490,00245019501,00245019510,00245019530,00245019555,00245019589,00245019590,00247233530,00247233560,00247233590,00378404110,00378404177,00378404193,00378404210,00378404277,00378404293,00378404300,00378404310,00378404377,00378404393,00591374500,00591374510,00591374519,00591374530,00591374600,00591374610,00591374619,00591374630,00591374700,00591374710,00591374719,00591374730,00603422402,00603422416,00603422432,00603422502,00603422516,00603422532,00603422602,00603422616,00603422632,00615563031,00615563039,00615760439,00615760530,00615760539,00615760639,00615795839,00615795905,00615795930,00615795939,00615796005,00615796039,00615820739,00615820805,00615820830,00615820839,00615820905,00615820939,00781570001,00781570010,00781570092,00781570101,00781570110,00781570131,00781570174,00781570192,00781570201,00781570210,00781570231,00781570292,00781580510,00781580592,00781580610,00781580631,00781580692,00781580710,00781580731,00781580792,00904638961,00904639061,00904639161,12280000590,12280006630,13668011310,13668011374,13668011390,13668011410,13668011430,13668011474,13668011490,13668011510,13668011530,13668011574,13668011590,13668040910,13668040930,13668040974,13668040990,16571050011,16571050050,16571050090,16571050111,16571050130,16571050150,16571050190,16571050211,16571050230,16571050250,16571050290,16590006330,16590095230,16590095260,16590095290,16714058101,16714058102,16714058103,16714058201,16714058202,16714058203,16714058301,16714058302,16714058303,21695071430,21695071490,21695071730,21695071745,21695071790,21695098930,23155064403,23155064409,23155064410,23155064503,23155064509,23155064510,23155064603,23155064609,23155064610,24236087802,29300014401,29300014410,29300014413,29300014419,29300014501,29300014510,29300014513,29300014519,29300014601,29300014610,29300014613,29300014619,31722070005,31722070010,31722070030,31722070060,31722070090,31722070105,31722070110,31722070130,31722070160,31722070190,31722070205,31722070210,31722070230,31722070260,31722070290,33261081800,33261081830,33261081860,33261081890,33261081900,33261081930,33261081960,33261081990,33261099630,33261099660,33261099690,33342004407,33342004410,33342004412,33342004444,33342004507,33342004510,33342004512,33342004544,33342004607,33342004610,33342004612,33342004644,35356037390,35356077330,35356077930,35356088330,35356088360,35356088390,35356088430,35356088460,35356088490,35356094090,35356094930,35356094960,35356094990,42291042210,42291042310,42291042410,42549070090,42571011001,42571011010,42571011030,42571011090,42571011101,42571011110,42571011130,42571011190,42571011201,42571011210,42571011230,42571011290,42708003530,42708005530,42708012530,43063034730,43063047714,43063047730,43063047790,43063047830,43063047890,43063048330,43063076690,43063085490,43063088130,43353005760,43353029960,43353045945,43353066760,43353066845,43353066860,43353067130,43353072860,43353072945,43547036009,43547036011,43547036050,43547036103,43547036109,43547036111,43547036150,43547036203,43547036209,43547036211,43547036250,45865068449,45865068461,45865071860,46708044530,46708044531,46708044590,46708044591,46708044630,46708044631,46708044690,46708044691,46708044730,46708044731,46708044790,46708044791,49349013802,49349021102,49349023302,49349038302,49349063202,49349083902,49848000890,49999094030,49999094090,49999099190,50090116400,50090116401,50090116500,50090116501,50090126900,50090126901,50090150600,50090150601,50090196700,50090205400,50090205401,50090214200,50090214201,50090262200,50090262201,50090265600,50090265601,50090288200,50090288201,50090290801,50090323100,50268051611,50268051615,50268051711,50268051715,50268051811,50268051815,50436666401,50436666801,50436666802,50436666901,50436666902,51079075001,51079075020,51079075101,51079075120,51079075201,51079075220,51138051530,51138051630,51138051730,52125012902,52125012919,52125017802,52125034802,52125040719,52125042802,52125042819,52125089019,52125089702,52125089719,53002162400,53002162403,53002162409,53002163800,53002163803,53002163809,53002164300,53002164303,53002164309,53002262400,53002262403,53002262409,53002263800,53002263803,53002263809,53217033730,53217036930,53808089201,53808089601,53808097801,53808104301,53808107202,53978331703,54569443700,54569443800,54569443801,54569617300,54569617301,54569629400,54569629401,54569629700,54569629701,54868233500,54868233501,54868372600,54868372601,54868372602,54868507700,54868610400,54868610401,54868610700,54868610701,54868610702,54868611700,54868611701,54868611702,55045340108,55048044430,55154208900,55154478300,55154500900,55154500907,55154501600,55154501607,55154536700,55154664300,55289023830,55370079400,55370079500,55370079600,55700047430,55887043230,55887043260,55887043290,57237020405,57237020490,57237020499,57237020530,57237020590,57237020599,57237020630,57237020690,57237020699,58118011500,58118011503,58118011506,58118011508,58118011509,58118024408,58118024508,58118040901,58118040903,58118040906,58118040908,58118040909,58118111308,58118736600,58118736608,58517024030,58657061010,58657061011,58657061030,58657061050,58657061090,58657061110,58657061111,58657061130,58657061190,58657061210,58657061211,58657061230,58657061290,58864066230,58864080730,59746033301,59746033310,59746033330,59746033390,59746033401,59746033410,59746033430,59746033490,59746033501,59746033510,59746033530,59746033590,59762007001,59762007002,59762007101,59762007102,59762007103,59762007201,59762007202,59762007203,60312053600,60312061300,60312095101,60312095128,60312095154,60312095182,60312095227,60312095228,60312096001,60312096027,60312096031,60312096054,60312096082,60312096086,60429031610,60429031630,60429031690,60429031710,60429031730,60429031790,60429031810,60429031830,60429031890,60429086310,60429086330,60429086390,60429086410,60429086413,60429086430,60429086490,60429086510,60429086530,60429086590,60505316000,60505316003,60505316008,60505316009,60505316100,60505316103,60505316108,60505316109,60505316200,60505316203,60505316208,60505316209,60760012930,60760012990,60760013030,60760013090,60760013330,60760036290,60951018530,60951018570,60951018590,60951018592,60951018630,60951018670,60951018690,60951018692,60951018730,60951018770,60951018790,60951018792,61786018002,61786018019,61786018020,61786040902,61786040919,61786067002,61786067019,61786075202,61786075502,61786082002,61786092702,61919003030,61919003090,61919046130,61919095230,61919095290,62332002730,62332002731,62332002790,62332002791,62332002830,62332002831,62332002890,62332002891,62332002930,62332002931,62332002990,62332002991,63187007130,63187007160,63187007190,63187007230,63187007260,63187007290,63187029630,63187029660,63187029690,63187031630,63187035730,63187035760,63187035790,63187039130,63187039160,63187039190,63187058930,63187058960,63187058990,63187070830,63187070860,63187070890,63187080830,63187080860,63187080890,63187083030,63187083060,63187083090,63187093530,63187093560,63187093590,63629133701,63629133702,63629133703,63629291201,63629291202,63629291203,63629291204,63629423801,63629423802,63629423803,63629423804,63629423805,63629438301,63629438302,63629438303,63629438304,63629438305,63629438306,63629451901,63629451902,63629638101,63629638102,63629638103,63739051310,63739051410,63739051510,63739067310,63739068610,63739069810,63874063701,63874063710,63874063720,63874063730,63874063790,64205022530,64205022630,64579000100,64579000128,65841072901,65841072906,65841072910,65841072916,65841072924,65841072940,65841073001,65841073006,65841073010,65841073016,65841073024,65841073101,65841073106,65841073110,65841073116,65841073140,65862020105,65862020119,65862020190,65862020199,65862020230,65862020281,65862020290,65862020299,65862020322,65862020330,65862020390,65862020399,66105055210,66105055303,66105055310,66116041530,66116045230,66336066515,66336066530,66336066590,66336066630,66336066690,67046044930,67046045530,67544023432,67544023445,67544023453,67544038230,67544038260,68071085730,68071088430,68071151509,68071151603,68071151709,68071151803,68071168409,68071191203,68071198603,68071198903,68071300303,68071301403,68071310203,68071313906,68071318203,68071320909,68071321606,68071330103,68071400003,68071401909,68071403609,68071404609,68071405809,68071405909,68071406209,68071414109,68071424409,68071424803,68071438009,68071439909,68071441309,68071441409,68071445409,68071447103,68071459706,68084034601,68084034611,68084034701,68084034711,68084034801,68084034811,68115073300,68115073330,68115073390,68151018209,68151018309,68180021001,68180021003,68180021006,68180021009,68180021101,68180021103,68180021106,68180021109,68180021201,68180021203,68180021206,68180021209,68180030701,68180030702,68180030706,68180030709,68180030801,68180030802,68180030806,68180030809,68180030901,68180030902,68180030906,68180030909,68180037601,68180037603,68180037606,68180037609,68180037701,68180037703,68180037706,68180037709,68180037801,68180037803,68180037806,68180037809,68258603003,68258603009,68382013501,68382013506,68382013510,68382013516,68382013524,68382013540,68382013601,68382013606,68382013610,68382013616,68382013624,68382013640,68382013701,68382013706,68382013710,68382013716,68382013730,68382013740,68382013777,68645040670,68645040754,68645040770,68645040870,68645040954,68645040970,68645041070,68645041154,68645041170,68645048654,68645049454,68645052470,68645052570,68645052670,68645057754,68645057854,68645057954,68788004801,68788004803,68788004806,68788004809,68788633301,68788633303,68788633306,68788633309,68788640501,68788640503,68788640506,68788640509,68788644501,68788644503,68788644506,68788644509,68788646201,68788646203,68788646206,68788646209,68788678801,68788678803,68788678805,68788678806,68788678809,68788710501,68788710503,68788710505,68788710506,68788710509,68788716701,68788716703,68788716706,68788716709,68788721301,68788721303,68788721305,68788721306,68788721309,68788736500,68788736503,68788736506,68788736508,68788736509,68788738601,68788738603,68788738606,68788738609,68788930501,68788930503,68788930506,68788930509,68788971201,68788971203,68788971206,68788971209,68788998601,68788998603,68788998606,68788998609,69189020101,69189020301,69189736501,69543014010,69543014011,69543014030,69543014050,69543014090,69543014110,69543014111,69543014130,69543014190,69543014210,69543014211,69543014230,69543014290,70518008300,70518008700,70518008701,70518018900,70518018901,70518024500,70518041900,70518041901,70518055700,70518058600,70518058800,70518058801,70518062600,70518071800,70518071801,70518071802,70518076000,70518078900,70518085700,70518086200,70518095900,70518101500,70518101501,70518101502,70518103200,70518103201,70518103202,70518131900,70518152700,70786011501,70786011503,70786013501,70786036001,71205006930,71205006960,71205006990,71205010230,71205010260,71205010290,71335018101,71335018102,71335018103,71335018104,71335018105,71335024901,71335024902,71335024903,71335024904,71335026201,71335026202,71335026203,71335026204,71335026205,71335044201,71335044202,71335044203,71335044204,71335044205,71335044206,71335069801,71335069802,71335069803,71335069804,71335069805,71335070001,71335070002,71335070003,71335070004,71335088401,71335088402,71335088403,71335088404,71335097201,71335097202,71335097203,71335097204,71335097205,71335097206,71610000930,71610000945,71610000960,71610006545,71610006560,71610008230,71610008245,71610008260,71610008330,71610008360,71610015530,71610015545,71610015560,71610017130,71610017160,75921040930,76237028430,76439014010,76439014011,76439014030,76439014050,76439014090,76439014110,76439014111,76439014130,76439014190,76439014210,76439014211,76439014230,76439014290,76519103309,76519114809</t>
+  </si>
+  <si>
+    <t>Candesartan</t>
+  </si>
+  <si>
+    <t>C09CA06</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\214354\</t>
+  </si>
+  <si>
+    <t>RxNorm:153821,153822,153823,153824,205279,214354,371247,577776,577785,577787,598024,615856,639536,639537,639539,639543</t>
+  </si>
+  <si>
+    <t>NDC:00186000407,00186000431,00186000454,00186000807,00186000831,00186000854,00186001607,00186001628,00186001631,00186001654,00186003207,00186003228,00186003231,00186003254,00781593605,00781593631,00781593692,00781593705,00781593731,00781593792,00781593805,00781593831,00781593892,00781593905,00781593931,00781593992,17228001602,17228001603,17228001609,17228003203,17228003209,26053008201,26053008301,33342011407,33342011410,33342011412,33342011451,33342011507,33342011510,33342011512,33342011551,33342011607,33342011610,33342011612,33342011651,33342011707,33342011710,33342011712,33342011751,35356042730,46708006010,46708006030,46708006090,49884065809,49884065909,49884066009,49884066109,49999030530,49999098830,51138049330,51138049430,54569471400,54569471900,54569471901,54868441300,54868461200,54868548900,54868559100,55154961000,58016060601,58016060602,58016060603,58016060604,58016060605,58016060606,58016060607,58016060608,58016060609,58016060610,58016060614,58016060616,58016060618,58016060621,58016060624,58016060625,58016060626,58016060627,58016060628,58016060632,58016060635,58016060636,58016060640,58016060642,58016060644,58016060645,58016060648,58016060650,58016060656,58016060660,58016060667,58016060669,58016060670,58016060671,58016060672,58016060673,58016060675,58016060676,58016060677,58016060679,58016060680,58016060681,58016060682,58016060683,58016060684,58016060687,58016060689,58016060691,58016060692,58016060693,58016060696,58016060697,58016060698,58016060699,60505361803,60505361903,60505362003,60505362005,60505362009,60505362103,60505362105,60505362109,60687011911,60687011921,60687011925,60687011995,60687013011,60687013021,60687013025,60687013095,60687024125,60687024195,61113000431,61113000831,61113001628,61113001631,61113003228,61113003231,62332006010,62332006030,62332006090,62559064030,62559064130,62559064230,62559064290,62559064330,62559064390,63629337601,63629337602,63629337603,63629337604,63629446201,66105055903,67544017745,67544021245,67544021253,68084087711,68084087721,68084087725,68084087795,68151383809,68151414503,68151414603,68382019005,68382019006,68382019016,68382019105,68382019106,68382019116,68382019201,68382019205,68382019206,68382019210,68382019216,68382019301,68382019305,68382019306,68382019310,68382019316,69189593701,70771120403,70771120405,70771120409,70771120503,70771120505,70771120509,70771120600,70771120601,70771120603,70771120605,70771120609,70771120700,70771120701,70771120703,70771120705,70771120709</t>
+  </si>
+  <si>
+    <t>Valsartan</t>
+  </si>
+  <si>
+    <t>C09CA03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\VPreparations\69749\</t>
+  </si>
+  <si>
+    <t>RxNorm:69749,153077,199850,199919,349199,349200,349201,349483,351761,351762,352001,352274,374279,378276,484828,484855,1996253,1996254</t>
+  </si>
+  <si>
+    <t>NDC:00078035805,00078035806,00078035833,00078035834,00078035861,00078035905,00078035906,00078035917,00078035934,00078035961,00078036005,00078036006,00078036011,00078036034,00078036061,00078037606,00078037615,00078042306,00078042315,00078042361,00083400001,00083400003,00083400041,00083400061,00083400101,00083400141,00083400161,00093743156,00093743298,00093743398,00093743498,00247196200,00247196230,00247225790,00378580701,00378580793,00378581301,00378581377,00378581401,00378581477,00378581501,00378581577,00490020501,00490020502,00490020503,00490020504,00490020505,00591216719,00591216730,00591216810,00591216819,00591216910,00591216919,00591217005,00591217019,00603634002,00603634016,00603634020,00603634028,00603634032,00603634102,00603634116,00603634120,00603634128,00603634132,00603634202,00603634216,00603634220,00603634228,00603634232,00603634302,00603634316,00603634328,00615559405,00615559431,00615559439,00615560805,00615560831,00615560839,00615751139,00615751205,00615751239,00781560731,00781560892,00781561892,00781561992,00904659461,00904659561,12280000890,12280037890,13411014201,13411014202,13411014203,13411014206,13411014209,13411014301,13411014302,13411014303,13411014306,13411014309,13668006705,13668006730,13668006774,13668006790,13668006805,13668006830,13668006874,13668006890,13668006905,13668006930,13668006974,13668006990,13668007005,13668007023,13668007030,13668007074,13668007090,17088003501,17088003601,17088003701,17088004601,17088009001,17088400001,17088400101,21695091790,21695091890,21695091990,23490941103,23490941109,23490941203,23490941209,26053034301,26053034401,29300023210,29300023213,29300023219,29300023310,29300023313,29300023319,29300023410,29300023413,29300023419,29300023510,29300023513,29300023519,31722074505,31722074530,31722074531,31722074532,31722074590,31722074605,31722074630,31722074631,31722074632,31722074690,31722074705,31722074730,31722074731,31722074732,31722074790,31722074805,31722074830,31722074831,31722074832,31722074890,33342006207,33342006244,33342006310,33342006344,33342006410,33342006415,33342006510,33342006515,35356010190,35356087800,42291087690,42291087710,42291087790,42291087810,42291087890,42291087950,42291087990,42291088090,42291088110,42291088190,42291088210,42291088290,42291088350,42291088390,43353005917,43353005930,43353006617,43353006630,43353006783,43353020379,43353022517,43353022530,43353023130,43353023183,43353023279,43353023283,43353091083,43547036703,43547036709,43547036711,43547036750,43547036803,43547036809,43547036811,43547036850,43547036903,43547036909,43547036911,43547036950,43547037003,43547037009,43547037011,43547037050,46708004410,46708004430,46708004471,46708004490,46708004491,46708004510,46708004530,46708004571,46708004590,46708004591,46708004610,46708004630,46708004671,46708004690,46708004691,46708004730,46708004771,46708004790,49349010402,49349010419,49349056919,49999054300,49999054330,49999087700,49999087730,49999087790,49999087800,49999087830,49999087890,50090164300,50090164301,50090168200,50090168201,50090220600,50090220601,50090225500,50090225501,50090226800,50090226801,50090229000,50090229001,50090229400,50090229401,50090232700,50090232701,50090242400,50090242401,50090243300,50090243301,50090243500,50090243501,50090251800,50090251801,50090255000,50090255001,50090287700,50090287701,50268078311,50268078315,50268078411,50268078415,50268078511,50268078515,50268078611,50268078613,50436216801,51129287401,51129303301,51129303302,51129355701,51129355702,51655065152,51655065252,51655075152,51660014003,51660014005,51660014030,51660014103,51660014105,51660014190,51660014203,51660014205,51660014290,51660014303,51660014305,51660014390,52343012230,52343012390,52343012490,52343012590,52959075630,54569469700,54569469800,54569536100,54569536200,54569566600,54569658200,54569658201,54569658300,54569658301,54569658800,54569658801,54868464500,54868464501,54868464502,54868464503,54868465200,54868465201,54868465202,54868465203,54868465204,54868465205,54868508200,54868508201,54868508202,54868508203,54868597700,54868645200,54868645300,54868645800,55045340909,55048025030,55048025130,55154342500,55154342502,55154342508,55154353709,55154353809,55154467600,55154467800,55154965700,55154965702,55154965708,55154966502,55154966508,55289081730,55289082530,55289087630,55700034630,55700034730,55887030730,58016077700,58016077701,58016077702,58016077703,58016077704,58016077705,58016077706,58016077707,58016077708,58016077709,58016077710,58016077712,58016077714,58016077715,58016077716,58016077718,58016077720,58016077721,58016077724,58016077725,58016077726,58016077727,58016077728,58016077730,58016077732,58016077735,58016077736,58016077740,58016077742,58016077744,58016077745,58016077748,58016077750,58016077756,58016077760,58016077767,58016077769,58016077770,58016077771,58016077772,58016077773,58016077775,58016077776,58016077777,58016077779,58016077780,58016077781,58016077782,58016077783,58016077784,58016077787,58016077789,58016077790,58016077791,58016077792,58016077793,58016077796,58016077797,58016077798,58016077799,58016091430,58864060515,58864060530,58864068130,59746036003,59746036005,59746036030,59746036090,59746036103,59746036105,59746036130,59746036190,59746036203,59746036205,59746036230,59746036290,59746036303,59746036305,59746036330,59746036332,59746036367,59746036390,60687012801,60687012811,60687013901,60687013911,61392089831,61392089839,61786079119,61786079219,61786079319,62301006767,62332004410,62332004430,62332004471,62332004490,62332004491,62332004510,62332004530,62332004571,62332004590,62332004591,62332004610,62332004630,62332004671,62332004690,62332004691,62332004730,62332004771,62332004790,62332004791,63187065530,63187065560,63187065590,63629288401,63629337101,63629337102,63629337103,63629337104,63629647701,63629689201,63629689202,63629689203,63629689204,63629689205,63629689206,63629690501,63629690502,63629690503,63629692201,63629692202,63629692203,63629692204,63629743201,65162083703,65162083706,65162083750,65162083809,65162083811,65162083850,65162083909,65162083911,65162083950,65162084009,65162084011,65162084050,65862057010,65862057030,65862057099,65862057110,65862057190,65862057199,65862057210,65862057290,65862057299,65862057305,65862057390,66267052310,66267052320,66267052330,66267052340,66267052360,66267052390,66267056510,66267056515,66267056520,66267056530,66267056560,66336016930,66336038730,66336038790,67544040330,67544040331,67544040379,67544040430,67544040431,67544040479,68084080401,68084080411,68084082201,68084082211,68115085400,68115085490,68151434903,68151504401,68180027601,68180027606,68180027611,68180027703,68180027709,68180027803,68180027809,68180027902,68180027909,68258607103,68258698603,68258699409,68788681401,68788681402,68788681403,68788681406,68788681408,68788681409,68788688201,68788688202,68788688203,68788688206,68788688208,68788688209,69189057501,69189743201,70518006900,70518127900,71335009701,71335009702,71335009703,71335009704,71335009705,71335009706,71335009707,71335047501,71335047502,71335047503,71335048801,71335048802,71335048803,71335055301,71335055302,71335055303,71335055304,71335055305,71335055501,71335055502,71335055503,71335055504,71335056701,71335056702,71335056703,71335056704,71335060001,71335060002,71335060003,76519115809</t>
+  </si>
+  <si>
+    <t>Irbesartan</t>
+  </si>
+  <si>
+    <t>C09CA04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\IPreparations\83818\</t>
+  </si>
+  <si>
+    <t>RxNorm:83818,153665,153666,153667,200094,200095,200096,370704</t>
+  </si>
+  <si>
+    <t>NDC:00024585030,00024585090,00024585130,00024585190,00024585230,00024585290,00054025013,00054025022,00054025113,00054025122,00054025129,00054025213,00054025222,00054025229,00087277115,00087277131,00087277132,00087277135,00087277191,00087277215,00087277231,00087277232,00087277235,00087277294,00087277315,00087277331,00087277332,00087277335,00087277394,00093746456,00093746498,00093746505,00093746556,00093746598,00093746605,00093746656,00093746698,00093751405,00093751456,00093751498,00378202205,00378202277,00378202305,00378202377,00378202393,00378202405,00378202477,00378202493,00591278219,00591278230,00591278319,00591278330,00591278419,00591278430,00603408002,00603408016,00603408028,00603408032,00603408102,00603408116,00603408128,00603408132,00603408202,00603408216,00603408228,00603408232,00955104030,00955104090,00955104105,00955104130,00955104190,00955104205,00955104230,00955104290,12280006330,12280006390,12280036930,12280036990,13411010601,13411010603,13411010606,13411010609,13411010615,13411010701,13411010703,13411010706,13411010709,13411010715,26053017401,26053017501,27241003303,27241003309,27241003510,27241003610,29300021205,29300021213,29300021219,29300021305,29300021313,29300021319,29300021405,29300021413,29300021419,31722016005,31722016110,31722016205,31722072905,31722072930,31722072931,31722072990,31722073005,31722073030,31722073031,31722073090,31722073105,31722073130,31722073131,31722073190,33342004707,33342004710,33342004712,33342004715,33342004807,33342004810,33342004812,33342004815,33342004907,33342004910,33342004915,33342004939,35356013130,35356042830,35356085430,42291035530,42291035590,42291035630,42291035690,42291035730,42291035790,42658012101,42658012104,42658012201,42658012204,42658012207,42658012301,42658012304,42658012307,43547027703,43547027709,43547027750,43547027803,43547027809,43547027850,43547027903,43547027909,43547027950,43547037403,43547037409,43547037450,43547037503,43547037509,43547037550,43547037603,43547037609,43547037650,46708043930,46708043931,46708043971,46708043990,46708043991,46708044030,46708044031,46708044071,46708044090,46708044091,46708044130,46708044131,46708044171,46708044190,46708044191,50090128400,50090161300,50090201700,50090264200,50090297800,50090324400,50090324401,50090326900,50090326902,50090343101,50228016005,50228016030,50228016110,50228016130,50228016205,50228016230,50268044011,50268044015,50268044111,50268044115,50268044211,50268044215,50436465203,51129133901,51129157101,51129157201,51129411701,51129411702,51138021730,51138021760,51138021830,51138021860,51138021930,51138021960,54569457200,54569489500,54569586700,54569630900,54569656400,54868419900,54868419901,54868419902,54868441400,54868441401,54868441402,55154202600,55887010230,55887010330,55887010530,57297041006,57297041009,57297041102,57297041106,57297041109,57297041202,57297041206,57297041209,58016054200,58016054230,58864072615,58864072630,58864077115,59746044705,59746044730,59746044790,59746044805,59746044830,59746044890,59746044905,59746044930,59746044990,60429064005,60429064030,60429064090,60429064105,60429064130,60429064190,60429064205,60429064230,60429064290,60505354703,60505354709,60505354803,60505354805,60505354808,60505354809,60505354903,60505354905,60505354909,61392088631,61392088639,62301006969,62332004130,62332004131,62332004171,62332004190,62332004191,62332004230,62332004231,62332004271,62332004290,62332004291,62332004330,62332004331,62332004371,62332004390,62332004391,62584043550,63187063030,63187063060,63187063090,63187073710,63187073730,63187073760,63187073790,63187075730,63187075760,63187075790,63629337301,63629337302,63629337303,63629337304,63629415901,63629524101,63629524102,63629543101,63629543102,63629543103,63874064710,63874064714,63874064730,64980038503,64980038509,64980038603,64980038609,64980038703,64980038709,65162028403,65162028409,65162028450,65162028503,65162028509,65162028511,65162028550,65162028603,65162028609,65162028611,65162028650,65862063705,65862063710,65862063730,65862063778,65862063790,65862063805,65862063810,65862063830,65862063878,65862063890,65862063905,65862063910,65862063930,65862063978,65862063990,66105050301,66105050303,66105050306,66105050309,66105050310,66105050315,66105050401,66105050403,66105050406,66105050409,66105050415,66105078823,67544040045,68084000711,68084000721,68084021711,68084021721,68084064411,68084064421,68151356909,68180041006,68180041009,68180041102,68180041106,68180041109,68180041202,68180041206,68180041209,68258606603,68258606606,68258607709,68382029905,68382029906,68382029910,68382029916,68382029930,68382029977,68382030005,68382030006,68382030010,68382030016,68382030030,68382030077,68382030105,68382030106,68382030110,68382030116,68382030130,68382030177,68645040470,69367011901,69367011903,69367012001,69367012003,69367012101,69367012103,70518132800,70518132900,70518154300,70771115900,70771115902,70771115903,70771115904,70771115905,70771115909,70771116000,70771116002,70771116003,70771116004,70771116005,70771116009,70771116100,70771116102,70771116103,70771116104,70771116105,70771116109,71205008230,71205008260,71205008290,71335007101,71335007102,71335007103,71335042301,71335042302,71335042303</t>
+  </si>
+  <si>
+    <t>Telmisartan</t>
+  </si>
+  <si>
+    <t>C09CA07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\73494\</t>
+  </si>
+  <si>
+    <t>RxNorm:73494,205304,205305,213431,213432,282755,284531,374024,484824,2057151,2057152,2057158</t>
+  </si>
+  <si>
+    <t>NDC:00010449201,00054054218,00054054318,00054054418,00378292005,00378292077,00378292093,00378292105,00378292177,00378292193,00378292205,00378292277,00378292293,00591329215,00591329245,00591329315,00591329345,00591329415,00591329445,00597003928,00597003937,00597004028,00597004037,00597004070,00597004128,00597004137,00597004170,00603591416,00603591420,00603591432,00603591516,00603591520,00603591532,00603591616,00603591620,00603591632,00781537206,00781537264,00781537406,00781537464,00781537806,00781537864,12714010970,12714011070,12714013928,13668015601,13668015630,13668015636,13668015672,13668015674,13668015701,13668015730,13668015736,13668015772,13668015774,13668015801,13668015830,13668015836,13668015872,13668015874,31722080231,31722080232,31722080233,31722080234,31722080235,31722080236,31722080331,31722080332,31722080333,31722080334,31722080335,31722080336,31722080337,31722080431,31722080432,31722080433,31722080434,31722080435,31722080436,31722080437,35356029530,35356029630,35356029830,42291079030,42291079130,42291079230,42571022605,42571022610,42571022611,42571022630,42571022632,42571022641,42571022690,42571022705,42571022710,42571022711,42571022730,42571022732,42571022741,42571022790,42571022805,42571022810,42571022811,42571022830,42571022832,42571022841,42571022890,43547028303,43547028309,43547028350,43547028403,43547028409,43547028450,43547028503,43547028509,43547028550,45865084130,46708008710,46708008730,46708008791,46708008810,46708008830,46708008891,46708008910,46708008930,46708008991,53746029130,53746029230,53746029330,54868453901,54868460500,54868460501,54868460502,54868619300,55048061930,55048062030,55048062130,59746043912,59746043932,59746044012,59746044032,59746044112,59746044132,62332008710,62332008730,62332008791,62332008810,62332008830,62332008891,62332008910,62332008930,62332008991,63187095130,63187095160,63187095190,63629723001,63629723002,64674003937,64674004037,64674004070,64674004137,64674004170,65162029103,65162029109,65162029150,65162029163,65162029203,65162029209,65162029211,65162029250,65162029263,65162029303,65162029309,65162029311,65162029350,65162029363,65841080401,65841080405,65841080406,65841080410,65841080416,65841080430,65841080478,65841080501,65841080505,65841080506,65841080510,65841080516,65841080530,65841080578,65841080601,65841080605,65841080606,65841080610,65841080616,65841080630,65841080678,65862086703,65862086710,65862086803,65862086810,65862086903,65862086910,66105084203,66105084206,66105084209,66105084210,66105084228,67877048205,67877048230,67877048233,67877048284,67877048290,67877048305,67877048330,67877048333,67877048384,67877048390,67877048405,67877048430,67877048433,67877048484,67877048490,68382047101,68382047105,68382047106,68382047110,68382047116,68382047130,68382047178,68382047201,68382047205,68382047206,68382047210,68382047216,68382047230,68382047278,68382047301,68382047305,68382047306,68382047310,68382047316,68382047330,68382047378,68462019901,68462019911,68462019913,68462020001,68462020011,68462020013,68462020101,68462020111,68462020113,69189292101,71209004916,71209004918,71209005016,71209005018,71209005116,71209005118,71335087501,71335087502</t>
+  </si>
+  <si>
+    <t>Eprosartan</t>
+  </si>
+  <si>
+    <t>C09CA02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\83515\</t>
+  </si>
+  <si>
+    <t>RxNorm:83515,261301,310139,310140,374612,389185</t>
+  </si>
+  <si>
+    <t>NDC:00051504401,00051504442,00051504601,00051504642,00074302511,00074304011,00378662805,00378662878,00378662891,00378662905,00378662977,00378662993,31156504601,37731504401,37731504601,54868472000,54868472001,54868472002,54868472003,54868546600,54868546601,57868546600,57868546601,60598010001,60598010101,60598010103,64455013001,64455013101,64455013107</t>
+  </si>
+  <si>
+    <t>olmesartan medoxomil</t>
+  </si>
+  <si>
+    <t>C09CA08</t>
+  </si>
+  <si>
+    <t>DIURETIC</t>
+  </si>
+  <si>
+    <t>High-ceiling diuretics</t>
+  </si>
+  <si>
+    <t>Furosemide</t>
+  </si>
+  <si>
+    <t>C03CA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\FPreparations\4603\</t>
+  </si>
+  <si>
+    <t>RxNorm:4603,95600,104220,197730,197731,197732,199610,200801,200809,204154,205732,248657,251308,252484,282452,310429,313988,372280,372281,545041,561969,630032,630035,645036,727573,727574,727575,727845,1112201,1488537,1546054,1546056,1719285,1719286,1719290,1719291</t>
+  </si>
+  <si>
+    <t>NDC:00005310023,00005310031,00005310060,00005370823,00005370831,00005370860,00005370923,00005370931,00005370934,00005370960,00007034020,00007034025,00007034120,00007034125,00008062804,00010673701,00010673801,00010673901,00024060923,00024060925,00024060940,00024061103,00024061113,00024061150,00025057131,00025057152,00025058131,00025058152,00039005525,00039005625,00039005725,00039006001,00039006003,00039006006,00039006010,00039006011,00039006013,00039006036,00039006050,00039006070,00039006105,00039006108,00039006115,00039006125,00039006145,00039006155,00039006156,00039006157,00039006165,00039006208,00039006306,00039006340,00039006408,00039006508,00039006601,00039006604,00039006605,00039006611,00039006650,00039006670,00039006701,00039006710,00039006711,00039006736,00039006750,00039006770,00039006908,00039016225,00039016325,00039016425,00047044024,00047044032,00047044124,00047044130,00047044224,00047414308,00054329446,00054329450,00054329863,00054429725,00054429731,00054429925,00054429931,00054430125,00054430129,00054829725,00054829816,00054829925,00054830125,00068121501,00068121510,00068121541,00068121561,00068121565,00068121601,00068121610,00068121641,00068121661,00068121665,00068121701,00068121741,00068121750,00068121765,00071044024,00071044032,00071044124,00071044130,00071044140,00071044224,00071414305,00071414308,00071414310,00074127404,00074127414,00074127424,00074127434,00074127502,00074127512,00074127522,00074127532,00074163910,00074605402,00074605504,00074605514,00074605610,00074605617,00074605618,00074605620,00074610102,00074610104,00074610110,00074610202,00074610204,00074610210,00074610211,00074963104,00088006605,00088006650,00102291501,00102292005,00106122030,00106122099,00117127502,00117127503,00117127504,00117127505,00117127602,00117127603,00117127604,00117127605,00117127660,00117127702,00117127704,00143124901,00143124910,00143124925,00143125001,00143125010,00143125025,00143125325,00150148040,00150148060,00150148160,00150148180,00157068801,00157068810,00157068901,00157068910,00166092815,00172290700,00172290710,00172290746,00172290749,00172290755,00172290760,00172290770,00172290780,00172290800,00172290810,00172290860,00172290870,00172290880,00179038001,00179038030,00179038060,00179038099,00179038101,00179038112,00179038130,00179038150,00179038160,00179038188,00179038199,00179038201,00179106501,00179137330,00179138401,00179138430,00179138450,00179138460,00179138488,00179196701,00179196730,00179196750,00179196760,00182116101,00182116110,00182116189,00182117001,00182117010,00182117089,00182173601,00182173605,00182173689,00182302863,00182605337,00182605368,00185004010,00186063501,00186063601,00186111003,00186111103,00186111302,00186111413,00186111513,00186111612,00186111712,00223101201,00223101202,00223101301,00223101302,00223770002,00223770102,00223770404,00223770504,00223770710,00223770820,00228220710,00228220750,00228220796,00228220810,00228220850,00228220896,00228220910,00228220950,00247019900,00247019903,00247019904,00247019915,00247019930,00247019960,00247019990,00247054102,00247054104,00247075700,00247075704,00247075706,00247075709,00247075710,00247075720,00247075730,00247075760,00247075790,00247075799,00247163130,00254316905,00254316921,00254316928,00254316932,00254316938,00254316940,00254317005,00254317021,00254317028,00254317031,00254317032,00254317034,00254317038,00254317040,00254317105,00254317121,00254317128,00254317132,00254317135,00254317138,00302310001,00302310005,00302310010,00302310501,00302310801,00302310805,00304013200,00304013300,00308642030,00308642099,00308643030,00308643099,00314051070,00349233700,00349233701,00349233710,00349233722,00349233798,00349233900,00349233901,00349233910,00349233922,00349233998,00349835300,00349835301,00349835305,00349835310,00349835398,00349848601,00349848610,00364051401,00364051402,00364051490,00364056801,00364056802,00364056890,00364070001,00364070005,00364070090,00364676354,00364676365,00368105901,00368105910,00368105950,00368106210,00378015101,00378015110,00378020801,00378020805,00378020810,00378020893,00378021601,00378021605,00378021610,00378021693,00378023201,00378023205,00378023293,00381019902,00381019910,00385212710,00405283256,00405445201,00405445203,00405445301,00405445303,00405445401,00405445402,00409127532,00409163910,00409163921,00409605514,00409605617,00409605618,00409610102,00409610104,00409610110,00409610202,00409610204,00409610210,00409610218,00409610219,00409610220,00409610225,00409610226,00409610227,00409610235,00409610236,00409610237,00409963104,00409963114,00418036102,00426861304,00426861360,00440755510,00440755520,00440755530,00440755590,00440755594,00440755607,00440755630,00440755660,00440755690,00440755692,00440755694,00463111710,00463610210,00463628310,00467128001,00467128025,00467328025,00467780225,00469028025,00469128025,00469328025,00469750010,00469750030,00469750070,00517570225,00517570401,00517570425,00517571001,00517571025,00527100501,00527100505,00527100510,00527100801,00527100805,00527100810,00536070996,00536383501,00536383505,00536384001,00536384005,00536384010,00536384101,00536384105,00536384110,00548142900,00548143000,00548143100,00548143800,00548143900,00548143901,00548144000,00551017110,00551017210,00555016902,00555016904,00555016905,00555017002,00555017004,00555017005,00555019602,00555019604,00556025901,00556025905,00556025910,00556037810,00580054301,00580054310,00580054401,00580054410,00591030001,00591030010,00591030101,00591030110,00591030201,00591030205,00591343601,00591343610,00591343701,00591343710,00591343801,00591343805,00591343810,00591557501,00591557504,00591557601,00591557603,00603125052,00603373621,00603373632,00603373732,00603373821,00603373828,00603373910,00603373921,00603373932,00603373934,00603374010,00603374021,00603374032,00603374034,00603374102,00603374104,00603374110,00603374121,00603374128,00603374132,00615044601,00615044605,00615044610,00615044613,00615044614,00615044630,00615044631,00615044639,00615044643,00615044653,00615044663,00615156901,00615156905,00615156910,00615156913,00615156914,00615156930,00615156931,00615156939,00615156943,00615156953,00615156963,00615157113,00615157114,00615157131,00615157139,00615157143,00615157153,00615157163,00615793705,00615793707,00615793714,00615793728,00615793730,00615793739,00615793805,00615793807,00615793814,00615793828,00615793830,00615793839,00615795739,00641038225,00641142535,00641142635,00641142735,00641231125,00641231225,00642002210,00642002211,00642002411,00659130430,00659130460,00677065900,00677065901,00677065910,00677066201,00677066210,00677097601,00677114121,00677142325,00686007220,00686007320,00686020801,00686021601,00686023201,00686052720,00686570225,00686570425,00686571025,00719136410,00719136413,00719136510,00719136513,00719136610,00779045325,00779045330,00779045425,00779045430,00779045525,00779045527,00781144600,00781144601,00781144605,00781144613,00781181800,00781181801,00781181805,00781181810,00781181813,00781196600,00781196601,00781196605,00781196610,00781196613,00781196660,00781630202,00814330014,00814330028,00814330030,00814330114,00814330128,00814330130,00814330314,00814330328,00814330635,00832038213,00832038313,00832861304,00832861360,00839632306,00839632316,00839634506,00839634516,00839667730,00839677706,00839677712,00839743164,00839769712,00839778206,00839778216,00839778306,00839778316,00859237001,00859237002,00894641901,00894641902,00894641903,00894641904,00904147703,00904147720,00904148060,00904148061,00904148080,00904148140,00904148146,00904148152,00904148160,00904148161,00904148180,00904148189,00904148240,00904148260,00904148261,00904148510,00904158046,00904158060,00904158061,00904158080,00904158089,00904579661,00904579761,00904579861,00904579961,00917084710,10019001076,10544013130,10544013190,10544058430,10544058490,10797057004,10797057104,10797070404,10892019910,11098006105,11098006108,11098006115,11098006145,11098006165,11098016225,11098016325,11098016425,11695007301,11695007405,11695007505,11695220301,11819002830,11819002845,11819002890,11819002895,11819014530,11819014590,11819026230,11819026290,11819026295,11819028830,11819028890,11819035090,11845080304,11845081404,12071032201,12071032210,12071032301,12071032310,12071043301,12634041600,12634041601,12634041609,12634041612,12634041618,12634041640,12634041642,12634041645,12634041650,12634041652,12634041654,12634041657,12634041659,12634041660,12634041661,12634041663,12634041666,12634041667,12634041669,12634041671,12634041674,12634041678,12634041679,12634041680,12634041681,12634041682,12634041684,12634041685,12634041690,12634041691,12634041692,12634041693,12634041694,12634041695,12634041696,12634041697,12634041698,12634041699,12634053300,12634053301,12634053309,12634053312,12634053318,12634053340,12634053342,12634053345,12634053350,12634053352,12634053354,12634053357,12634053359,12634053360,12634053361,12634053363,12634053366,12634053367,12634053369,12634053371,12634053374,12634053378,12634053379,12634053380,12634053381,12634053382,12634053384,12634053385,12634053390,12634053391,12634053392,12634053393,12634053394,12634053395,12634053396,12634053397,12634053398,12634053399,13411034203,13411034210,13411034303,13411034310,13411034403,13985030360,13985058110,13985058550,13985058612,16590028415,16590028420,16590028430,16590028460,16590028490,16590044214,17236027501,17236027510,17236029001,17236029010,17236031101,17236031105,17856329801,17856375501,19458028901,19458032201,19458038501,19458042501,21695049000,21695049007,21695049010,21695049030,21695049090,21695049100,21695049130,21695049190,21695072125,23155047331,23155047332,23155047333,23155047341,23155047342,23155047343,23155047344,23155047345,23155052131,23155052132,23155052133,23155052141,23155052142,23155052143,23155052144,23155052145,23490062103,23490062106,23490062109,23490062203,23490062205,23490062206,23490062209,23490111403,23490290700,23490290800,23490562102,23490562201,23490562202,23490562203,23490562204,23490562301,23490562302,23490562403,24200082048,24200082069,24236005902,24236042702,24236044102,24236073702,24236073719,24236073720,29965019902,29965019904,29965019910,30698006001,30698006010,30698006050,30698006605,30698006650,30698006701,30698006710,33261017400,33261017408,33261017414,33261017420,33261017430,33261017460,33261017490,33261037400,33261037402,33261037407,33261037414,33261037420,33261037421,33261037428,33261037430,33261037440,33261037460,33261037490,33358014901,33358014920,33358014930,33358015030,33358015040,33358015130,35356087330,35356087360,35356087390,35356092030,35356092060,35356092090,35470020801,35470020809,35470020901,35470021601,35470021609,36000006301,36000006305,36000006401,36000006405,36000006501,36000006505,36000028225,36000028325,36000028425,38245041310,38245041320,38245041350,38245041410,38245041420,38245041450,38245041510,38245041550,42708002630,42708012330,43036007514,43063007501,43063007504,43063007510,43063007514,43063007530,43063007560,43063007590,43063041601,43063041630,43063041679,43063041690,43063070221,43063070230,43063070260,43063070279,43063070290,43063071601,43063071630,43063071660,43063071690,43063080621,43063080630,43063080690,43063084921,43063084930,43063084960,43063084990,43353001830,43353001845,43353001853,43353001860,43353001880,43353006909,43353006930,43353006945,43353006953,43353006960,43353006980,43353022030,43353022045,43353022053,43353022060,43353022080,43353022092,43353022130,43353022145,43353022153,43353022160,43353022180,43353022192,43353022194,43353034130,43353034145,43353034153,43353034160,43353034180,43353037560,43353073730,43353073745,43353073753,43353073760,43353073780,43353073792,43353073794,43353074730,43353074745,43353074753,43353074760,43353074780,43353074792,43547040110,43547040111,43547040151,43547040210,43547040211,43547040251,43547040310,43547040311,43547040350,43683012930,43797002812,43797037006,44514037688,44514037690,46193062401,46193062405,46193062410,46193062501,46193062510,46703004001,46703004010,46703004201,46703004210,46703007701,46703007705,47202231401,47202231402,47202231403,47202235401,47202235403,47202249401,47202249402,47679045001,47679045004,47679045035,47679045101,47679045104,47679045135,47679053801,47679053803,47679053835,47837000101,47837000110,47837000201,47837000210,48433031401,48433031410,49349005402,49349008502,49349033902,49349033919,49349033920,49349053630,49349056620,49349056630,49349058602,49349058620,49648013200,49648013300,49648099901,49648099905,49727025505,49999003000,49999003010,49999003030,49999003060,49999003090,49999014930,49999017910,49999017930,49999017940,49999017960,49999017990,49999022530,49999022560,49999025560,50090015000,50090015001,50090015100,50090015101,50090015107,50090015108,50090015200,50090015201,50090015207,50090015208,50090015300,50090015301,50090015302,50090015303,50090015309,50090015400,50090015401,50090015402,50090015403,50090015409,50090166700,50090166701,50090166707,50090166708,50090195300,50090195308,50090218700,50090232300,50090232301,50090232303,50090232309,50090256000,50090256001,50090256007,50090256008,50090271300,50090295100,50090333800,50090333900,50090345501,50090348800,50272019902,50272019910,50436384001,50436384002,50436384003,50436384004,50436384101,50436384102,50436384103,50436384104,50629092121,50742010401,50742010410,50742010501,50742010510,50742010601,50742010605,50752028605,50752028609,50752028705,50752028709,50752028805,50752028808,50989024119,50989026952,50989038952,50989040912,51079007201,51079007217,51079007219,51079007220,51079007224,51079007230,51079007240,51079007256,51079007257,51079007260,51079007301,51079007317,51079007319,51079007320,51079007324,51079007330,51079007340,51079007350,51079007356,51079007357,51079007360,51079007390,51079052701,51079052717,51079052719,51079052720,51129005701,51129005801,51129005901,51129006001,51129116101,51129127501,51129128101,51129138901,51129147401,51129175601,51129199101,51129224101,51129260301,51129277801,51129287701,51129287702,51129340401,51129340402,51129364801,51129364802,51129368901,51129368902,51129376301,51129376302,51129380601,51129380602,51129381601,51129381602,51129410801,51129410802,51129412001,51129412002,51129423101,51129423102,51138007130,51138007230,51138007330,51138014830,51138014930,51138015030,51203013801,51203013803,51203013810,51203013901,51203013903,51203013910,51407011301,51407011310,51407011351,51407011390,51407011401,51407011410,51407011451,51407011490,51407011501,51407011505,51407011510,51432018603,51432018606,51432018803,51432018806,51432018903,51432066017,51432066018,51608006002,51608006003,51608006702,51655008121,51655008124,51655008125,51655008126,51655008153,51655008172,51655008177,51655008182,51655008183,51655008190,51655019321,51655019324,51655019325,51655019326,51655019360,51655019382,51655019383,51655027224,51655027225,51655027226,51655027283,51660062401,51660062501,51660062605,51662122601,51662122701,51813009030,51813009099,51813009130,51813009199,51813021130,51813021199,52125004502,52125016302,52125046602,52125053002,52125053020,52125053102,52125053120,52213008121,52213008124,52213008125,52213008126,52213008182,52213019324,52213019325,52213019326,52213019382,52213027224,52213027225,52213027226,52347384101,52446019421,52446019432,52446019732,52474090504,52493062601,52493062630,52493062660,52493065530,52493065630,52544030001,52544030005,52544030010,52544030030,52544030101,52544030105,52544030110,52544030119,52544030130,52544030150,52544030160,52544030201,52544030205,52544030250,52544031101,52544031105,52544031110,52584005210,52584010202,52584010204,52584010210,52584070225,52584070425,52637001010,52728005195,52728005294,52728017093,52959049900,52959049930,52959075100,52959075115,52959075130,52985007201,53002043000,53002043020,53002043030,53002043050,53002043090,53002430000,53002430003,53217018200,53217018230,53217018260,53217018290,53217018299,53217027100,53217027108,53217027114,53217027120,53217027130,53217027160,53217027190,53258012913,53258022013,53261006020,53261006030,53261006720,53261006730,53261090701,53261090730,53467006000,53467006003,53467016900,53489012101,53489012110,53489012201,53489012210,53492302101,53492302102,53492302103,53492302201,53492302202,53492302203,53492302204,53506070530,53506073330,53633026010,53808036701,53808067101,53808083901,53808099801,53839011330,53978004210,53978004310,53978092703,53978303207,53978503103,53978503201,53978503203,53978503207,54124016902,54269011401,54269011501,54348013120,54348013130,54348013330,54348013340,54441005701,54441005705,54441005710,54441005725,54441005750,54569057000,54569057001,54569057117,54569057150,54569057200,54569057201,54569057202,54569057207,54569057208,54569057300,54569057317,54569057350,54569057400,54569057401,54569057402,54569057403,54569057406,54569057407,54569057409,54569230600,54569359000,54569852300,54569852301,54569855700,54697001401,54697001402,54697001403,54697001404,54697001405,54868005700,54868005703,54868005704,54868005705,54868005706,54868005707,54868005708,54868005800,54868005802,54868005803,54868005804,54868005805,54868005806,54868005808,54868005809,54868078800,54868078801,54868078802,54868078803,54868218000,54868218001,54868218002,54868218003,54868218800,54868218801,54868229900,54868364500,54868499800,55045121700,55045121702,55045121703,55045121705,55045121706,55045121707,55045121708,55045121709,55045155300,55045155301,55045155302,55045155303,55045155304,55045155309,55045220001,55045220006,55045220008,55048023230,55048023290,55048023330,55048023360,55048023390,55048023430,55154149800,55154236405,55154236408,55154236505,55154236507,55154239105,55154239108,55154339600,55154344709,55154445205,55154472708,55154475100,55154490600,55154490607,55154490800,55154490807,55154490900,55154490907,55154491505,55154491507,55154520100,55154520107,55154547700,55154547707,55154553900,55154553907,55154554000,55154554007,55154570105,55154570107,55154570405,55154570407,55154570505,55154570507,55154580300,55154580307,55154587500,55154615600,55154627109,55154627509,55154628009,55154632800,55154632803,55154632809,55154633000,55154633009,55154682500,55154783005,55160015101,55160015110,55160015201,55160015210,55160015301,55160015305,55288125101,55289011801,55289011804,55289011810,55289011812,55289011814,55289011830,55289011860,55289011890,55289011897,55289059301,55289059306,55289059330,55289059390,55289059397,55370051409,55370051507,55370051509,55648075901,55648075902,55648075903,55648075904,55648075905,55648075907,55648075908,55700045230,55700045290,55700046130,55700046160,55700046190,55700054630,55700054690,55829026510,55829026610,55829026710,55887057401,55887057430,55887057460,55887057490,55887097830,55887097860,55887097890,55887099701,55887099714,55887099715,55887099730,55887099760,55887099790,55982001001,55982001101,55983062101,55983064601,57319044815,57319044915,57319045005,57451501201,57451501202,57451501203,57451501204,57451501301,57451501302,57451501303,57451501304,57451501401,57451501402,57451501403,57451501404,57451501405,57480032801,57480032806,57480032901,57480032906,57480033001,57480033006,57866383500,57866383501,57866384001,57866384002,57866384003,57866384100,57866384101,57866384102,57866384103,57866384105,57926046330,57926046431,57926046501,58016053800,58016053801,58016053802,58016053803,58016053804,58016053805,58016053806,58016053807,58016053808,58016053809,58016053810,58016053812,58016053814,58016053815,58016053816,58016053818,58016053820,58016053821,58016053824,58016053825,58016053827,58016053828,58016053830,58016053832,58016053835,58016053836,58016053840,58016053842,58016053844,58016053845,58016053848,58016053850,58016053856,58016053860,58016053867,58016053869,58016053870,58016053871,58016053872,58016053873,58016053875,58016053876,58016053877,58016053879,58016053880,58016053881,58016053882,58016053883,58016053884,58016053887,58016053889,58016053890,58016053891,58016053892,58016053893,58016053896,58016053897,58016053898,58016053899,58016053900,58016053901,58016053902,58016053903,58016053904,58016053905,58016053906,58016053907,58016053908,58016053909,58016053910,58016053912,58016053914,58016053915,58016053916,58016053918,58016053920,58016053921,58016053924,58016053925,58016053926,58016053927,58016053928,58016053930,58016053932,58016053935,58016053936,58016053940,58016053942,58016053944,58016053945,58016053948,58016053950,58016053956,58016053960,58016053967,58016053969,58016053970,58016053971,58016053972,58016053973,58016053975,58016053976,58016053977,58016053979,58016053980,58016053981,58016053982,58016053983,58016053984,58016053987,58016053989,58016053990,58016053991,58016053992,58016053993,58016053996,58016053997,58016053998,58016053999,58016057600,58016057601,58016057602,58016057603,58016057604,58016057605,58016057606,58016057607,58016057608,58016057609,58016057610,58016057612,58016057614,58016057615,58016057616,58016057618,58016057620,58016057621,58016057624,58016057625,58016057626,58016057627,58016057628,58016057630,58016057632,58016057635,58016057636,58016057640,58016057642,58016057644,58016057645,58016057648,58016057650,58016057656,58016057660,58016057667,58016057669,58016057670,58016057671,58016057672,58016057673,58016057675,58016057676,58016057677,58016057679,58016057680,58016057681,58016057682,58016057683,58016057684,58016057687,58016057689,58016057690,58016057691,58016057692,58016057693,58016057696,58016057697,58016057698,58016057699,58056013510,58056013610,58056013613,58087003130,58118004808,58118004908,58118014308,58118014408,58118374100,58118374103,58118374108,58118374109,58118429700,58118429703,58118429708,58118429709,58118429900,58118429903,58118429908,58118429909,58517040030,58829030360,58864022001,58864022030,58864022090,58864022130,58864022160,58864022190,60168062201,60168062203,60168062401,60168062403,60346048710,60346048730,60346048759,60346048760,60346048762,60346048790,60346048794,60429007818,60429007890,60429007990,60432061304,60432061360,60491035901,60491035905,60491035960,60491035968,60491036001,60491036060,60491036068,60491036130,60491036134,60491036150,60760021690,60760021790,60760062430,60760062460,60760062490,60760062498,60760062530,60760062560,60760062590,60760062598,60760070890,60809013355,60809013372,60809013455,60809013472,60809016055,60809016072,61392025315,61392025323,61392025325,61392025330,61392025331,61392025332,61392025339,61392025345,61392025351,61392025354,61392025356,61392025360,61392025365,61392025390,61392025391,61392025395,61392025423,61392025425,61392025430,61392025431,61392025432,61392025439,61392025445,61392025451,61392025454,61392025460,61392025465,61392025490,61392025491,61392025495,61392025615,61392025623,61392025625,61392025630,61392025631,61392025632,61392025639,61392025645,61392025651,61392025654,61392025656,61392025660,61392025665,61392025690,61392025691,61392025695,61786021308,61786022720,61786027502,61786027519,61786027520,61786036402,61786036419,61786057920,61919025530,61919028430,61919028490,61919044230,61919044290,62540116108,62540117008,62540290701,62540290703,62540290801,62540290803,62584006000,62584006090,62584006700,62584037745,62584070901,62584070933,62584071001,62584071101,62584071133,63187009730,63187043790,63187050630,63187050660,63187050690,63187051730,63187051760,63187051790,63187073910,63187073930,63187073960,63187073990,63187079030,63187079060,63187079090,63304062401,63304062403,63304062410,63304062469,63304062501,63304062503,63304062510,63304062569,63304062601,63304062603,63304062605,63304062610,63304062669,63323028001,63323028002,63323028003,63323028004,63323028005,63323028010,63323028016,63323028026,63323028036,63629143401,63629143402,63629143403,63629143404,63629143405,63629143406,63629143407,63629143408,63629143501,63629143502,63629143503,63629143504,63629268301,63629268302,63629268303,63629268304,63629268305,63629268306,63629268307,63629268308,63629642301,63629669401,63629669402,63739011101,63739011103,63739011110,63739011115,63739011201,63739011203,63739011210,63739011215,63739011301,63739011303,63739011310,63739011315,63739046405,63739054101,63739054104,63739054110,63739054201,63739054204,63739054210,63739054310,63874035801,63874035802,63874035810,63874035812,63874035814,63874035815,63874035820,63874035821,63874035824,63874035825,63874035828,63874035830,63874035860,63874035890,63874040001,63874040002,63874040010,63874040012,63874040014,63874040015,63874040020,63874040021,63874040030,63874040050,63874040060,63874040090,63874112101,63874112103,64125011601,64125011610,64125011701,64125011710,64125011801,64125011805,64205073930,64205074030,64579004001,64579004025,64579004101,64579004125,64579016301,64579016325,64679075901,64679075902,64679075903,64679075904,64679075905,64679075906,64679075907,64679075908,64679075909,64679075910,64679075911,64679075912,64725014203,64725062401,64725062501,64734006010,64734006050,64734006070,64734006605,64734006650,64734006710,65243026903,65243026906,65243026909,65243026912,65243026918,65243028003,65243028006,65243028009,65243028015,65243028018,66116023630,66116026530,66116026560,66116030130,66116034730,66116037530,66116041930,66267009720,66267009730,66267009740,66267009760,66267009790,66267009792,66267009820,66267009830,66267009840,66267009860,66267009890,66267009892,66267030230,66267030290,66267078706,66267089604,66267089606,66336048710,66336048720,66336048730,66336048790,66336076130,66336076190,66484054000,66484054001,66484054100,66484054101,66484054200,66484054205,67046021907,67046021914,67046021915,67046021920,67046021921,67046021928,67046021930,67046021960,67046022130,67046022230,67046022830,67185046601,67228005603,67228005606,67228005703,67228005706,67228030203,67228030206,67228034103,67228034106,67253054009,67253054010,67253054011,67253054050,67253054109,67253054110,67253054111,67253054209,67253054210,67253054250,67296012001,67296012002,67296024501,67296033101,67296065001,67296120601,67296120603,67296154701,67296154703,67544007530,67544007531,67544007545,67544007553,67544007560,67544007580,67544007592,67544007594,67544022001,67544022030,67544022031,67544022032,67544022045,67544022053,67544022060,67544022080,67544022092,67544022094,67544024430,67544024431,67544024432,67544024445,67544024453,67544024460,67544024480,67544024492,67544056831,67544056860,67544056880,67544064931,67544064960,67544064980,67544066530,67544066531,67544066532,67544066560,67544066630,67544066631,67544066632,67544066645,67544066653,67544066660,67544066680,67544072330,67544072331,67544072332,67544073231,67544073232,67544073331,67544073332,67651005901,67651005905,67651006002,67651006102,67651006105,68071009701,68071013130,68071170801,68071314403,68071314406,68071314409,68071401501,68071434901,68071434903,68071434906,68071434908,68071434909,68071444501,68071444502,68071444503,68071444504,68071444506,68071444508,68071444509,68071452201,68071453401,68084001401,68084001411,68084001485,68084001601,68084001611,68084001685,68084001701,68084001711,68084001780,68084001785,68094074259,68094074262,68094075659,68094075662,68094086759,68094086762,68115014900,68115014906,68115014910,68115014920,68115014930,68115014940,68115014990,68115015020,68115015030,68115015040,68115015060,68115015090,68115015120,68115015130,68115015140,68115015160,68115015190,68258608003,68258608509,68387036503,68387036530,68788044903,68788044906,68788044909,68788196601,68788196603,68788196606,68788196609,68788374003,68788374006,68788374009,68788636701,68788636703,68788636709,68788639701,68788639703,68788639706,68788639709,68788678401,68788678403,68788678406,68788678409,68788694801,68788694803,68788694806,68788694809,68788726501,68788726503,68788726506,68788726509,68788922601,68788922603,68788922606,68788922609,68788977801,68788977803,68788977806,68788977809,68966023205,69043012360,69189025301,69189025305,69315011601,69315011610,69315011701,69315011710,69315011801,69315011805,69677020401,69677020407,69677020430,69677020460,69677020490,69691073901,69959011101,70121107601,70121107605,70121116301,70121116305,70121116401,70121116405,70518005000,70518005001,70518005002,70518005003,70518005004,70518009200,70518012000,70518012001,70518012002,70518025100,70518025101,70518025102,70518025103,70518025104,70518058000,70518058100,70518058400,70518074500,70518074501,70518080900,70518080901,70518080902,70518083600,70518083601,70518095200,70518107200,70518125600,70518125601,70529006108,70529006201,70786011601,70786011602,70786011603,70786011604,70786011701,70786011702,70786011703,70786011704,70786384101,70786384102,70786384103,70786384104,70859002001,71335012901,71335012902,71335012903,71335012904,71335038401,71335038402,71335038403,71335038404,71335038405,71335038406,71335038407,71335038408,71335038409,71335039701,71335039702,71335039703,71335039704,71335039705,71335039706,71335039707,71335039708,71335039709,71335060101,71335060102,71335060103,71335060104,71335060105,71335060106,71335060107,71335060108,71335060109,71335084201,71335084202,71335084203,71335084204,71335084205,71335084206,71335084207,71335084208,71335084209,71335085201,71335085202,71335085203,71335085204,71335085205,71335085206,71335085207,71335085208,71335085209,71610004930,71610004945,71610004953,71610004960,71610004980,71610009630,71610009653,71610009660,71610009680,71872705901,71872712701,76237016130,76237016136,76237016230,76237016236,76237016330</t>
+  </si>
+  <si>
+    <t>Bumetanide</t>
+  </si>
+  <si>
+    <t>C03CA02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\BPreparations\1808\</t>
+  </si>
+  <si>
+    <t>RxNorm:1808,104222,197417,197418,197419,205488,205489,205490,250660,282486,371157,371158,374368,404018,1727568,1727569,1727572</t>
+  </si>
+  <si>
+    <t>NDC:00004012101,00004012103,00004012105,00004012111,00004012114,00004012149,00004012157,00004012199,00004012501,00004012503,00004012505,00004012511,00004012514,00004012549,00004012557,00004016201,00004016207,00004016211,00004194401,00004194406,00004196801,00004196901,00004197001,00024101210,00074141204,00074141210,00074141214,00093423201,00093423301,00093423310,00093423401,00093423410,00172423246,00172423260,00172423270,00172423280,00172423346,00172423360,00172423370,00172423380,00172423443,00172423446,00172423460,00172423470,00172423480,00182261589,00182261689,00182261789,00185012801,00185012805,00185012901,00185012905,00185013001,00185013005,00247143803,00247143810,00378024501,00378037001,00378037801,00378041701,00409141204,00409141210,00409141249,00409141250,00536337401,00536337501,00536337601,00603251621,00603251721,00603251821,00615453631,00615453639,00615453643,00615453653,00615453663,00615454153,00615454163,00615553431,00615553439,00641600701,00641600710,00641600801,00641600810,00641616101,00641616110,00641616201,00641616210,00703050602,00703050610,00703050645,00703506201,00703506203,00703506301,00703506303,00703506401,00703506403,00781182101,00781182201,00781182301,00832054011,00832054110,00832054111,00832054210,00832054211,00839801106,00839801206,00839801306,00904510260,00904510360,00904510440,00904510460,10019050602,10019050610,10019050636,10019050637,10019050639,10019050645,10130050002,10130050005,10130050010,10544072301,13411025610,13411025810,13411026010,13411030703,13411044903,16714083101,16714083201,16714083202,16714083301,16714083302,17236087001,17236087005,17236087101,17236087105,17236087201,23490936103,23490936203,30698063001,30698063101,30698063105,30698063201,30698063205,33261098300,33261098330,33261098360,33261098390,35356090230,35356090260,35356090290,35356091230,35356091260,35356091290,35356098830,35356098860,35356098890,42291017801,42291017901,42291017910,42291018001,42291018010,42799011901,42799012001,42799012002,42799012101,42799012102,42991018001,43353028809,43353029216,43353029251,44291017801,44291017910,44291018010,50436012901,50436423301,50436423401,51079089101,51079089120,51079089201,51079089217,51079089219,51079089220,51079089301,51079089320,51129133701,51129138301,51129239501,51129729201,51138023930,51138024030,51138024115,51138024120,51138024130,53978024103,53978024109,53978203509,53978316307,53978338609,54569050300,54569050301,54569050303,54569198801,54569467600,54868129300,54868129301,54868376400,54868376401,54868376402,54868376403,54868376500,54868435200,54868435201,54868435202,54868435203,54868435204,54868435205,55045266608,55045269908,55045355401,55154035007,55154035805,55154285105,55154310307,55154472508,55154472808,55154473305,55154548900,55289042715,55390050002,55390050005,55390050010,55390050102,55390050105,55390050110,55887035330,57866606901,58056028301,58056028401,58056033810,60491009101,60491009160,60491009168,60491009201,60491009260,60491009268,60687038425,60687038495,60760044630,60760044730,61392004825,61392004830,61392004831,61392004832,61392004839,61392004845,61392004851,61392004854,61392004856,61392004860,61392004865,61392004890,61392004891,61392004895,61392004925,61392004930,61392004931,61392004932,61392004939,61392004945,61392004951,61392004954,61392004956,61392004960,61392004965,61392004990,61392004991,61392004995,61392005025,61392005030,61392005031,61392005032,61392005039,61392005045,61392005051,61392005054,61392005056,61392005060,61392005065,61392005090,61392005091,61392005095,62584012100,62584012500,62584016200,63629496801,63629496802,63629496803,63629496804,63629744001,63629744002,64579036001,64579036010,64579036101,64579036110,65084015210,65084016110,65084016210,68071043881,68071201909,68071302303,68071302306,68071302309,68071312803,68071312806,68071312809,68071433003,68071433006,68071433009,68071435003,68071435006,68151008708,68151174408,68258605403,68258606103,68382052501,68382052505,68382052506,68382052510,68382052516,68382052601,68382052605,68382052606,68382052610,68382052616,68382052701,68382052705,68382052706,68382052710,68382052716,69189034601,69189036201,69189423301,69189423401,69238148901,69238148905,69238149001,69238149005,69238149101,69238149105,70702000150,70702000250,70771102400,70771102401,70771102403,70771102405,70771102409,70771102500,70771102501,70771102503,70771102505,70771102509,70771102600,70771102601,70771102603,70771102605,70771102609,70786012001,70786012901,70786013001,71335001601,71335001602,71335001603,71335001604</t>
+  </si>
+  <si>
+    <t>Piretanide</t>
+  </si>
+  <si>
+    <t>C03CA03</t>
+  </si>
+  <si>
+    <t>Torasemide</t>
+  </si>
+  <si>
+    <t>C03CA04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\38413\</t>
+  </si>
+  <si>
+    <t>RxNorm:38413,132604,198369,198370,198371,198372,208076,208078,208080,208081,208082,250044,374168,876422,1729520,1729521,1729523,1729527,1729528</t>
+  </si>
+  <si>
+    <t>NDC:00004026201,00004026249,00004026301,00004026349,00004026401,00004026449,00004026501,00004026549,00004026706,00004026806,00037350001,00037350501,00037351001,00037352001,00037500101,00037500501,00037501001,00037502001,00054007525,00054007620,00054007625,00054007720,00054007725,00054007729,00074235502,00074235505,00093712701,00093712801,00093712901,00093712905,00093713001,00247209000,00247209010,00247209015,00247209030,00247209060,00480712701,00480712801,00480712901,00480712905,00480713001,00517077001,00517077010,00517077101,00517077110,00603613410,00603613421,00603613432,00603613510,00603613521,00603613532,00603613610,00603613621,00603613628,00603613632,00603613710,00603613721,00603613732,00615557531,00615557539,00615557553,00615557563,00615799739,11722091599,11722091699,11722091799,11722091899,14288007525,14288007620,14288007625,14288007720,14288007725,14288007729,23490149700,23490149701,23490149703,23490149705,23490149706,23490149709,26053033201,26053033301,31722052901,31722052905,31722053001,31722053005,31722053101,31722053105,31722053201,31722053205,33261068102,33261068107,33261068114,33261068120,33261068121,33261068128,33261068130,33261068160,33261068190,42291081690,42291081790,42291081890,42291081990,43353031516,49856023201,49856023202,49856023301,49856023302,49856023401,49856023402,49856023501,49856023502,49884010601,49884010605,49884010701,49884010705,49884010801,49884010805,49884010901,49884010905,49884065101,49884065110,49884065201,49884065210,49884065301,49884065310,49884065401,49884065410,49884090109,50111091501,50111091601,50111091701,50111091703,50111091801,50111091803,50268075411,50268075415,50268075511,50268075515,50268075611,50268075615,50268075711,50268075715,51079002501,51079002520,51079002601,51079002620,51079002694,51129333601,51129333602,51129369001,51129369002,51129371301,51129371302,51129390201,51129390202,51129393601,51129393602,51138056930,51138057030,51138057115,51138057130,51138057210,51138057215,51138057230,52584077001,52584077010,52584077101,52584077110,53169010201,53169010260,53169010301,53169010360,53169010401,53169010460,53169010501,53169010560,53169010880,53169010881,54569443900,54738093901,54738094001,54738094003,54738094101,54868123400,54868123401,54868123402,54868123403,54868383500,54868468700,54868468701,54868468702,54868468703,54868518000,54868518001,54868518002,54868518003,54868518004,54868518005,54868604800,54868604801,55154040405,55154040407,55154040500,55154040607,55154311500,55154312005,55154505700,55154566700,55154576602,55154576608,55154576700,55887032130,55887087430,55887087490,57237013801,57237013901,57237014001,57237014101,57664076108,57664076118,57664076183,57664076188,57664076208,57664076218,57664076283,57664076288,57664076308,57664076313,57664076318,57664076383,57664076388,57664076408,57664076418,57664076483,57664076488,59762170001,59762170101,59762170201,59762170301,60505023201,60505023202,60505023203,60505023301,60505023302,60505023401,60505023402,60505023501,60505023502,61392041125,61392041130,61392078025,61392078030,61392078031,61392078039,62540712701,62540712801,62540712901,62540713001,62756076108,62756076118,62756076183,62756076188,62756076208,62756076218,62756076283,62756076288,62756076308,62756076313,62756076318,62756076383,62756076388,62756076408,62756076418,62756076483,62756076488,63629134601,63629134602,63629447501,63739033010,63739033015,63739033110,63739033115,64579032201,64579032210,65862012501,65862012571,65862012599,65862012601,65862012645,65862012699,65862012701,65862012739,65862012799,65862012801,65862012826,65862012899,65977502900,65977502901,65977503000,65977503001,65977503100,65977503101,65977503200,65977503201,67544074131,68084053901,68084053911,68151294600,68151294808,68151294900,68788091703,68788091706,68788091709,69189047901,69189053001,69189053101,71335029701,71335029702</t>
+  </si>
+  <si>
+    <t>Furosemide and potassium</t>
+  </si>
+  <si>
+    <t>C03CB01</t>
+  </si>
+  <si>
+    <t>Bumetanide and potassium</t>
+  </si>
+  <si>
+    <t>C03CB02</t>
+  </si>
+  <si>
+    <t>Etacrynic acid</t>
+  </si>
+  <si>
+    <t>C03CC01</t>
+  </si>
+  <si>
+    <t>COAGB</t>
+  </si>
+  <si>
+    <t>Antithrombotic agents</t>
+  </si>
+  <si>
+    <t>Dicoumarol</t>
+  </si>
+  <si>
+    <t>B01AA01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\1598\</t>
+  </si>
+  <si>
+    <t>RxNorm:1598,197597,371810</t>
+  </si>
+  <si>
+    <t>NDC:00074379401,00074379406</t>
+  </si>
+  <si>
+    <t>Warfarin</t>
+  </si>
+  <si>
+    <t>B01AA03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\WPreparations\11289\</t>
+  </si>
+  <si>
+    <t>RxNorm:11289,198349,209081,209082,209083,209084,209086,209087,209088,212123,212124,313732,313733,313734,313735,313737,313738,313739,314279,314280,374319,374320,389189,404141,404142,404143,404144,404146,404147,404148,404259,404260,540217,855288,855290,855292,855296,855298,855300,855302,855304,855306,855308,855312,855314,855316,855318,855320,855322,855324,855326,855328,855332,855334,855336,855338,855340,855342,855344,855346,855348,855350</t>
+  </si>
+  <si>
+    <t>NDC:00056016801,00056016870,00056016875,00056016890,00056016901,00056016910,00056016970,00056016975,00056016990,00056017001,00056017011,00056017030,00056017070,00056017075,00056017090,00056017170,00056017175,00056017190,00056017201,00056017210,00056017230,00056017270,00056017275,00056017290,00056017301,00056017370,00056017375,00056017401,00056017470,00056017475,00056017601,00056017610,00056017630,00056017670,00056017675,00056017690,00056018801,00056018810,00056018870,00056018875,00056018890,00056018901,00056018970,00056018975,00056018990,00059032435,00074662603,00074662607,00074663803,00074663807,00074720201,00074720205,00074721001,00074721005,00074721009,00074721801,00074721805,00085016875,00093014301,00093014401,00093014501,00093014510,00093171201,00093171210,00093171301,00093171310,00093171401,00093171410,00093171501,00093171601,00093171610,00093171801,00093171901,00093172001,00093172101,00093172110,00093172301,00094014501,00094014510,00094014561,00106143030,00157028301,00157028401,00157028510,00157028601,00157028701,00179019170,00179019270,00179019370,00179019970,00179136401,00179136470,00179136570,00179136650,00179136660,00179136670,00179136690,00179139070,00179139170,00179139270,00179139370,00179139470,00179139570,00179196170,00179196171,00179196172,00179196270,00179196271,00179196272,00179196370,00179196371,00179196372,00179196870,00179196871,00179196872,00179200270,00179200271,00179200272,00182152201,00182152210,00182267101,00182267110,00182267189,00182267201,00182267210,00182267289,00182267301,00182267310,00182267389,00182267401,00182267410,00182267489,00182267501,00182267510,00182267589,00182267601,00182267610,00182267689,00182267701,00182267789,00182267801,00182267889,00182267901,00182267989,00182276301,00223237501,00223237502,00223237601,00223237602,00223237701,00223237702,00223237801,00223237802,00223237901,00223237902,00247152800,00247152830,00247152900,00247152930,00247153000,00247153030,00247153100,00247153130,00247153200,00247153230,00247153300,00247153330,00247153400,00247153430,00247225203,00247225206,00302820001,00302820201,00302820401,00308618030,00308618099,00308620030,00308620099,00339508811,00339508918,00339508930,00339653712,00339653812,00339653912,00339654012,00339654112,00339654212,00339654312,00339654412,00339654512,00349839001,00349839101,00349839201,00364064001,00364064002,00378880101,00378880110,00378880201,00378880210,00378880301,00378880310,00378880401,00378880410,00378880501,00378880510,00378880601,00378880610,00378881001,00378881010,00378882501,00378882510,00378887501,00378887510,00406205201,00406205210,00406205301,00406205310,00406205401,00406205410,00406205501,00406205510,00406205601,00406205610,00406205701,00406205801,00406205901,00406206401,00406206410,00406506410,00527100301,00527100310,00527106401,00527106410,00527107201,00527107210,00555083102,00555083104,00555083105,00555083156,00555083202,00555083204,00555083205,00555083256,00555083302,00555083304,00555083305,00555083356,00555083402,00555083405,00555083456,00555083502,00555083504,00555083556,00555086902,00555086904,00555086905,00555086956,00555087402,00555087405,00555087456,00555092501,00555092502,00555092504,00555092505,00555092556,00555092601,00555092602,00555092604,00555092605,00555092656,00590032435,00590032496,00615150905,00615150929,00615150939,00615151005,00615151029,00615151031,00615151039,00615151205,00615151229,00615151239,00615454729,00615454739,00615454805,00615454829,00615454831,00615454839,00615454905,00615454929,00615454939,00615455029,00615455031,00615455039,00615455129,00677079301,00677079401,00719199310,00719199313,00725004401,00725004410,00725004501,00725004510,00725004601,00725004610,00725004701,00725004710,00725005001,00725005010,00781035207,00781035208,00781036306,00781036307,00781036308,00781036406,00781036407,00781036408,00781036607,00781036608,00781036907,00781036908,00781037704,00781037706,00781037707,00781037708,00781038107,00781038108,00781038607,00781038608,00781038707,00781038708,00814852114,00814852214,00814852230,00832062500,00832062600,00832062700,00832062710,00832062725,00832121100,00832121101,00832121110,00832121166,00832121189,00832121200,00832121201,00832121210,00832121266,00832121289,00832121300,00832121301,00832121306,00832121310,00832121366,00832121389,00832121400,00832121401,00832121410,00832121466,00832121489,00832121500,00832121501,00832121510,00832121566,00832121589,00832121600,00832121601,00832121610,00832121666,00832121689,00832121700,00832121701,00832121710,00832121766,00832121789,00832121800,00832121801,00832121810,00832121850,00832121866,00832121889,00832121900,00832121901,00832121910,00832121950,00832121966,00832121989,00839662606,00839662706,00839662806,00839662906,00839663006,00894556001,00894556002,00894556501,00894556502,00894557001,00894557002,00894557601,00894557602,00894558001,00894558002,00904256060,00904256160,00904256260,00904256270,00904256360,00904256460,10009008401,10544011830,10647017202,11722092199,11722092299,11722092399,11722092499,11722092599,11722092699,11722092799,11722092999,13411033903,15330010001,15330010010,15330010101,15330010110,15330010201,15330010210,15330010601,15330010701,15330010801,15330026601,15330026701,15330026801,15330026810,16590034030,16590034040,16590034060,16590034090,16590034130,16590034160,16590034190,17856017302,17856402902,17856403401,19458044301,19458047101,19458059801,21695067230,21695067330,21695067360,21695067430,21695067530,21695067730,21695080130,21695093930,21695094030,23490083305,23490141903,23490141909,23490142003,23490142009,23490142203,23490142206,23490142209,23490647801,23490647802,23490647803,23490648001,23490648002,23490648003,23490648101,23490648102,23490648103,23490648201,23490648202,23490648203,23490648301,23490648302,23490648303,23490648401,23490648402,23490648403,24236022802,24236026002,24236026020,24236027302,24236032102,24236034802,24236035302,24236035320,24236048802,24236056402,24236069302,24236080902,24236080920,24236084702,24236087202,26053036301,26053036401,26053036501,31722032701,31722032710,31722032801,31722032810,31722032901,31722032910,31722033001,31722033010,31722033101,31722033110,31722033201,31722033210,31722033301,31722033310,31722033401,31722033410,31722033501,31722033510,33261035500,33261035507,33261035514,33261035520,33261035521,33261035528,33261035530,33261035560,33261035590,33261035607,33261035614,33261035620,33261035621,33261035628,33261035630,33261035660,33261035690,33261035707,33261035710,33261035714,33261035720,33261035721,33261035728,33261035730,33261035760,33261035790,33261099000,33261099030,33261099060,33261099090,33261099730,33261099760,33261099790,33261099830,33261099860,33261099890,33261099930,33261099960,33261099990,33358036000,33358036130,35356039730,35356039760,35356039790,35356054090,35356057130,35356057160,35356057190,35356058230,35356058260,35356058290,35356090630,35356090660,35356090690,35470053501,42549049630,42549049730,43063017614,43063017630,43063021830,43063047130,43063065530,43353002130,43353002135,43353002140,43353002145,43353002150,43353002153,43353002155,43353002160,43353002161,43353002170,43353002311,43353002315,43353002320,43353002321,43353002325,43353002328,43353002330,43353002335,43353002338,43353002340,43353002344,43353002345,43353002346,43353002347,43353002350,43353002353,43353002355,43353002357,43353002359,43353002360,43353002361,43353002365,43353002368,43353002370,43353002378,43353002830,43353002860,43353002930,43353002935,43353002940,43353002945,43353002953,43353002960,43353003030,43353003060,43353003330,43353004930,43353004960,43353005011,43353005015,43353005020,43353005021,43353005025,43353005028,43353005030,43353005035,43353005038,43353005040,43353005044,43353005045,43353005046,43353005047,43353005050,43353005053,43353005055,43353005057,43353005059,43353005060,43353005061,43353005065,43353005068,43353005070,43353005078,43353005330,43353005430,43353008930,43353008960,43353014230,43353014235,43353014240,43353014245,43353014253,43353014260,43353049130,43353049230,43353049260,43353049330,43353049360,43353049430,43353057809,43353057830,43353057909,43353057930,43353058430,43353058460,43353058730,43683011730,43683011830,49349004102,49349014002,49349034602,49349054202,49349054302,49349055520,49349060502,49349061802,49349062502,49349065802,49349071602,49349071802,49349079620,49349081402,49349082402,49349085202,49349086102,49349090102,49999009330,49999041130,49999057600,49999057610,49999057620,49999057630,49999057660,49999057690,49999082900,49999092310,49999092330,49999092360,49999092390,50090002800,50090067600,50090067601,50090067602,50090100900,50090121200,50090121300,50090128800,50090128900,50090128901,50090134500,50090136100,50090153900,50090175600,50090186100,50090203200,50090203300,50090203400,50090203500,50090203600,50090203700,50090203701,50090203800,50090203900,50090203901,50090203902,50090214100,50090258200,50090258201,50090258600,50090258601,50090261300,50090261700,50090264500,50090264600,50090265400,50090293600,50090311001,50090312000,50111092201,50111092203,50111092210,50111092258,50111092401,50111092403,50111092410,50111092458,50111092501,50111092503,50111092510,50111092558,50111092601,50111092603,50111092610,50111092658,50111092701,50111092703,50111092710,50111092758,50111092801,50111092803,50111092810,50111092858,50111092901,50111092903,50111092910,50111092958,50436635701,50436635801,50436636001,50436636301,50436636401,50436993301,50436994602,51079090820,51079090920,51079091020,51079091320,51079091520,51129181201,51129201801,51129247001,51129254301,51129254801,51129257101,51129267801,51129276101,51129282501,51129282502,51129284001,51129285101,51129285102,51129292001,51129294501,51129294502,51129294601,51129294602,51129302601,51129302602,51129323301,51129323302,51129324801,51129324802,51129382601,51129382602,51129382701,51129382702,51129382901,51129382902,51129385901,51129385902,51129395401,51129395402,51129396801,51129396802,51129396901,51129396902,51138005430,51138005530,51138005630,51138005730,51138005830,51138005930,51138006030,51138006130,51138006230,51138017930,51138018030,51138018060,51138018130,51138018230,51138018330,51138018430,51138018530,51138018630,51138018730,51138019530,51138019630,51138019660,51138019730,51138019830,51138019930,51138020030,51138020130,51138020230,51138020330,51138048210,51138048230,51138048330,51138048410,51138048430,51138048445,51138048510,51138048530,51138048610,51138048630,51138048710,51138048720,51138048730,51138048775,51138048810,51138048830,51138048930,51138049010,51138049030,51432090003,51432090103,51432090203,51432090303,51432090403,51655025124,51655025152,51655025153,51655027882,51655028226,51655028324,51655028326,51655041924,51655078324,51655078352,51655078353,51655078399,51672402700,51672402701,51672402703,51672402707,51672402800,51672402801,51672402803,51672402807,51672402900,51672402901,51672402903,51672402907,51672403000,51672403001,51672403003,51672403007,51672403100,51672403101,51672403103,51672403107,51672403200,51672403201,51672403203,51672403207,51672403300,51672403301,51672403303,51672403307,51672403400,51672403401,51672403403,51672403500,51672403501,51672403503,51728054501,51728054510,51813003730,51813003799,51813003830,51813003899,51813027830,51813027899,52125005302,52125007502,52125007902,52125008002,52125009102,52125009702,52125009902,52125018802,52125018902,52125038502,52125038602,52125038702,52125043202,52125044602,52125044802,52125044902,52125045002,52125045102,52125046702,52125050102,52125057502,52125058102,52125061402,52125062902,52125090602,52125090902,52125091002,52549402701,52549402703,52549402707,52549402801,52549402803,52549402807,52549402901,52549402903,52549402907,52549403001,52549403003,52549403007,52549403101,52549403103,52549403107,52549403201,52549403203,52549403207,52549403301,52549403303,52549403401,52549403403,52549403501,52549403503,52584004401,52584004410,52584004501,52584004510,52584005001,52584005010,52953003801,52953003901,52959092430,52959092530,52959092600,52959092630,52985007101,53002104800,53002104802,53002104803,53002104805,53002104806,53217000100,53217000107,53217000114,53217000130,53217000160,53217000190,53217001807,53217001814,53217001830,53217001860,53217001890,53217021930,53217021960,53217021990,53217023530,53217023560,53217023590,53467017200,53467064000,53467064003,53808033401,53808033501,53808097001,53808098501,53808098901,53808099401,53808099701,53978031403,53978330103,53978330203,54441032401,54441032405,54441032410,54441032425,54441032450,54569015800,54569015801,54569015850,54569015900,54569015901,54569015950,54569021201,54569444300,54569493400,54569493401,54569493402,54569586800,54569586900,54569622400,54569622500,54569631200,54569631300,54569631301,54569639400,54569642700,54569854200,54868082200,54868082500,54868121600,54868125900,54868125901,54868125902,54868125903,54868125904,54868125905,54868125906,54868125907,54868212800,54868212801,54868212802,54868212803,54868212900,54868212901,54868212902,54868212903,54868215400,54868215401,54868215402,54868215403,54868225200,54868225201,54868245400,54868245401,54868245402,54868339900,54868339901,54868339902,54868406300,54868406301,54868428600,54868428601,54868428602,54868428603,54868428604,54868428605,54868434900,54868434901,54868434902,54868434903,54868434904,54868434905,54868440000,54868440001,54868440002,54868440003,54868440004,54868440200,54868440201,54868440202,54868440203,54868442200,54868442201,54868442202,54868442203,54868442204,54868442205,54868487100,54868487101,54868487102,54868487103,54868487300,54868487301,54868487302,54868487303,54868487304,54868495000,54868495001,54868495002,54868495003,54868520700,54868520701,54868525500,54868525501,54868525800,54868542500,55045193608,55045193708,55045193808,55045288000,55045288001,55045288008,55045288100,55045288108,55045290100,55045290108,55045290200,55045290202,55045290208,55045290300,55045329201,55048085630,55048085730,55048085830,55048085930,55154087609,55154087709,55154087809,55154087909,55154088009,55154088309,55154088409,55154561700,55154561800,55154561900,55154562000,55154562100,55154770100,55154770107,55154770200,55154770207,55154770300,55154770307,55154770400,55154770407,55154770600,55154770700,55154770705,55154771600,55154771700,55289014397,55289028601,55289028630,55289028650,55289028697,55289034030,55289077314,55289077330,55289077360,55289077390,55567010000,55567010001,55567010010,55567010100,55567010101,55567010110,55567010118,55567010135,55567010200,55567010201,55567010210,55567010218,55567010235,55567010600,55567010601,55567010610,55567010618,55567010635,55567010700,55567010701,55567010710,55567010718,55567010735,55567010800,55567010801,55567010810,55567010818,55567010835,55567026600,55567026601,55567026610,55567026700,55567026701,55567026710,55567026800,55567026801,55567026810,55587057810,55587057830,55587057845,55587057860,55587057886,55587057890,55700000530,55700000560,55700000590,55887004401,55887004430,55887004460,55887004490,55887026401,55887026430,55887026490,55887046430,55887046490,55887057710,55887057730,55887057760,55887057790,55887057810,55887057830,55887057860,55887057886,55887057890,55887092630,55887092690,57237011901,57237011990,57237011999,57237012001,57237012090,57237012099,57237012101,57237012190,57237012199,57237012201,57237012290,57237012299,57237012301,57237012390,57237012399,57237012401,57237012490,57237012499,57237012501,57237012590,57237012599,57237012601,57237012690,57237012699,57237012701,57237012790,57237012799,57866636001,57866636002,57866636101,57866636201,57866994601,57866994602,58016008300,58016008301,58016008302,58016008303,58016008304,58016008305,58016008306,58016008307,58016008308,58016008309,58016008310,58016008312,58016008314,58016008315,58016008316,58016008318,58016008320,58016008321,58016008324,58016008325,58016008326,58016008327,58016008328,58016008330,58016008332,58016008335,58016008336,58016008340,58016008342,58016008344,58016008345,58016008348,58016008350,58016008356,58016008360,58016008367,58016008369,58016008370,58016008371,58016008372,58016008373,58016008375,58016008376,58016008377,58016008379,58016008380,58016008381,58016008382,58016008383,58016008384,58016008387,58016008389,58016008390,58016008391,58016008392,58016008393,58016008396,58016008397,58016008398,58016008399,58016027700,58016027701,58016027702,58016027703,58016027704,58016027705,58016027706,58016027707,58016027708,58016027709,58016027710,58016027712,58016027714,58016027715,58016027716,58016027718,58016027720,58016027721,58016027724,58016027725,58016027726,58016027727,58016027728,58016027730,58016027732,58016027735,58016027736,58016027740,58016027742,58016027744,58016027745,58016027748,58016027750,58016027756,58016027760,58016027767,58016027769,58016027770,58016027771,58016027772,58016027773,58016027775,58016027776,58016027777,58016027779,58016027780,58016027781,58016027782,58016027783,58016027784,58016027787,58016027789,58016027790,58016027791,58016027792,58016027793,58016027796,58016027797,58016027798,58016027799,58016064800,58016064801,58016064802,58016064803,58016064804,58016064805,58016064806,58016064807,58016064808,58016064809,58016064810,58016064812,58016064814,58016064815,58016064816,58016064818,58016064820,58016064821,58016064824,58016064825,58016064826,58016064827,58016064828,58016064830,58016064832,58016064835,58016064836,58016064840,58016064842,58016064844,58016064845,58016064848,58016064850,58016064856,58016064860,58016064867,58016064869,58016064870,58016064871,58016064872,58016064873,58016064875,58016064876,58016064877,58016064879,58016064880,58016064881,58016064882,58016064883,58016064884,58016064887,58016064889,58016064890,58016064891,58016064892,58016064893,58016064896,58016064897,58016064898,58016064899,58016069700,58016069730,58016069760,58016069790,58016076200,58016078600,58016078701,58016078702,58016078703,58016078704,58016078705,58016078706,58016078707,58016078708,58016078709,58016078710,58016078712,58016078714,58016078715,58016078716,58016078718,58016078720,58016078721,58016078724,58016078725,58016078726,58016078727,58016078728,58016078732,58016078735,58016078736,58016078740,58016078742,58016078744,58016078745,58016078748,58016078750,58016078756,58016078767,58016078769,58016078770,58016078771,58016078772,58016078773,58016078775,58016078776,58016078777,58016078779,58016078780,58016078781,58016078782,58016078783,58016078784,58016078787,58016078789,58016078790,58016078791,58016078792,58016078793,58016078796,58016078797,58016078798,58016078799,58016097100,58016097101,58016097102,58016097103,58016097104,58016097105,58016097106,58016097107,58016097108,58016097109,58016097110,58016097112,58016097114,58016097116,58016097118,58016097120,58016097121,58016097124,58016097125,58016097126,58016097127,58016097128,58016097130,58016097132,58016097135,58016097136,58016097140,58016097142,58016097144,58016097145,58016097148,58016097150,58016097156,58016097160,58016097167,58016097169,58016097170,58016097171,58016097172,58016097173,58016097175,58016097176,58016097177,58016097179,58016097180,58016097181,58016097182,58016097183,58016097184,58016097187,58016097189,58016097190,58016097191,58016097192,58016097193,58016097196,58016097197,58016097198,58016097199,58016097200,58016097201,58016097202,58016097203,58016097204,58016097205,58016097206,58016097207,58016097208,58016097209,58016097210,58016097212,58016097214,58016097216,58016097218,58016097220,58016097221,58016097224,58016097225,58016097226,58016097227,58016097228,58016097230,58016097232,58016097235,58016097236,58016097240,58016097242,58016097244,58016097245,58016097248,58016097250,58016097256,58016097260,58016097267,58016097269,58016097270,58016097271,58016097272,58016097273,58016097275,58016097276,58016097277,58016097279,58016097280,58016097281,58016097282,58016097283,58016097284,58016097287,58016097289,58016097290,58016097291,58016097292,58016097293,58016097296,58016097297,58016097298,58016097299,58118003308,58118004108,58118006008,58118006308,58118006408,58118171508,58118402703,58118402706,58118402708,58118402709,58118402800,58118402803,58118402808,58118402903,58118402906,58118402908,58118402909,58118403003,58118403006,58118403008,58118403009,58118403103,58118403106,58118403108,58118403109,58118403200,58118403203,58118403208,58118403303,58118403306,58118403308,58118403309,58118403403,58118403406,58118403408,58118403409,58118403503,58118403506,58118403508,58118403509,58517036030,58864003014,58864003030,58864003530,58864022314,58864022330,58864030114,58864035715,58864069814,58864069830,58864077315,58864077330,58864087930,59772035204,59772035207,59772035208,59772035270,59772036304,59772036307,59772036308,59772036370,59772036404,59772036407,59772036408,59772036470,59772036607,59772036907,59772036908,59772036970,59772037704,59772037707,59772037708,59772037770,59772038107,59772038607,59772038608,59772038670,59772038707,59772038708,59772038770,60429078401,60429078410,60429078415,60429078430,60429078445,60429078477,60429078501,60429078510,60429078515,60429078530,60429078535,60429078540,60429078545,60429078560,60429078577,60429078590,60429078601,60429078610,60429078615,60429078630,60429078645,60429078677,60429078701,60429078710,60429078715,60429078730,60429078745,60429078777,60429078801,60429078810,60429078815,60429078830,60429078845,60429078877,60429078901,60429078910,60429078915,60429078920,60429078925,60429078930,60429078935,60429078940,60429078945,60429078950,60429078960,60429078975,60429078977,60429078990,60429079001,60429079010,60429079015,60429079030,60429079045,60429079077,60429079101,60429079115,60429079130,60429079145,60429079177,60429079201,60429079210,60429079215,60429079230,60429079245,60429079277,60491016230,60491016234,60491016330,60491016334,60491016430,60491016434,60491016530,60491016534,60760003110,60760003125,60760003130,60760003310,60760003325,60760003330,60760003401,60760003410,60760003425,60760003430,60760004030,60760004130,60760004330,60760012430,60760070630,61392090325,61392090330,61392090331,61392090339,61392090360,61392090365,61392090390,61392090395,61392090423,61392090425,61392090430,61392090431,61392090439,61392090460,61392090465,61392090490,61392090495,61392090523,61392090525,61392090530,61392090531,61392090539,61392090560,61392090565,61392090590,61392090595,61392090625,61392090630,61392090631,61392090639,61392090660,61392090665,61392090690,61392090695,61392090723,61392090725,61392090730,61392090731,61392090739,61392090760,61392090765,61392090790,61392090795,61392090825,61392090830,61392090831,61392090839,61392090860,61392090865,61392090890,61392090895,61392090925,61392090930,61392090931,61392090939,61392090960,61392090965,61392090990,61392090995,61392091125,61392091130,61392091131,61392091139,61392091160,61392091165,61392091190,61392091195,61392092023,61392092025,61392092030,61392092031,61392092039,61392092060,61392092065,61392092090,61392092095,61786034202,61786055302,61786056902,61786057002,61786057102,61786058802,61786059302,61786061502,61786061519,61786062602,61786062619,61919034130,62580499477,62584017250,62584017290,62584034850,62584034950,62584098401,62584098411,62584098477,62584098601,62584099401,62584099411,62584099477,63187067400,63187067410,63187067430,63187067460,63187067490,63187074510,63187074530,63187074560,63187074590,63187075010,63187075030,63187075060,63187075090,63629133601,63629254801,63629254802,63629254803,63629254804,63629254805,63629254806,63629317701,63629317702,63629317703,63629317704,63629317705,63629401701,63629401702,63629401703,63629401704,63629401705,63629401706,63629401707,63629401708,63629412201,63629412202,63629412203,63629412204,63629412205,63629412206,63629412207,63629412208,63629441701,63629441702,63629441703,63629454301,63629454302,63629454303,63629474801,63629474802,63629474803,63629525701,63629634201,63629634202,63629640001,63629640101,63629640102,63629697701,63629697702,63739036101,63739036103,63739036110,63739036115,63739036201,63739036203,63739036210,63739036215,63739036301,63739036303,63739036310,63739036315,63739036401,63739036403,63739036410,63739036415,64205003230,64579002200,64579002201,64579002300,64579002301,64579011000,64579011001,64725005601,64725036303,64725036703,64725083301,65162076110,65162076111,65162076150,65162076210,65162076211,65162076250,65162076310,65162076311,65162076350,65162076410,65162076411,65162076450,65162076510,65162076511,65162076550,65162076610,65162076611,65162076650,65162076710,65162076711,65162076750,65162076810,65162076811,65162076850,65162076910,65162076911,65162076950,65243008303,65243008306,65243008309,65243008345,65243027303,65243027306,65243027309,65243027345,65243027403,65243027406,65243027409,65243027445,65243027503,65243027506,65243027509,65243027545,65243027603,65243027606,65243027609,65243027645,65243027803,65243027806,65243027809,65243027845,65841005201,65841005210,65841005301,65841005310,65841005401,65841005410,65841005501,65841005510,65841005601,65841005610,65841005616,65841005701,65841005710,65841005801,65841005901,65841006401,65841006410,66105011010,66105017070,66105017610,66105051810,66105051910,66105052110,66105052310,66267006310,66267006320,66267006330,66267006340,66267006360,66267016900,66267018900,66267026820,66267026830,66267027730,66267027790,66267028510,66267028515,66267028520,66267028530,66267028540,66267028590,66267030030,66267030130,66267047210,66267047220,66267047230,66267047240,66267047260,66267060000,66267060020,66267060030,66267060040,66267060060,66267060100,66267060120,66267060130,66267060160,66267060190,66267060200,66267060220,66267060230,66267060240,66267060260,66267060300,66267060320,66267060330,66267060360,66267060390,66267060500,66267060520,66267060530,66267060560,66267060590,66267060600,66267060620,66267060630,66267060640,66267060660,66267062800,66267062900,66267063000,66267063100,66267063200,66267063300,66267063400,66267063500,66267063600,66267067230,66267067290,66336024920,66336024930,66336024960,66336025020,66336025030,66336025090,66336025130,66336025160,66336025230,66336025260,66336025290,66336082530,67296128409,67296128501,67296128509,67544005215,67544005220,67544005225,67544005228,67544005230,67544005235,67544005238,67544005240,67544005245,67544005250,67544005253,67544005255,67544005257,67544005260,67544005261,67544005265,67544005268,67544005270,67544005278,67544007030,67544019430,67544019460,67544019530,67544019540,67544019545,67544019553,67544019560,67544031815,67544031830,67544031831,67544031835,67544031840,67544031845,67544031850,67544031853,67544031855,67544031860,67544031861,67544031870,67544040115,67544040130,67544040135,67544040140,67544040145,67544040150,67544040153,67544040155,67544040160,67544040161,67544040170,67544085932,67544086032,67544091719,67544097132,67544099030,68071020230,68071301803,68071301809,68071307303,68071307309,68071438403,68071438409,68071438503,68071438509,68071447903,68080402777,68080414677,68080414877,68084002701,68084002711,68084002777,68084014677,68084014777,68084014877,68084402777,68084414777,68115009413,68115009420,68115009430,68115009440,68115009460,68115035920,68115035930,68115035940,68115035960,68115035990,68115039920,68115039930,68115039940,68115039960,68115039990,68115065900,68258606703,68258606803,68258607609,68258909701,68382005201,68382005210,68382005301,68382005310,68382005401,68382005410,68382005501,68382005510,68382005601,68382005610,68382005616,68382005701,68382005710,68382005801,68382005901,68382006401,68382006410,69189068401,70518025300,70518025301,70518025500,70518026000,70518026001,70518026100,70518026600,70518026601,70518027300,70518027301,70518027302,70518027900,70518028000,70518029900,70518029901,70518072700,70518072701,70518100600,70518146700,70518149200,70786171201,70786171301,70786171401,70786171501,70786171601,70786171801,70786172101,71335024301,71335024302,71335024303,71335024304,71335024305,71335024306,71335027001,71335027002,71335027003,71335027004,71335027005,71335027006,71335027007,71335027008,71335034801,71335034802,71335034803,71335034804,71335034805,71335045201,71335045202,71335045203,71335045204,71335058001,71335058002,71335058003,71335058004,71335063701,71335063702,71335063703,71335063704,71335063705,71335063706,71335063707,71335063708,71335084001,71335084002,71335084003,71610017330,71610017335,71610017340,71610017345,71610017930,76282032701,76282032710,76282032801,76282032810,76282032901,76282032910,76282033001,76282033010,76282033101,76282033110,76282033201,76282033210,76282033301,76282033310,76282033401,76282033501</t>
+  </si>
+  <si>
+    <t>Phenprocoumon</t>
+  </si>
+  <si>
+    <t>B01AA04</t>
+  </si>
+  <si>
+    <t>Acenocoumarol</t>
+  </si>
+  <si>
+    <t>B01AA07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\154\</t>
+  </si>
+  <si>
+    <t>RxNorm:154,246018,246019,370743</t>
+  </si>
+  <si>
+    <t>Tioclomarol</t>
+  </si>
+  <si>
+    <t>B01AA11</t>
+  </si>
+  <si>
+    <t>Heparin</t>
+  </si>
+  <si>
+    <t>B01AB01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\HPreparations\5224\</t>
+  </si>
+  <si>
+    <t>RxNorm:5224,204429,204431,238722,238727,238729,238730,241112,241113,244230,244231,244239,244240,310710,310713,310723,310732,310733,310734,310739,310741,314013,381158,542824,581236,727778,727851,729968,729969,729970,729971,729972,729973,729974,729976,730002,746573,746574,829884,829885,829886,829888,830698,848335,848339,849297,849298,849299,849300,849301,849312,849313,849317,849333,849337,849338,849339,849340,849341,849342,849344,849699,849702,849710,849712,849715,849718,849722,849726,849764,849770,849776,849814,1241815,1241823,1245688,1313142,1359733,1359900,1359967,1360012,1360432,1361029,1361038,1361048,1361226,1361568,1361574,1361577,1361607,1361613,1361615,1361853,1362024,1362026,1362027,1362029,1362030,1362048,1362052,1362054,1362055,1362057,1362059,1362060,1362061,1362062,1362063,1362065,1362067,1362824,1362831,1362837,1362935,1362962,1490491,1490493,1656595,1656599,1656760,1658634,1658637,1658647,1658659,1658690,1658692,1658707,1658717,1658719,1658720,1659195,1659197,1659260,1659263,1798389,1856275,1856278,1857598,1857949</t>
+  </si>
+  <si>
+    <t>NDC:00002721601,00002721701,00002721801,00002721901,00003296320,00008027501,00008027502,00008027601,00008027701,00008027801,00008027802,00008048701,00008048703,00008048750,00008048751,00008052301,00008052302,00008052350,00008052351,00008252801,00008252802,00008252803,00008252850,00008252851,00008252852,00008252901,00008252902,00008252903,00008252950,00008252951,00008252952,00009026801,00009026802,00009026807,00009026812,00009029101,00009029102,00009031701,00009031702,00009031708,00009031709,00009031710,00009031711,00024072101,00024072102,00024072112,00024072113,00024072114,00024072115,00024072116,00024072117,00024072118,00024072120,00024072132,00024072134,00024072199,00024072212,00024072213,00024072214,00024072215,00024072216,00024072217,00024072221,00024072222,00024072224,00024072225,00024072226,00024072227,00024072233,00024072235,00024072299,00024072502,00024072503,00024073312,00024073315,00024073350,00024073357,00024073359,00024073602,00024073603,00024074112,00024074212,00052080110,00052080130,00052080201,00052080210,00052080501,00052080504,00052081110,00052081175,00052081210,00052081225,00052081250,00052081302,00052081305,00052081325,00052081504,00052081525,00052081550,00056003002,00069004301,00069004302,00069005801,00069005802,00069005901,00069005902,00069005903,00069005904,00069006201,00069006202,00069013701,00069013703,00074115112,00074115114,00074115170,00074115171,00074115173,00074115178,00074115212,00074115214,00074115270,00074115271,00074115273,00074115278,00074128001,00074128002,00074128003,00074128005,00074128011,00074128012,00074128013,00074128015,00074128021,00074128022,00074128023,00074128025,00074128031,00074128032,00074128033,00074128035,00074128101,00074128102,00074128103,00074128105,00074128111,00074128112,00074128113,00074128115,00074128121,00074128122,00074128123,00074128125,00074128131,00074128132,00074128133,00074128135,00074128202,00074131601,00074131611,00074131612,00074131613,00074131614,00074131631,00074131632,00074131666,00074138901,00074138902,00074138932,00074140201,00074140211,00074140231,00074345405,00074345425,00074482201,00074628602,00074628611,00074628702,00074628703,00074629202,00074629302,00074629303,00074762003,00074762059,00074765002,00074765062,00074765102,00074765103,00074765162,00074776103,00074776130,00074779312,00074779323,00074779361,00074779362,00074779412,00074779423,00074779462,00089041001,00089042501,00209422014,00223780101,00223780801,00223781010,00223781801,00223782010,00223782801,00223783004,00223783105,00223783210,00223784001,00223784005,00223784310,00223784430,00223784525,00223784601,00223784704,00223784725,00223786101,00223786302,00223786501,00223786702,00247119530,00247119550,00257012501,00257012601,00257012701,00257016701,00264557210,00264557510,00264557710,00264887200,00264887210,00264887510,00264887710,00264956710,00264957710,00264958720,00264987210,00298690861,00338043103,00338043304,00338045003,00338045102,00338054903,00338055002,00338055003,00338055202,00338810669,00338811070,00338820669,00338820969,00338821070,00338821269,00338955210,00338955620,00364653854,00364653934,00364653949,00364653953,00364653954,00364654046,00364654048,00364654053,00364666934,00364666954,00364666956,00381004901,00381004904,00381004905,00381004910,00381005001,00381005002,00381005004,00381005005,00381005010,00381040301,00381041802,00381041810,00381046301,00381046305,00381046310,00402004910,00402005005,00402041810,00402046310,00409000829,00409000830,00409115112,00409115170,00409115178,00409115212,00409115214,00409115270,00409115278,00409128015,00409128031,00409128032,00409128033,00409128035,00409128131,00409128132,00409128133,00409128135,00409131601,00409131602,00409131611,00409131612,00409131613,00409131614,00409131625,00409131631,00409131632,00409131666,00409140201,00409140211,00409140212,00409140227,00409140231,00409229402,00409258102,00409258402,00409272001,00409272002,00409272003,00409272030,00409272031,00409272032,00409272101,00409272130,00409272301,00409272302,00409272330,00409272331,00409345405,00409345425,00409762003,00409762013,00409762049,00409762059,00409765052,00409765062,00409765103,00409765113,00409765152,00409765162,00409776003,00409776013,00409776103,00409776113,00409776130,00409779313,00409779323,00409779352,00409779362,00409779452,00409779462,00418434105,00418435105,00418435141,00436022070,00436022145,00436022170,00436022175,00436022270,00436022273,00436027570,00454091330,00456077826,00463103404,00463103405,00463103410,00467103325,00467115525,00467126225,00467203325,00467215225,00467750710,00469003015,00469003115,00469003325,00469015225,00469081330,00469081350,00469083300,00469083303,00469083370,00469091300,00469091330,00469091350,00469092300,00469092303,00469092330,00469093300,00469093320,00469094310,00469103315,00469115515,00469126215,00469170030,00469190300,00469190303,00469203325,00469215215,00469276010,00469276025,00469300115,00469301025,00469303025,00469310115,00469310525,00469504001,00469504201,00469504401,00469504501,00469504505,00517430101,00527013955,00527014855,00527017455,00527018965,00536486070,00536486075,00536490070,00536492570,00536495065,00641027221,00641027225,00641027321,00641027325,00641038721,00641038725,00641038925,00641039102,00641039112,00641039125,00641039137,00641039164,00641039225,00641039325,00641039825,00641040002,00641040012,00641040021,00641040025,00641040037,00641040064,00641040125,00641041002,00641041012,00641041025,00641041037,00641041064,00641041125,00641041425,00641243641,00641243645,00641243841,00641243845,00641244030,00641244041,00641244045,00641244055,00641244241,00641244245,00641244341,00641244345,00641245030,00641245041,00641245045,00641245055,00641246030,00641246041,00641246045,00641246055,00641247030,00641247041,00641247045,00641247055,00641326009,00641326209,00641326403,00641326503,00641326603,00641326703,00641326803,00677027521,00686001101,00686001105,00686001801,00686001802,00686001910,00741011901,00741012001,00781332771,00781332795,00781332796,00781333125,00781333135,00781333170,00781333171,00781333190,00781333196,00781333225,00781333270,00781333371,00781333396,00814365046,00814365540,00814366038,00839517530,00839558930,00839559025,08166110003,08166110005,08166111003,08166111005,08290034002,08290034003,08290035005,08290036003,08290036005,08290036006,08290036105,08290037002,08290037003,08290038003,08290038005,08290039003,08290039005,08290039105,08290040003,08290041003,08290306413,08290306414,08290306423,08290306424,08290306509,08290306510,08290306511,08290306512,08290306513,08290306514,08290306515,08290306516,08290306517,08290306521,08290306525,08290306527,08290306528,08290306531,08290306537,08450602603,08450603005,08450603403,08450603705,08450604603,08450604903,08450605005,08450605503,08450605805,08881580123,08881580125,08881590121,08881590123,08881590125,10719004542,10719004642,10719004731,10719004742,10719004842,10974000405,10974000510,10974000805,10974001010,10974030605,11743021002,12671002403,12671002407,12671002503,12671002601,12671002603,12671002701,12671002703,12671006303,12671006307,12671006403,12671006501,12671006515,15082072950,15082073450,17474012303,17474012305,17474012501,17474012502,17474012503,17474012505,24200055844,24200066010,24200066013,24200066110,24200067313,24200068269,24200072845,25021040001,25021040010,25021040030,25021040066,25021040067,25021040102,25021040201,25021040210,25021040266,25021040301,25021040304,25021040366,25021040401,39769001101,39769001102,39769001105,39769001171,39769001173,39769001175,39769001703,39769001801,39769001802,39769001805,39769001910,39769001930,39769002601,39769002701,39769002801,39769002905,39769003005,39769003501,39769003510,39769003530,39769003571,39769003610,39769003630,39769003671,39769003702,39769003703,39769003705,39769006002,39769006003,39769006005,39769006102,39769006103,39769006105,39769010671,39769010673,39769010771,39769010773,39769010775,39769011771,39769011773,39769011775,39769011871,39769011873,39769011875,48433032901,48433032910,48433033001,48433033010,49072029130,49072029710,49072029905,49910000606,51698004910,52533009824,52533009830,52533010470,52533010630,52533010632,52533013830,52533014238,52533017918,52533017961,52533017974,52533021532,52533021640,52584015178,52584015270,52584026201,52584040001,52584040201,52584054001,52584054201,52584058102,52958031004,52958032004,52958033008,52958033012,52958034012,53638005005,53978205207,53978300807,54868309000,55154014105,55154236205,55154238005,55154238205,55154239705,55154273405,55154282605,55154282705,55154287105,55154420507,55154474905,55154510105,55154510107,55154510305,55154510307,55154510905,55154512205,55154512207,55154512605,55154698505,55154698908,55154699605,55154870107,55154935105,55154935305,55154935405,55154935505,55154935905,55154936005,55154936105,55154937305,55154937705,55154939205,55154939705,59747003702,59747003703,59747003705,59747006002,59747006003,59747006005,59747010671,59747010673,59747010675,59747010681,59747010683,59747010685,59747010771,59747010773,59747010775,59747010781,59747010783,59747010785,61553020302,61553020350,61553020403,61553040046,61553040102,61553040246,61553040302,61553041802,61553041902,61553090503,61553090704,61553091203,61553091304,61553094102,62338021403,62338022303,62338022503,62338313701,62338332701,62338352701,62338510503,62338521303,62338531303,62584038342,62584038845,63323001710,63323003810,63323003830,63323004710,63323026201,63323026255,63323027602,63323045909,63323051774,63323051877,63323052277,63323052374,63323054001,63323054011,63323054031,63323054057,63323054201,63323054207,63323054302,63323054401,63323054411,63323054431,63323054501,63323054505,63323054509,63323054901,63323055701,63323091501,63739090012,63739090026,63739090114,63739090128,63739092011,63739092025,63739093114,63739093128,63739094215,63739094229,63739095311,63739095325,63739096411,63739096425,63739097513,63739097527,63739098611,63739098625,63807030031,63807030035,63807036031,63807040031,63807040035,63807050005,63807050031,63807050050,63807050051,63807050055,63807050512,63807056031,63807056051,63807060005,63807060031,63807060050,63807060051,63807060055,63807060512,63807066031,63807066051,64054100302,64253022211,64253022212,64253022221,64253022222,64253022223,64253022225,64253022230,64253022233,64253022235,64253022252,64253033301,64253033311,64253033312,64253033321,64253033322,64253033323,64253033325,64253033330,64253033333,64253033335,64253033352,64253044421,64253044422,64253044423,64253044425,64253044430,64253044433,64253044435,64579004301,64579004325,67457037212,67457037299,67457037312,67457037399,67457037412,67457037499,67457038310,67457038399,67457038431,67457038499,67457038510,67457038599,67457060202,67457060299,67457060305,67457060399,68083013601,68083013625,68883001003,68883001004,68883001005,68883001006,68883002005,68883010001,68883010002,68883010003,68883010004,68883010005,68883010006,68883010010,68883010013,68883010015,71019011502,76045010810</t>
+  </si>
+  <si>
+    <t>Dalteparin</t>
+  </si>
+  <si>
+    <t>B01AB04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\67109\</t>
+  </si>
+  <si>
+    <t>RxNorm:67109,211763,212155,242501,248140,248141,371679,562130,562550,645887,727382,727383,727384,727718,727719,727838,727859,727860,727861,753111,753112,753113,792060,827000,827001,827003,827069,827099,978725,978727,978733,978735,978736,978737,978738,978740,978741,978744,978745,978746,978747,978755,978757,978759,978761,978777,978778</t>
+  </si>
+  <si>
+    <t>NDC:00013240691,00013242601,00013242691,00013243606,00013519001,00013519101,00069019501,00069019502,00069019601,00069019602,00069020601,00069020602,00069021701,00069021702,00069022001,00069022002,00069022301,00069022302,00069022801,00069022802,00069023201,59267243606,59267519101,62195010010,62195010110,62195010301,62195010401,62195011501,62195011601,62195011701,62856010001,62856010010,62856010101,62856010110,62856010201,62856012501,62856012510,62856015001,62856015010,62856018001,62856018010,62856025001,62856025010,62856025101,62856050001,62856050010,62856075001,62856075010</t>
+  </si>
+  <si>
+    <t>Enoxaparin</t>
+  </si>
+  <si>
+    <t>B01AB05</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\67108\</t>
+  </si>
+  <si>
+    <t>RxNorm:67108,205791,282479,352081,372012,727722,727723,727724,727725,727726,727727,727728,727729,727730,759595,759596,759597,759598,759599,759600,759601,854228,854232,854235,854236,854238,854239,854241,854242,854245,854247,854248,854249,854252,854253,854255,854256,1245458</t>
+  </si>
+  <si>
+    <t>NDC:00075062040,00075062041,00075062160,00075062161,00075062280,00075062281,00075062300,00075062301,00075062403,00075062430,00075062431,00075062603,00075062604,00075291201,00075291202,00075291501,00075291502,00075801301,00075801310,00075801401,00075801410,00075801601,00075801610,00075801801,00075801810,00075802001,00075802010,00075802201,00075802210,00075802501,00075802510,00075803001,00078135006,00548560100,00548560200,00548560300,00548560400,00548560500,00548560600,00548560700,00548563100,00548563200,00548563300,00548563400,00548563500,00548563600,00548563700,00703851021,00703851023,00703853021,00703853023,00703854021,00703854023,00703856021,00703856023,00703858021,00703858023,00703861021,00703861023,00703868021,00703868023,00781311901,00781311902,00781311903,00781311904,00781311905,00781311963,00781311964,00781311966,00781311968,00781311969,00781312104,00781312105,00781312168,00781312169,00781312293,00781313301,00781313363,00781322402,00781322464,00781335603,00781335666,00781342804,00781342868,00781350005,00781350069,00781361204,00781361268,00781365505,00781365569,00955100310,00955100410,00955100610,00955100810,00955101010,00955101210,00955101510,00955101601,12516062403,12854062603,35356001810,35356001910,35356002010,35356048110,50090344500,51789062041,51789062431,54569574201,54868511200,54868511201,54868544000,54868544001,54868558700,54868558701,54868583500,54868583700,55154402405,55154402805,55154402905,55154403005,55154403105,55154403305,55154403405,55154403505,55154403605,55154403705,55154543305,55154543405,55154543505,55154543605,55154543705,55154544005,55154544105,55154544205,55154544305,55154544405,55154939905,55154957605,55154957805,55154957905,55154958005,58016487201,61450062004,61450062106,61450062208,61450062300,61450062403,61450291201,61450291501,62037083920,62037084920,62037086120,62037086220,62037086320,62037086420,62037086620,63323056586,63323056593,63323056883,63323056884,63323056887,63323056888,63323056890,63323056894,63323056895,63323056896,63323056898,63323056899,63323056984,63323056990,63323056995,63323056999,63552062603,64579005001,64579005010,64579037001,64579037010,68115074910,68115077410</t>
+  </si>
+  <si>
+    <t>Nadroparin</t>
+  </si>
+  <si>
+    <t>B01AB06</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\NPreparations\67031\</t>
+  </si>
+  <si>
+    <t>RxNorm:67031,251272,376834,415379</t>
+  </si>
+  <si>
+    <t>Parnaparin</t>
+  </si>
+  <si>
+    <t>B01AB07</t>
+  </si>
+  <si>
+    <t>Reviparin</t>
+  </si>
+  <si>
+    <t>B01AB08</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\RPreparations\75960\</t>
+  </si>
+  <si>
+    <t>RxNorm:75960,727878,795798,857645</t>
+  </si>
+  <si>
+    <t>Tinzaparin</t>
+  </si>
+  <si>
+    <t>B01AB10</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\69646\</t>
+  </si>
+  <si>
+    <t>RxNorm:69646,152604,283855,284458,313410,351111,374638,727880,727881,727882,727883,727884,727888,727892,978713,978715,978717,978718,978719,978720,978721,978722,978723</t>
+  </si>
+  <si>
+    <t>NDC:00056034208,00056034253,50222034208,50222034253,54653034202,54653034203,54653034208,54653034253,67211034208,67211034253</t>
+  </si>
+  <si>
+    <t>Bemiparin</t>
+  </si>
+  <si>
+    <t>B01AB12</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\BPreparations\280611\</t>
+  </si>
+  <si>
+    <t>RxNorm:280611,727831,727832,727834,727920,727922,727926,857253,857255,857257,857259,857261</t>
+  </si>
+  <si>
+    <t>COAGA</t>
+  </si>
+  <si>
+    <t>Clopidogrel</t>
+  </si>
+  <si>
+    <t>B01AC04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\32968\</t>
+  </si>
+  <si>
+    <t>RxNorm:32968,213169,309362,374583,749196,749198</t>
+  </si>
+  <si>
+    <t>NDC:00093731405,00093731456,00093731498,00247187400,00247187430,00247187460,00247187477,00247187490,00247227330,00247227360,00378362705,00378362777,00378362793,00378362805,00378362877,00378362893,00615458331,00615458339,00615458363,00615771905,00615771930,00615771939,00615801405,00615801430,00615801439,00904629461,00904646707,13411011701,13411011702,13411011703,13411011706,13411011709,13668014101,13668014105,13668014110,13668014130,13668014144,13668014171,13668014174,13668014190,16590028830,16590028860,16590028890,16729021810,16729021815,16729021816,16729021846,16729021910,16729021945,16729021946,16729021975,21695066530,21695066590,24236036501,24236036502,24236082402,24236082423,31722090101,31722090105,31722090110,31722090130,31722090190,31722090201,31722090205,31722090230,31722090290,33261052830,33261098700,33261098730,33261098760,33261098790,33342006007,33342006010,33342006012,33342006015,35919117100,42254023830,42254023890,42254039530,42254039590,42543071301,42543071305,42543071310,42543071330,42543071390,42543071401,42543071405,42543071430,42543071490,43063037130,43063037160,43063037190,43353026930,43353026960,43547048403,43547048409,43547048450,43547048503,43547048510,47335089413,47335089418,47335089419,47335089481,47335089483,49349099002,49349099519,49848000190,49856025301,49856025302,49856025303,49856025304,49999040230,49999040290,49999086230,50090130100,50090130101,50090208200,50090208201,50090259800,50090259801,50228012105,50228012130,50228012410,50228012430,50436998601,50436998603,51079055701,51079055720,51079055801,51079055803,51138024630,51407003210,51407003230,51407003290,52125004602,52125017402,52125024302,52125024319,52125087902,52125096002,52959077830,53002167200,53002167203,53360117100,53360133203,53808061602,53808076301,53808080602,53808100201,53808100202,53808102501,53808103101,54458088810,54458088816,54569470000,54569470002,54569632700,54569632701,54868407000,54868407001,54868407002,54868554600,54868633600,54868633601,55048007830,55111019601,55111019605,55111019630,55111019690,55111067101,55111067105,55111067106,55111067130,55111067131,55111067148,55111067178,55111067179,55111067181,55111067190,55154201600,55154201607,55154202200,55154337600,55154348806,55154538800,55154627809,55154668304,55154668307,55289091115,55289091130,55648031400,55648031401,55648031402,55648031403,55648031404,55648031500,55648031501,55648031502,55648031504,55700057090,57237018905,57237018930,57237018990,57237018999,58016001400,58016001401,58016001402,58016001403,58016001404,58016001405,58016001406,58016001407,58016001408,58016001409,58016001410,58016001430,58016001460,58016001490,58016091000,58016091001,58016091002,58016091003,58016091004,58016091005,58016091006,58016091007,58016091008,58016091009,58016091010,58016091012,58016091014,58016091015,58016091016,58016091018,58016091020,58016091021,58016091024,58016091025,58016091026,58016091027,58016091028,58016091030,58016091032,58016091035,58016091036,58016091040,58016091042,58016091044,58016091045,58016091048,58016091050,58016091056,58016091060,58016091067,58016091069,58016091070,58016091071,58016091072,58016091073,58016091075,58016091076,58016091077,58016091079,58016091080,58016091081,58016091082,58016091083,58016091084,58016091087,58016091089,58016091090,58016091091,58016091092,58016091096,58016091097,58016091098,58016091099,58118035703,58118035706,58118035708,58118035709,58864074830,59762670002,60429011033,60429030101,60429030110,60429030130,60429030160,60429030177,60429030190,60505025301,60505025302,60505025303,60505025304,60505353200,60505353202,60505353205,60505399203,60760073530,60760073590,61786012319,61786027602,61786027619,61786027620,61786097219,61919000730,62034001501,62034001530,62034001577,62034001590,62034001711,62034001773,62301007171,62584013150,63187036230,63187036260,63187036290,63187063930,63187063960,63187063990,63629159801,63629159802,63629159803,63629159804,63629472801,63629472802,63629472803,63629472804,63629685701,63653117101,63653117103,63653117104,63653117105,63653117106,63653117109,63653117110,63653117130,63653133202,63653133203,63874056410,63874056430,63874056490,64205035730,64679031400,64679031401,64679031402,64679031403,64679031404,64679031500,64679031501,64679031502,64679031503,64679031504,64980034303,64980034309,64980034350,65162041403,65162041409,65162041411,65162041450,65862035701,65862035705,65862035710,65862035730,65862035790,65862035799,66105011901,66105011903,66105011906,66105011909,66105011915,66116049430,66267069615,66267069660,66267129903,67046009907,67046009914,67046009915,67046009920,67046009921,67046009928,67046009930,67046009960,67046010007,67046010014,67046010015,67046010021,67046010028,67046010030,67046010060,67046060430,67216017101,67216017103,67216017105,67216017106,67228026103,67228026106,67544050430,67544050460,67544050474,67544065131,68071153303,68071157809,68071331909,68071402303,68071403103,68071405709,68071413803,68071426809,68084053601,68084053611,68084053725,68084053795,68084060901,68084060911,68084075225,68084075295,68115085530,68115085560,68115085590,68151311809,68258600603,68258607303,68258607309,68645043054,68645044370,68788632403,68788632406,68788632409,68788723803,68788723806,68788723809,68788978503,68788978506,68788978509,69117101001,69117101002,69117101003,69117101004,69367019405,69367019430,70400010110,70400010130,70400010190,70518019500,70518040000,70518040001,70518047100,70518071700,70518075000,70518099000,70518099100,70518107900,70518107901,70518107902,70518138300,70518151000,70710141700,70710141703,70710141705,70710141709,70771106200,70771106203,70771106205,70771106209,70786006001,70786006003,70882011630,71205007330,71205007360,71205007390,71335008001,71335008002,71335008003,71335008004,71335058101,71335058102,71335058103,71335058104,71335075201,71335075202,71335075203,71335075204,71399750001,71399750002,71399750003,71399750005,71399750009,71717010103,71717010109,71717010150,76519101602,76519101603</t>
+  </si>
+  <si>
+    <t>Ticlopidine</t>
+  </si>
+  <si>
+    <t>B01AC05</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\10594\</t>
+  </si>
+  <si>
+    <t>RxNorm:10594,208558,313406,374131</t>
+  </si>
+  <si>
+    <t>NDC:00004001814,00004001822,00004001823,00004001881,00004001892,00004001899,00033043138,00033043153,00093015401,00093015405,00185011505,00185011530,00185011560,00228261303,00228261306,00228261311,00247127530,00247127560,00378045301,00378045305,00440856260,00440856291,00440856292,00480015401,00480015405,00781151405,00781151431,00781151460,00904537840,00904537846,00904537852,00904537860,00904537861,15338037852,26053032301,42291080301,49856002702,49856002704,49856002707,49856002709,49884059901,49884059902,49884059905,49884059911,51079092019,51079092020,53978302703,54569469100,54569469101,54868378300,54868378301,54868506200,55567005400,55567005407,55567005413,55567005418,55567005425,57664032706,57664032713,57664032783,57664032786,57664032788,58056039203,58056039306,58056039450,60429076405,60429076430,60429076460,60505002702,60505002704,60505002707,60505002709,62318002702,62318002704,62318002707,62318002709,66105013901,66105013902,66105013903,66105013906,66105013910,68151007900</t>
+  </si>
+  <si>
+    <t>Dipyridamole</t>
+  </si>
+  <si>
+    <t>B01AC07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\3521\</t>
+  </si>
+  <si>
+    <t>RxNorm:3521,197622,199314,206714,207569,208316,309952,309953,309955,333833,371917,375035,392451,393522,1812189</t>
+  </si>
+  <si>
+    <t>NDC:00005374323,00005374331,00005374360,00005379023,00005379031,00005379060,00005379123,00005379131,00005379160,00007037920,00007037930,00007038020,00007038025,00007038120,00015107201,00015107203,00022056810,00022056816,00054043425,00054043525,00054043625,00074204302,00074204310,00102248505,00102290505,00102291005,00115107001,00115107003,00115107101,00115107103,00115107201,00115107203,00117125002,00117125005,00117129602,00117129603,00117129605,00117129802,00117129803,00117129804,00117129805,00117613602,00117613605,00143210725,00143210925,00143211125,00144145602,00144145603,00144145701,00144145801,00157021501,00157021510,00157021601,00157021610,00157021701,00157021710,00172297660,00172297670,00172297680,00172297760,00172297770,00172297780,00172299460,00172299470,00172299480,00179105701,00179105702,00179115301,00179115302,00179116201,00179116290,00182115601,00182115610,00182115629,00182115689,00182135401,00182135402,00182135410,00182135489,00182140501,00182140510,00182140589,00182156801,00182156810,00182156889,00182156901,00182156910,00182156989,00182157001,00182157010,00182157089,00185000301,00185000310,00223083701,00223083702,00223083705,00228218310,00228218396,00228218510,00228218596,00228219310,00228219396,00247106930,00302229001,00302229101,00302229110,00302229201,00302229210,00304011400,00304011401,00304011600,00304011601,00304071700,00304071701,00346237301,00346237302,00346237390,00349231400,00349231401,00349231410,00349231422,00349231498,00349231600,00349231622,00349234400,00349234401,00349234405,00349234410,00349234422,00349234452,00349234498,00349235300,00349235301,00349235305,00349235310,00349235322,00349235400,00349235401,00349235405,00349235410,00349235422,00349235498,00349837800,00349837801,00349837805,00349837810,00349837852,00349837898,00349837900,00349837901,00349837910,00349837998,00364051101,00364051102,00364055201,00364055205,00364059601,00364059602,00364237401,00364237402,00364237490,00364237501,00364237502,00364237505,00364237590,00364249101,00364249102,00364249201,00364249202,00364249301,00364249302,00368201310,00368201350,00368201601,00368201650,00368203801,00368203850,00385215010,00405435001,00405435003,00405435101,00405435103,00405435201,00405435203,00405535001,00405535003,00405535101,00405535103,00405535201,00405535203,00406218701,00406218705,00406218710,00406218801,00406218805,00406218810,00406218901,00406218905,00406218910,00409204302,00409204310,00527100101,00527100110,00527103301,00527103305,00527117201,00527117210,00527146101,00527146105,00527146110,00527146201,00527146205,00527146210,00527146301,00527146305,00527146310,00536357001,00536357010,00536357101,00536357105,00536357110,00536357201,00536357205,00536357210,00536361901,00536361905,00536361910,00536362001,00536362005,00536362010,00536374301,00555025202,00555025204,00555025205,00555025206,00555025214,00555027402,00555027404,00555027405,00555028502,00555028504,00555028505,00555028602,00555028604,00555028605,00556028901,00556028910,00580013701,00580013710,00580053301,00580053310,00580054801,00580054810,00590030221,00590030254,00591551001,00591551004,00591551101,00591551103,00591551104,00591551201,00591551203,00597001701,00597001710,00597001761,00597001790,00597001801,00597001810,00597001836,00597001861,00597001901,00597001905,00597001936,00597001961,00603338321,00603338332,00603338421,00603338432,00603338521,00603338532,00615154301,00615154310,00615154313,00615157301,00615157310,00615157313,00615157332,00615157339,00615157343,00615157353,00615157363,00615157401,00615157405,00615157410,00615157413,00615157432,00615157439,00641113834,00641113931,00641256941,00641256944,00642003310,00642003311,00642003505,00642003510,00642003705,00642003710,00677063501,00677063505,00677063510,00677063555,00677067401,00677067405,00677067410,00677068801,00677068810,00686006820,00686006920,00686007020,00703165201,00703165202,00703165204,00703165401,00703165402,00703165403,00719131010,00719131013,00719131210,00719131211,00719131213,00719131310,00719131313,00725001001,00725001005,00725001010,00781147801,00781147810,00781147813,00781167801,00781167810,00781167813,00781189001,00781189010,00781189013,00814260514,00814260528,00814260530,00814260614,00814260628,00814260630,00814260714,00814260728,00814260730,00832050001,00832050013,00832051001,00832051013,00832102900,00832102910,00832103000,00832103010,00832103100,00832103110,00839632706,00839632716,00839642906,00839642912,00839642916,00839649406,00839649416,00839791806,00839791816,00839791906,00839791916,00839792006,00839792016,00879046601,00879046605,00879046610,00879046701,00879046705,00879046710,00879046761,00879047901,00879047905,00879047910,00879047961,00879049401,00879049405,00879049410,00879049501,00879049505,00879049510,00879049561,00879049601,00879049605,00879049610,00894694001,00894694002,00894694003,00894694201,00894694202,00894694203,00904108300,00904108360,00904108380,00904108382,00904108440,00904108460,00904108480,00904108540,00904108560,00904108580,00904108660,00904108661,00904108680,00904108760,00904108761,00904108780,00904108860,00904108861,00904108880,10130055501,10130055510,10135053610,10135053710,10135053810,10465001725,11994000505,11994000525,11994000560,11994000565,12027001901,12071031101,12071031110,12071039301,12071039310,12071040201,12071040210,17236027710,17236031505,17236031510,17236032601,17236032605,17236032610,19458038301,19458038401,26053011501,35470001001,35470001009,35470291401,35470291409,35470297601,35470297609,35470297701,35470297709,42291052610,42291052710,42291052810,46193072201,46193072210,46193072301,46193072305,46193072310,46193072401,46193072405,46193072410,46703004410,46703006205,46703006210,46703006305,46703006310,47202022103,47202222101,47202222103,47202229701,47202229702,47202229703,47202234501,47202234503,47471004201,47471030501,47471030601,47679029001,47679029004,47679029035,47679031201,47679031235,47679044901,47679044935,47837004301,47837004305,47837004310,47837004400,47837004401,47837004410,47837004501,47837004502,47837004505,47837004510,48817008501,48817171001,49727034402,49727034602,49727034605,49727034902,49727034905,49856071500,49856071501,49884003101,49884003105,49884003110,49884003112,49884004201,49884004205,49884004210,49884004212,49884006505,49884006510,49884006512,50111031101,50111031103,50111031201,50111031202,50111031203,50111031301,50111031302,50111031303,50268026311,50268026315,50268026411,50268026415,50268026511,50268026515,51079006801,51079006820,51079006824,51079006840,51079006860,51079006901,51079006920,51079006924,51079006940,51079006960,51079007001,51079007020,51079007040,51079007060,51079020820,51079020840,51079020860,51129428001,51129428002,51129433601,51129433602,51203018101,51203018201,51285025502,51285025505,51285025702,51285025704,51285025705,51285025802,51285025804,51285025805,51316002001,51316008801,51432015803,51432015806,51432016006,51432016203,51432016206,51608001702,51608001802,51655010821,51655010824,51655010825,51655010883,51655042025,51728033501,51728033510,51728033601,51728033610,51808020401,51813013460,51813013499,51813013560,51813013599,51813013660,51813013699,52152026502,52152026505,52152026506,52152026602,52152026605,52152026606,52152026702,52152026705,52152026706,52446017421,52446017432,52446017521,52446017528,52446017532,52446017621,52446017628,52446017632,52493062001,52584056941,52953008401,52953008601,52953008701,52985001601,52985005301,52985009601,53467049400,53467049403,53489011501,53489011510,53489011555,53489011601,53489011610,53489011701,53489011705,53489011710,53492302801,53492302802,53492302901,53492302902,53492303001,53506074260,53506074360,53506074460,53633003101,53633003110,53633004201,53633006501,53633006510,53978005710,53978005810,53978502701,53978502703,53978502709,54269012301,54269012401,54269012901,54421014001,54421014101,54421014201,54421140001,54421141001,54421142001,54569046600,54569046750,54569046801,54569046950,54569047000,54697000602,54697000603,54697000604,54697000605,54697000607,54868004200,54868004201,54868004202,54868004204,54868004300,54868004301,54868004302,54868004303,54868004304,54868004305,54868004400,54868004401,54868004402,54868004403,54868004404,54868128800,55045144800,55045144801,55045144802,55045150600,55045150608,55045150609,55154133700,55154338700,55154432508,55154550700,55154550707,55289067901,55289070201,55289074801,55289074897,55370015107,55370015109,55370015207,55370015209,55370015407,55370015409,55390055501,55390055510,55390055590,55829023510,55829023610,55829023710,57480032301,57480032401,57480032501,57866361901,57866362001,58016055612,58016055615,58016055620,58016055630,58056015701,58056015710,58056015801,58056015810,58087002212,60346078930,60346078959,60346078960,60346078962,60346078966,60346078990,60491050601,60491050630,60491050634,60491050690,60491050730,60491050734,60491050790,60505071500,60505071501,61392014225,61392014230,61392014231,61392014239,61392014260,61392014265,61392014290,61392014295,61392054925,61392054930,61392054931,61392054932,61392054934,61392054939,61392054945,61392054951,61392054954,61392054956,61392054960,61392054965,61392054990,61392054991,61392054995,61392055225,61392055230,61392055231,61392055232,61392055239,61392055245,61392055251,61392055254,61392055256,61392055260,61392055265,61392055290,61392055291,61392055295,62584036901,62584036931,62584036933,62584037001,62584037031,62584037033,62584037050,62584037101,62584037131,62584037133,63209008111,63209008199,63209008211,63209008299,63209008311,63209008399,63323061302,63323061310,63739008701,63775071500,63775071501,64674001701,64674001801,64674001901,64896107001,64896107003,64896107101,64896107103,64896107201,64896107203,64980013301,64980013310,64980013401,64980013410,64980013501,64980013510,65841066201,65841066205,65841066210,65841066230,65841066301,65841066305,65841066310,65841066330,65841066401,65841066405,65841066410,65841066430,66039011701,66039011710,66039011801,66039011810,66309011601,66309011610,68115066300,68151299600,68382018701,68382018705,68382018710,68382018730,68382018801,68382018805,68382018810,68382018830,68382018901,68382018905,68382018910,68382018930,68462011601,68462011610,68462011701,68462011710,68462011801,68462011810,69189042801,69189043601,69189059301</t>
+  </si>
+  <si>
+    <t>Indobufen</t>
+  </si>
+  <si>
+    <t>B01AC10</t>
+  </si>
+  <si>
+    <t>Abciximab</t>
+  </si>
+  <si>
+    <t>B01AC13</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\83929\</t>
+  </si>
+  <si>
+    <t>RxNorm:83929,108911,241162,1656683</t>
+  </si>
+  <si>
+    <t>NDC:00002714001,00409103008,42023003001,57894020001,57920071401,64029405001</t>
+  </si>
+  <si>
+    <t>Eptifibatide</t>
+  </si>
+  <si>
+    <t>B01AC16</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\75635\</t>
+  </si>
+  <si>
+    <t>RxNorm:75635,200348,200349,261096,261097,1736469,1736470,1736472,1736477,1736478</t>
+  </si>
+  <si>
+    <t>NDC:00085113601,00085113602,00085113603,00085117701,00085117702,00085117703,00085117705,00703050501,00703050901,00703116501,00703117901,16729025938,16729026003,16729026038,17478090210,17478090290,17478090390,25021040851,25021040910,55150021899,55150021910,55150022099,59651001200,59651001310,59651001400,63020000401,63020001001,67457062910,67457063010,67457063110,68225000501,68225000601,68225000602,70121100201,70121100301</t>
+  </si>
+  <si>
+    <t>Tirofiban</t>
+  </si>
+  <si>
+    <t>B01AC17</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\73137\</t>
+  </si>
+  <si>
+    <t>RxNorm:73137,205253,213299,1737465,1737466,1737468,1737471,1737472,1813035,1813037</t>
+  </si>
+  <si>
+    <t>NDC:00006373943,00006373955,00006373983,00006373996,00338340102,00338340141,00338340148,00338340601,00338340602,25208000101,25208000104,25208000201,25208000202,25208000203,61379012001,61379012002</t>
+  </si>
+  <si>
+    <t>Prasugrel</t>
+  </si>
+  <si>
+    <t>B01AC22</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\PPreparations\613391\</t>
+  </si>
+  <si>
+    <t>RxNorm:613391,855811,855812,855816,855818,855820</t>
+  </si>
+  <si>
+    <t>NDC:00002475901,00002475930,00002475961,00002475977,00002476030,00002476076,00002512101,00002512130,00002512152,00002512301,00002512307,00002512330,00002512377,00378518505,00378518577,00378518593,00378518605,00378518677,00378518693,43817023901,43817024001,54569627500,54868623800,55154183100,60505464203,60505464303,65162000103,65162000203,65862082903,65862082910,65862082930,65862083003,65862083010,65862083030,66993057530,66993057630,67877060430,67877060530</t>
+  </si>
+  <si>
+    <t>Ticagrelor</t>
+  </si>
+  <si>
+    <t>B01AC24</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\TPreparations\1116632\</t>
+  </si>
+  <si>
+    <t>RxNorm:1116632,1116634,1116635,1116639,1666332,1666334</t>
+  </si>
+  <si>
+    <t>NDC:00186077660,00186077694,00186077708,00186077718,00186077728,00186077739,00186077760,55154961800,63629529201</t>
+  </si>
+  <si>
+    <t>Cangrelor</t>
+  </si>
+  <si>
+    <t>B01AC25</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\CPreparations\1656052\</t>
+  </si>
+  <si>
+    <t>RxNorm:1656052,1656055,1656056,1656061</t>
+  </si>
+  <si>
+    <t>NDC:10122062001,10122062010,65293000301,65293000310</t>
+  </si>
+  <si>
+    <t>Vorapaxar</t>
+  </si>
+  <si>
+    <t>B01AC26</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\VPreparations\1537034\</t>
+  </si>
+  <si>
+    <t>RxNorm:1537034,1537038,1537039,1537045</t>
+  </si>
+  <si>
+    <t>NDC:00006035101,00006035105,00006035131,00006035148,00006035154,70347020805,70347020830,70347020890</t>
+  </si>
+  <si>
+    <t>Desirudin</t>
+  </si>
+  <si>
+    <t>B01AE01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\114934\</t>
+  </si>
+  <si>
+    <t>RxNorm:114934,402248,402249,1807809</t>
+  </si>
+  <si>
+    <t>NDC:00075230002,00075230010,00187001101,00187001110,42998071501,42998071510,51292011112,51292012101,83055011112</t>
+  </si>
+  <si>
+    <t>Lepirudin</t>
+  </si>
+  <si>
+    <t>B01AE02</t>
+  </si>
+  <si>
+    <t>Argatroban</t>
+  </si>
+  <si>
+    <t>B01AE03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\15202\</t>
+  </si>
+  <si>
+    <t>RxNorm:15202,308351,1110708,1804730,1804735,1804737,1804738</t>
+  </si>
+  <si>
+    <t>NDC:00007440701,00007440710,00007440754,00074236602,00078093061,00143928801,00143955901,00143967401,00409114001,00703002031,00703002032,00781328512,00781328554,00781331491,00781331495,00781931491,00781931495,42023018201,42367020207,42367020284,42367020307,42367020384,51947440701,63323052603,67457021202,68083014101,68083014102,70121103701</t>
+  </si>
+  <si>
+    <t>Bivalirudin</t>
+  </si>
+  <si>
+    <t>B01AE06</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\BPreparations\60819\</t>
+  </si>
+  <si>
+    <t>RxNorm:60819,284534,308769,1657991,1997015,1997017</t>
+  </si>
+  <si>
+    <t>NDC:00338957224,00338957612,00409830010,00409830015,00409830020,00409830025,00781315894,00781315895,00781915894,00781915895,10130002210,16729027503,16729027567,25021040505,55111065207,55111065237,55150021010,55154227505,60505610104,63323056210,63323056215,63323056241,65293000101,65293000402,65293000422,67457025600,67457025610</t>
+  </si>
+  <si>
+    <t>Dabigatran etexilate</t>
+  </si>
+  <si>
+    <t>B01AE07</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\DPreparations\1037042\</t>
+  </si>
+  <si>
+    <t>RxNorm:1037042,1037044,1037045,1037049,1037179,1037181,1723476,1723478</t>
+  </si>
+  <si>
+    <t>NDC:00597010754,00597010760,00597010854,00597010860,00597013512,00597013554,00597013560,00597014912,00597014954,00597014960,00597035509,00597035553,00597035556,00597036042,00597036055,00597036082,21695089960,54569627600</t>
+  </si>
+  <si>
+    <t>Rivaroxaban</t>
+  </si>
+  <si>
+    <t>B01AF01</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\RPreparations\1114195\</t>
+  </si>
+  <si>
+    <t>RxNorm:1114195,1114197,1114198,1114202,1232082,1232084,1232086,1232088,1549682,1549683,2059015,2059017</t>
+  </si>
+  <si>
+    <t>NDC:42254037601,50458057701,50458057710,50458057714,50458057718,50458057760,50458057807,50458057810,50458057814,50458057830,50458057890,50458057907,50458057910,50458057930,50458057990,50458057999,50458058007,50458058010,50458058030,50458058090,50458058451,50458058452,55154142200,55154142308,55154142400,55154142408,69189057801</t>
+  </si>
+  <si>
+    <t>Apixaban</t>
+  </si>
+  <si>
+    <t>B01AF02</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\APreparations\1364430\</t>
+  </si>
+  <si>
+    <t>RxNorm:1364430,1364434,1364435,1364441,1364445,1364447,1992427,1992428</t>
+  </si>
+  <si>
+    <t>NDC:00003089321,00003089331,00003089341,00003089391,00003089421,00003089431,00003089441,00003089470,00003089491,00003376432,00003376442,00003376474,50090143600,50090143700,54569651300,54569651400,55154061200,55154061208,55154061300,55154061308,63629774701,63629774702,63629774703</t>
+  </si>
+  <si>
+    <t>Edoxaban</t>
+  </si>
+  <si>
+    <t>B01AF03</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\EPreparations\1599538\</t>
+  </si>
+  <si>
+    <t>RxNorm:1599538,1599542,1599543,1599549,1599551,1599553,1599555,1599557</t>
+  </si>
+  <si>
+    <t>NDC:65597020107,65597020110,65597020130,65597020150,65597020170,65597020190,65597020205,65597020207,65597020210,65597020230,65597020250,65597020270,65597020290,65597020305,65597020307,65597020310,65597020330,65597020350,65597020370,65597020390</t>
+  </si>
+  <si>
+    <t>Betrixaban</t>
+  </si>
+  <si>
+    <t>B01AF04</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\BPreparations\1927851\</t>
+  </si>
+  <si>
+    <t>RxNorm:1927851,1927855,1927856,1927862,1927864,1927866</t>
+  </si>
+  <si>
+    <t>NDC:69853020101,69853020201</t>
+  </si>
+  <si>
+    <t>Fondaparinux</t>
+  </si>
+  <si>
+    <t>B01AX05</t>
+  </si>
+  <si>
+    <t>\ACT\Medications\MedicationsByAlpha\V2_12112018\RxNormUMLSRxNav\FPreparations\321208\</t>
+  </si>
+  <si>
+    <t>RxNorm:321208,349308,352102,545076,616862,616912,727559,727560,727562,727563,727564,727565,727566,727567,727568,861356,861358,861360,861362,861363,861364,861365,861366</t>
+  </si>
+  <si>
+    <t>NDC:00007323001,00007323002,00007323011,00007323061,00007323201,00007323202,00007323211,00007323401,00007323402,00007323411,00007323461,00007323601,00007323602,00007323611,00781344312,00781344394,00781344395,00781345412,00781345494,00781345495,00781346512,00781346594,00781346595,00781347612,00781347694,00781347695,35356007802,35356007810,35356007902,35356007910,35356008002,35356008010,35356008102,35356008110,43598060602,43598060610,43598060611,43598060702,43598060710,43598060711,43598060802,43598060810,43598060811,43598060902,43598060910,43598060911,53360230001,54868550100,54868550101,54868550102,54868565200,55111067802,55111067810,55111067811,55111067902,55111067910,55111067911,55111068002,55111068010,55111068011,55111068102,55111068110,55111068111,55150023000,55150023002,55150023010,55150023100,55150023102,55150023110,55150023200,55150023202,55150023210,55150023300,55150023302,55150023310,60505607800,60505607804,60505607900,60505607904,60505608000,60505608004,60505608100,60505608104,60937323002,60937323003,60937323201,60937323202,60937323401,60937323402,60937323403,60937323601,60937323602,66203230001,66203230002,67457058200,67457058202,67457058210,67457058300,67457058302,67457058304,67457058400,67457058402,67457058406,67457058500,67457058502,67457058508,67457059200,67457059202,67457059210,67457059300,67457059302,67457059304,67457059400,67457059402,67457059406,67457059500,67457059502,67457059508,67457069300,67457069310,67457069400,67457069410,67457069500,67457069510,67457069600,67457069610</t>
+  </si>
+  <si>
+    <t>Caplacizumab</t>
+  </si>
+  <si>
+    <t>B01AX07</t>
+  </si>
+  <si>
+    <t>Type for 4CE Analysis</t>
+  </si>
+  <si>
+    <t>Parent RxNorm</t>
+  </si>
+  <si>
+    <t>ATC Code</t>
+  </si>
+  <si>
+    <t>Class Name</t>
+  </si>
+  <si>
+    <t>Med Name</t>
+  </si>
+  <si>
+    <t>Med Class</t>
+  </si>
+  <si>
+    <t>PaCO2</t>
+  </si>
+  <si>
+    <t>PaO2</t>
+  </si>
+  <si>
+    <t>Diagnosis</t>
+  </si>
+  <si>
+    <t>J80</t>
+  </si>
+  <si>
+    <t>J95.851</t>
+  </si>
+  <si>
+    <t>0BH17EZ</t>
+  </si>
+  <si>
+    <t>96.70, 96.71, 96.72</t>
+  </si>
+  <si>
+    <t>Acute respiratory distress syndrome</t>
+  </si>
+  <si>
+    <t>Ventilator associated pneumonia</t>
+  </si>
+  <si>
+    <t>Insertion of endotracheal tube</t>
+  </si>
+  <si>
+    <t>Invasive mechanical ventilation</t>
+  </si>
+  <si>
+    <t>ICD10</t>
+  </si>
+  <si>
+    <t>ICD9</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Severe Illness Medications</t>
+  </si>
+  <si>
+    <t>Severe Illness Labs</t>
+  </si>
+  <si>
+    <t>2019-8</t>
+  </si>
+  <si>
+    <t>2703-7</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Lab Name</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Severe Illness Diagnoses and Procedures</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>RxNorm</t>
+  </si>
+  <si>
+    <t>See Meds sheet for list</t>
+  </si>
+  <si>
+    <t>Loinc Code (the loinc code we provide on the Labs sheet, not your local code(s))</t>
+  </si>
+  <si>
+    <t>4CE Medication Class (the one we provide on the Meds sheet)</t>
+  </si>
+  <si>
+    <t>All diagnoses should be used. Unlike labs and medications, we are not providing a specific list.</t>
+  </si>
+  <si>
+    <t>1) For each patient in the cohort, find all "severe codes" they have starting on the first admission/alignment date (see the SevereCode sheet).</t>
+  </si>
+  <si>
+    <t>A patient only needs one severe code to be considered severe. (The severe illness codes should be codes are OR'ed together.)</t>
+  </si>
+  <si>
+    <t>The mappings from medication class to ATC and RxNorm codes are in the Labs sheet.</t>
+  </si>
+  <si>
+    <t>The Labs sheet also lists NDC codes and ACT Ontology paths if you need it to help find medications.</t>
+  </si>
+  <si>
+    <t>The list of laboratory tests, LOINC codes, and lab units are in the Labs sheet.</t>
+  </si>
+  <si>
+    <t>Note: PaCO2 and PaO2 are used to identify severe patients (see SevereCodes sheet), but we are not tracking their values here.</t>
+  </si>
+  <si>
+    <t>*** Note that these medications are the SIANES and SICARDIAC subset on the Meds sheet.</t>
+  </si>
+  <si>
+    <t>5A093*, 5A094*, 5A095*</t>
   </si>
 </sst>
 </file>
@@ -476,9 +2087,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +2116,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -546,15 +2165,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,7 +2480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -847,427 +2491,442 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>102</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>116</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>124</v>
+      <c r="A70" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>127</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>135</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>141</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>678</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>679</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1290,13 +2949,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +2977,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1329,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,7 +2999,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1351,7 +3010,7 @@
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1362,7 +3021,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,7 +3032,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1439,7 +3098,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1450,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,7 +3164,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>673</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,7 +3186,7 @@
         <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1571,7 +3230,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,7 +3263,7 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1615,7 +3274,7 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,7 +3285,7 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1637,7 +3296,7 @@
         <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,7 +3395,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1787,4 +3446,3380 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E15" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>682</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>662</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>647</v>
+      </c>
+      <c r="B25" t="s">
+        <v>667</v>
+      </c>
+      <c r="C25" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>648</v>
+      </c>
+      <c r="B26" t="s">
+        <v>667</v>
+      </c>
+      <c r="C26" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>649</v>
+      </c>
+      <c r="B30" t="s">
+        <v>654</v>
+      </c>
+      <c r="C30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="14">
+        <v>518.82000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C31" t="s">
+        <v>651</v>
+      </c>
+      <c r="D31" s="14">
+        <v>997.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>660</v>
+      </c>
+      <c r="B32" t="s">
+        <v>656</v>
+      </c>
+      <c r="C32" t="s">
+        <v>652</v>
+      </c>
+      <c r="D32" s="14">
+        <v>96.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>660</v>
+      </c>
+      <c r="B33" t="s">
+        <v>657</v>
+      </c>
+      <c r="C33" t="s">
+        <v>683</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>653</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="E3" s="8">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="8">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="8">
+        <v>180</v>
+      </c>
+      <c r="E12" s="8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="8">
+        <v>94</v>
+      </c>
+      <c r="E13" s="8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1.6</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>681</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E19">
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="8">
+        <v>6130</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="8">
+        <v>8782</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="8">
+        <v>6960</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F5" s="8">
+        <v>319864</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="F6" s="8">
+        <v>68139</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="H6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="8">
+        <v>71535</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="8">
+        <v>48937</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3616</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3628</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3992</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" t="s">
+        <v>242</v>
+      </c>
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="F12" s="8">
+        <v>7512</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" s="8">
+        <v>8163</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1999003</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H14" t="s">
+        <v>273</v>
+      </c>
+      <c r="I14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" t="s">
+        <v>254</v>
+      </c>
+      <c r="D16" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16" s="8">
+        <v>52769</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="8">
+        <v>8814</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H17" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="8">
+        <v>11149</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H18" t="s">
+        <v>232</v>
+      </c>
+      <c r="I18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5521</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H19" t="s">
+        <v>297</v>
+      </c>
+      <c r="I19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="C20" t="s">
+        <v>294</v>
+      </c>
+      <c r="D20" t="s">
+        <v>301</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2393</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="8">
+        <v>72435</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H21" t="s">
+        <v>310</v>
+      </c>
+      <c r="I21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>292</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C22" t="s">
+        <v>313</v>
+      </c>
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1923319</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="H22" t="s">
+        <v>316</v>
+      </c>
+      <c r="I22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>292</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" t="s">
+        <v>319</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="8">
+        <v>612865</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="H23" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>292</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>313</v>
+      </c>
+      <c r="D24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1535218</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H24" t="s">
+        <v>326</v>
+      </c>
+      <c r="I24" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="F25" s="8">
+        <v>72257</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" t="s">
+        <v>333</v>
+      </c>
+      <c r="I25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" t="s">
+        <v>336</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="F26" s="8">
+        <v>120608</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H26" t="s">
+        <v>338</v>
+      </c>
+      <c r="I26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2284718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" t="s">
+        <v>345</v>
+      </c>
+      <c r="D28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="F28" s="8">
+        <v>284640</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H28" t="s">
+        <v>348</v>
+      </c>
+      <c r="I28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>292</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" t="s">
+        <v>345</v>
+      </c>
+      <c r="D29" t="s">
+        <v>351</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F29" s="8">
+        <v>460132</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" t="s">
+        <v>345</v>
+      </c>
+      <c r="D30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F30" s="8">
+        <v>9344</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H30" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>361</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" t="s">
+        <v>363</v>
+      </c>
+      <c r="D31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1998</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H31" t="s">
+        <v>366</v>
+      </c>
+      <c r="I31" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>361</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" t="s">
+        <v>369</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3827</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>363</v>
+      </c>
+      <c r="D33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F33" s="8">
+        <v>29046</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="H33" t="s">
+        <v>376</v>
+      </c>
+      <c r="I33" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" t="s">
+        <v>379</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="F34" s="8">
+        <v>54552</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H34" t="s">
+        <v>381</v>
+      </c>
+      <c r="I34" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F35" s="8">
+        <v>35296</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H35" t="s">
+        <v>386</v>
+      </c>
+      <c r="I35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" t="s">
+        <v>389</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="8">
+        <v>35208</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H36" t="s">
+        <v>391</v>
+      </c>
+      <c r="I36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F37" s="8">
+        <v>18867</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H37" t="s">
+        <v>396</v>
+      </c>
+      <c r="I37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
+      <c r="D38" t="s">
+        <v>399</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F38" s="8">
+        <v>21102</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H38" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C39" t="s">
+        <v>363</v>
+      </c>
+      <c r="D39" t="s">
+        <v>403</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="F39" s="8">
+        <v>50166</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="H39" t="s">
+        <v>405</v>
+      </c>
+      <c r="I39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>361</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" t="s">
+        <v>408</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F40" s="8">
+        <v>38454</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H40" t="s">
+        <v>410</v>
+      </c>
+      <c r="I40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>361</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C41" t="s">
+        <v>363</v>
+      </c>
+      <c r="D41" t="s">
+        <v>413</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" s="8">
+        <v>36908</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
+      <c r="D42" t="s">
+        <v>415</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="F42" s="8">
+        <v>30131</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="H42" t="s">
+        <v>417</v>
+      </c>
+      <c r="I42" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C43" t="s">
+        <v>363</v>
+      </c>
+      <c r="D43" t="s">
+        <v>420</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43" s="8">
+        <v>39990</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>361</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="C44" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="F44" s="8">
+        <v>60245</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>361</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C45" t="s">
+        <v>427</v>
+      </c>
+      <c r="D45" t="s">
+        <v>428</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="F45" s="8">
+        <v>52175</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H45" t="s">
+        <v>430</v>
+      </c>
+      <c r="I45" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" t="s">
+        <v>427</v>
+      </c>
+      <c r="D46" t="s">
+        <v>433</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" s="8">
+        <v>214354</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="H46" t="s">
+        <v>435</v>
+      </c>
+      <c r="I46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" t="s">
+        <v>427</v>
+      </c>
+      <c r="D47" t="s">
+        <v>438</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="F47" s="8">
+        <v>69749</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="H47" t="s">
+        <v>440</v>
+      </c>
+      <c r="I47" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C48" t="s">
+        <v>427</v>
+      </c>
+      <c r="D48" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="F48" s="8">
+        <v>83818</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H48" t="s">
+        <v>445</v>
+      </c>
+      <c r="I48" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" t="s">
+        <v>427</v>
+      </c>
+      <c r="D49" t="s">
+        <v>448</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="F49" s="8">
+        <v>73494</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H49" t="s">
+        <v>450</v>
+      </c>
+      <c r="I49" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C50" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" t="s">
+        <v>453</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="F50" s="8">
+        <v>83515</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="H50" t="s">
+        <v>455</v>
+      </c>
+      <c r="I50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C51" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" t="s">
+        <v>458</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="F51" s="8">
+        <v>118463</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" t="s">
+        <v>461</v>
+      </c>
+      <c r="D52" t="s">
+        <v>462</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="F52" s="8">
+        <v>4603</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="H52" t="s">
+        <v>464</v>
+      </c>
+      <c r="I52" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C53" t="s">
+        <v>461</v>
+      </c>
+      <c r="D53" t="s">
+        <v>467</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1808</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="H53" t="s">
+        <v>469</v>
+      </c>
+      <c r="I53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>361</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" t="s">
+        <v>472</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="F54" s="8">
+        <v>33770</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
+      <c r="D55" t="s">
+        <v>474</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F55" s="8">
+        <v>38413</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H55" t="s">
+        <v>476</v>
+      </c>
+      <c r="I55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>361</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C56" t="s">
+        <v>461</v>
+      </c>
+      <c r="D56" t="s">
+        <v>479</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="F56" s="8">
+        <v>392464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>361</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C57" t="s">
+        <v>461</v>
+      </c>
+      <c r="D57" t="s">
+        <v>481</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F57" s="8">
+        <v>392534</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>361</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="C58" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" t="s">
+        <v>483</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="F58" s="8">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>361</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D59" t="s">
+        <v>487</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F59" s="8">
+        <v>1598</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="H59" t="s">
+        <v>489</v>
+      </c>
+      <c r="I59" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>361</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C60" t="s">
+        <v>486</v>
+      </c>
+      <c r="D60" t="s">
+        <v>492</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="F60" s="8">
+        <v>11289</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="H60" t="s">
+        <v>494</v>
+      </c>
+      <c r="I60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>361</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C61" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="F61" s="8">
+        <v>8150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C62" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62" t="s">
+        <v>499</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F62" s="8">
+        <v>154</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="H62" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>361</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C63" t="s">
+        <v>486</v>
+      </c>
+      <c r="D63" t="s">
+        <v>503</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="F63" s="8">
+        <v>163426</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>361</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C64" t="s">
+        <v>486</v>
+      </c>
+      <c r="D64" t="s">
+        <v>505</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F64" s="8">
+        <v>5224</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="H64" t="s">
+        <v>507</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>361</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C65" t="s">
+        <v>486</v>
+      </c>
+      <c r="D65" t="s">
+        <v>510</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="F65" s="8">
+        <v>67109</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="H65" t="s">
+        <v>512</v>
+      </c>
+      <c r="I65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C66" t="s">
+        <v>486</v>
+      </c>
+      <c r="D66" t="s">
+        <v>515</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="F66" s="8">
+        <v>67108</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="H66" t="s">
+        <v>517</v>
+      </c>
+      <c r="I66" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>361</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C67" t="s">
+        <v>486</v>
+      </c>
+      <c r="D67" t="s">
+        <v>520</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F67" s="8">
+        <v>67031</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="H67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" t="s">
+        <v>524</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="F68" s="8">
+        <v>69528</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C69" t="s">
+        <v>486</v>
+      </c>
+      <c r="D69" t="s">
+        <v>526</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="F69" s="8">
+        <v>75960</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>361</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C70" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" t="s">
+        <v>530</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="F70" s="8">
+        <v>69646</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="H70" t="s">
+        <v>532</v>
+      </c>
+      <c r="I70" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C71" t="s">
+        <v>486</v>
+      </c>
+      <c r="D71" t="s">
+        <v>535</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="F71" s="8">
+        <v>280611</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="H71" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C72" t="s">
+        <v>486</v>
+      </c>
+      <c r="D72" t="s">
+        <v>540</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="F72" s="8">
+        <v>32968</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H72" t="s">
+        <v>542</v>
+      </c>
+      <c r="I72" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C73" t="s">
+        <v>486</v>
+      </c>
+      <c r="D73" t="s">
+        <v>545</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="F73" s="8">
+        <v>10594</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="H73" t="s">
+        <v>547</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C74" t="s">
+        <v>486</v>
+      </c>
+      <c r="D74" t="s">
+        <v>550</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="F74" s="8">
+        <v>3521</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="H74" t="s">
+        <v>552</v>
+      </c>
+      <c r="I74" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C75" t="s">
+        <v>486</v>
+      </c>
+      <c r="D75" t="s">
+        <v>555</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="F75" s="8">
+        <v>27518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C76" t="s">
+        <v>486</v>
+      </c>
+      <c r="D76" t="s">
+        <v>557</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="F76" s="8">
+        <v>83929</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H76" t="s">
+        <v>559</v>
+      </c>
+      <c r="I76" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C77" t="s">
+        <v>486</v>
+      </c>
+      <c r="D77" t="s">
+        <v>562</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="F77" s="8">
+        <v>75635</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H77" t="s">
+        <v>564</v>
+      </c>
+      <c r="I77" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>361</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C78" t="s">
+        <v>486</v>
+      </c>
+      <c r="D78" t="s">
+        <v>567</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="F78" s="8">
+        <v>73137</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="H78" t="s">
+        <v>569</v>
+      </c>
+      <c r="I78" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" t="s">
+        <v>486</v>
+      </c>
+      <c r="D79" t="s">
+        <v>572</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F79" s="8">
+        <v>613391</v>
+      </c>
+      <c r="G79" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H79" t="s">
+        <v>574</v>
+      </c>
+      <c r="I79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>361</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D80" t="s">
+        <v>577</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1116632</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="H80" t="s">
+        <v>579</v>
+      </c>
+      <c r="I80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C81" t="s">
+        <v>486</v>
+      </c>
+      <c r="D81" t="s">
+        <v>582</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="F81" s="8">
+        <v>1656052</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="H81" t="s">
+        <v>584</v>
+      </c>
+      <c r="I81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>361</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C82" t="s">
+        <v>486</v>
+      </c>
+      <c r="D82" t="s">
+        <v>587</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="F82" s="8">
+        <v>1537034</v>
+      </c>
+      <c r="G82" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="H82" t="s">
+        <v>589</v>
+      </c>
+      <c r="I82" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>361</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C83" t="s">
+        <v>486</v>
+      </c>
+      <c r="D83" t="s">
+        <v>592</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="F83" s="8">
+        <v>114934</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="H83" t="s">
+        <v>594</v>
+      </c>
+      <c r="I83" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>361</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C84" t="s">
+        <v>486</v>
+      </c>
+      <c r="D84" t="s">
+        <v>597</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="F84" s="8">
+        <v>237057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>361</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C85" t="s">
+        <v>486</v>
+      </c>
+      <c r="D85" t="s">
+        <v>599</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="F85" s="8">
+        <v>15202</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="H85" t="s">
+        <v>601</v>
+      </c>
+      <c r="I85" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>361</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C86" t="s">
+        <v>486</v>
+      </c>
+      <c r="D86" t="s">
+        <v>604</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="F86" s="8">
+        <v>60819</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="H86" t="s">
+        <v>606</v>
+      </c>
+      <c r="I86" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>361</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C87" t="s">
+        <v>486</v>
+      </c>
+      <c r="D87" t="s">
+        <v>609</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F87" s="8">
+        <v>1037042</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="H87" t="s">
+        <v>611</v>
+      </c>
+      <c r="I87" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C88" t="s">
+        <v>486</v>
+      </c>
+      <c r="D88" t="s">
+        <v>614</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="F88" s="8">
+        <v>1114195</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="H88" t="s">
+        <v>616</v>
+      </c>
+      <c r="I88" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>361</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C89" t="s">
+        <v>486</v>
+      </c>
+      <c r="D89" t="s">
+        <v>619</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="F89" s="8">
+        <v>1364430</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="H89" t="s">
+        <v>621</v>
+      </c>
+      <c r="I89" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>361</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C90" t="s">
+        <v>486</v>
+      </c>
+      <c r="D90" t="s">
+        <v>624</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="F90" s="8">
+        <v>1599538</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="H90" t="s">
+        <v>626</v>
+      </c>
+      <c r="I90" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>361</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C91" t="s">
+        <v>486</v>
+      </c>
+      <c r="D91" t="s">
+        <v>629</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="F91" s="8">
+        <v>1927851</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="H91" t="s">
+        <v>631</v>
+      </c>
+      <c r="I91" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C92" t="s">
+        <v>486</v>
+      </c>
+      <c r="D92" t="s">
+        <v>634</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="F92" s="8">
+        <v>321208</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>637</v>
+      </c>
+      <c r="H92" t="s">
+        <v>636</v>
+      </c>
+      <c r="I92" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C93" t="s">
+        <v>486</v>
+      </c>
+      <c r="D93" t="s">
+        <v>639</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="F93" s="8">
+        <v>2110605</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:J18">
+    <sortCondition ref="B2:B18"/>
+    <sortCondition ref="C2:C18"/>
+    <sortCondition ref="D2:D18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4CE_Phase1.1_File_Descriptions.xlsx
+++ b/4CE_Phase1.1_File_Descriptions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="699">
   <si>
     <t>DailyCounts</t>
   </si>
@@ -2080,6 +2080,51 @@
   </si>
   <si>
     <t>5A093*, 5A094*, 5A095*</t>
+  </si>
+  <si>
+    <t>RxNorm:36908</t>
+  </si>
+  <si>
+    <t>RxNorm:39990</t>
+  </si>
+  <si>
+    <t>RxNorm:118463</t>
+  </si>
+  <si>
+    <t>RxNorm:27518</t>
+  </si>
+  <si>
+    <t>RxNorm:2110605</t>
+  </si>
+  <si>
+    <t>RxNorm:237057</t>
+  </si>
+  <si>
+    <t>RxNorm:69528</t>
+  </si>
+  <si>
+    <t>RxNorm:8150</t>
+  </si>
+  <si>
+    <t>RxNorm:163426</t>
+  </si>
+  <si>
+    <t>RxNorm:392534</t>
+  </si>
+  <si>
+    <t>RxNorm:4109</t>
+  </si>
+  <si>
+    <t>RxNorm:392464</t>
+  </si>
+  <si>
+    <t>RxNorm:33770</t>
+  </si>
+  <si>
+    <t>RxNorm:7442</t>
+  </si>
+  <si>
+    <t>RxNorm:2284718,2284960</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2541,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43952</v>
+        <v>43957</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -4698,6 +4743,9 @@
       <c r="F15" s="8">
         <v>7442</v>
       </c>
+      <c r="G15" s="10" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4791,57 +4839,57 @@
         <v>292</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="D19" t="s">
-        <v>295</v>
+        <v>351</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>296</v>
+        <v>352</v>
       </c>
       <c r="F19" s="8">
-        <v>5521</v>
+        <v>460132</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="H19" t="s">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="I19" t="s">
-        <v>299</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="F20" s="8">
-        <v>2393</v>
+        <v>284640</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="H20" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="I20" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4849,57 +4897,57 @@
         <v>292</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="C21" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="D21" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="F21" s="8">
-        <v>72435</v>
+        <v>9344</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="H21" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="I21" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="F22" s="8">
-        <v>1923319</v>
+        <v>2393</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="H22" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -4907,28 +4955,28 @@
         <v>292</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D23" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="F23" s="8">
-        <v>612865</v>
+        <v>5521</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="I23" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -4942,22 +4990,22 @@
         <v>313</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F24" s="8">
-        <v>1535218</v>
+        <v>1923319</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="I24" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -4965,28 +5013,28 @@
         <v>292</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C25" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F25" s="8">
-        <v>72257</v>
+        <v>1535218</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H25" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4994,28 +5042,28 @@
         <v>292</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C26" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D26" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F26" s="8">
-        <v>120608</v>
+        <v>612865</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="H26" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="I26" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5023,16 +5071,28 @@
         <v>292</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C27" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>308</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="F27" s="8">
-        <v>2284718</v>
+        <v>72435</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5040,28 +5100,28 @@
         <v>292</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C28" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="F28" s="8">
-        <v>284640</v>
+        <v>72257</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="H28" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="I28" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5069,28 +5129,28 @@
         <v>292</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D29" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="F29" s="8">
-        <v>460132</v>
+        <v>120608</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="H29" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="I29" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5098,28 +5158,19 @@
         <v>292</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C30" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F30" s="8">
-        <v>9344</v>
+        <v>2284718</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="H30" t="s">
-        <v>358</v>
-      </c>
-      <c r="I30" t="s">
-        <v>360</v>
+        <v>698</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5133,22 +5184,22 @@
         <v>363</v>
       </c>
       <c r="D31" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="F31" s="8">
-        <v>1998</v>
+        <v>18867</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="H31" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="I31" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5162,22 +5213,22 @@
         <v>363</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F32" s="8">
-        <v>3827</v>
+        <v>1998</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H32" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5191,22 +5242,19 @@
         <v>363</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F33" s="8">
-        <v>29046</v>
+        <v>21102</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="H33" t="s">
-        <v>376</v>
-      </c>
-      <c r="I33" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5220,22 +5268,22 @@
         <v>363</v>
       </c>
       <c r="D34" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F34" s="8">
-        <v>54552</v>
+        <v>3827</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H34" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I34" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,22 +5297,22 @@
         <v>363</v>
       </c>
       <c r="D35" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="F35" s="8">
-        <v>35296</v>
+        <v>50166</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="H35" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="I35" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5278,22 +5326,19 @@
         <v>363</v>
       </c>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="F36" s="8">
-        <v>35208</v>
+        <v>60245</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="H36" t="s">
-        <v>391</v>
-      </c>
-      <c r="I36" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5307,22 +5352,22 @@
         <v>363</v>
       </c>
       <c r="D37" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F37" s="8">
-        <v>18867</v>
+        <v>29046</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="H37" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="I37" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5336,19 +5381,22 @@
         <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="F38" s="8">
-        <v>21102</v>
+        <v>30131</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="H38" t="s">
-        <v>401</v>
+        <v>417</v>
+      </c>
+      <c r="I38" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5362,22 +5410,22 @@
         <v>363</v>
       </c>
       <c r="D39" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="F39" s="8">
-        <v>50166</v>
+        <v>54552</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="H39" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="I39" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5391,22 +5439,22 @@
         <v>363</v>
       </c>
       <c r="D40" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="F40" s="8">
-        <v>38454</v>
+        <v>35208</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="H40" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="I40" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5420,13 +5468,22 @@
         <v>363</v>
       </c>
       <c r="D41" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>414</v>
+        <v>385</v>
       </c>
       <c r="F41" s="8">
-        <v>36908</v>
+        <v>35296</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H41" t="s">
+        <v>386</v>
+      </c>
+      <c r="I41" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5440,22 +5497,16 @@
         <v>363</v>
       </c>
       <c r="D42" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F42" s="8">
-        <v>30131</v>
+        <v>36908</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="H42" t="s">
-        <v>417</v>
-      </c>
-      <c r="I42" t="s">
-        <v>419</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5469,13 +5520,22 @@
         <v>363</v>
       </c>
       <c r="D43" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F43" s="8">
-        <v>39990</v>
+        <v>38454</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H43" t="s">
+        <v>410</v>
+      </c>
+      <c r="I43" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5489,19 +5549,16 @@
         <v>363</v>
       </c>
       <c r="D44" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F44" s="8">
-        <v>60245</v>
+        <v>39990</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="H44" t="s">
-        <v>424</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5515,22 +5572,22 @@
         <v>427</v>
       </c>
       <c r="D45" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F45" s="8">
-        <v>52175</v>
+        <v>214354</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H45" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I45" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5544,22 +5601,22 @@
         <v>427</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F46" s="8">
-        <v>214354</v>
+        <v>83515</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H46" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="I46" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -5573,22 +5630,22 @@
         <v>427</v>
       </c>
       <c r="D47" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="F47" s="8">
-        <v>69749</v>
+        <v>83818</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H47" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="I47" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -5602,22 +5659,22 @@
         <v>427</v>
       </c>
       <c r="D48" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="F48" s="8">
-        <v>83818</v>
+        <v>52175</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="H48" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="I48" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -5631,22 +5688,16 @@
         <v>427</v>
       </c>
       <c r="D49" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="F49" s="8">
-        <v>73494</v>
+        <v>118463</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H49" t="s">
-        <v>450</v>
-      </c>
-      <c r="I49" t="s">
-        <v>452</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -5660,22 +5711,22 @@
         <v>427</v>
       </c>
       <c r="D50" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F50" s="8">
-        <v>83515</v>
+        <v>73494</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H50" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="I50" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -5689,13 +5740,22 @@
         <v>427</v>
       </c>
       <c r="D51" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="F51" s="8">
-        <v>118463</v>
+        <v>69749</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="H51" t="s">
+        <v>440</v>
+      </c>
+      <c r="I51" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -5703,28 +5763,28 @@
         <v>361</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D52" t="s">
-        <v>462</v>
+        <v>557</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>463</v>
+        <v>558</v>
       </c>
       <c r="F52" s="8">
-        <v>4603</v>
+        <v>83929</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>465</v>
+        <v>560</v>
       </c>
       <c r="H52" t="s">
-        <v>464</v>
+        <v>559</v>
       </c>
       <c r="I52" t="s">
-        <v>466</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -5732,28 +5792,28 @@
         <v>361</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C53" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D53" t="s">
-        <v>467</v>
+        <v>582</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>468</v>
+        <v>583</v>
       </c>
       <c r="F53" s="8">
-        <v>1808</v>
+        <v>1656052</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>470</v>
+        <v>585</v>
       </c>
       <c r="H53" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="I53" t="s">
-        <v>471</v>
+        <v>586</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5761,19 +5821,28 @@
         <v>361</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D54" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="F54" s="8">
-        <v>33770</v>
+        <v>32968</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="H54" t="s">
+        <v>542</v>
+      </c>
+      <c r="I54" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -5781,28 +5850,28 @@
         <v>361</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C55" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D55" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="F55" s="8">
-        <v>38413</v>
+        <v>3521</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="H55" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="I55" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5810,19 +5879,28 @@
         <v>361</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C56" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D56" t="s">
-        <v>479</v>
+        <v>562</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>480</v>
+        <v>563</v>
       </c>
       <c r="F56" s="8">
-        <v>392464</v>
+        <v>75635</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="H56" t="s">
+        <v>564</v>
+      </c>
+      <c r="I56" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -5830,19 +5908,22 @@
         <v>361</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C57" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>481</v>
+        <v>555</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="F57" s="8">
-        <v>392534</v>
+        <v>27518</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -5850,19 +5931,28 @@
         <v>361</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>460</v>
+        <v>539</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>486</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>572</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>484</v>
+        <v>573</v>
       </c>
       <c r="F58" s="8">
-        <v>4109</v>
+        <v>613391</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="H58" t="s">
+        <v>574</v>
+      </c>
+      <c r="I58" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -5870,28 +5960,28 @@
         <v>361</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C59" t="s">
         <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>487</v>
+        <v>577</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>488</v>
+        <v>578</v>
       </c>
       <c r="F59" s="8">
-        <v>1598</v>
+        <v>1116632</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>490</v>
+        <v>580</v>
       </c>
       <c r="H59" t="s">
-        <v>489</v>
+        <v>579</v>
       </c>
       <c r="I59" t="s">
-        <v>491</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -5899,28 +5989,28 @@
         <v>361</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C60" t="s">
         <v>486</v>
       </c>
       <c r="D60" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="F60" s="8">
-        <v>11289</v>
+        <v>10594</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="H60" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="I60" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -5928,19 +6018,28 @@
         <v>361</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C61" t="s">
         <v>486</v>
       </c>
       <c r="D61" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="F61" s="8">
-        <v>8150</v>
+        <v>73137</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="H61" t="s">
+        <v>569</v>
+      </c>
+      <c r="I61" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -5948,25 +6047,28 @@
         <v>361</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="C62" t="s">
         <v>486</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>587</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>500</v>
+        <v>588</v>
       </c>
       <c r="F62" s="8">
-        <v>154</v>
+        <v>1537034</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>502</v>
+        <v>590</v>
       </c>
       <c r="H62" t="s">
-        <v>501</v>
+        <v>589</v>
+      </c>
+      <c r="I62" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -5980,13 +6082,19 @@
         <v>486</v>
       </c>
       <c r="D63" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F63" s="8">
-        <v>163426</v>
+        <v>154</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="H63" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -6000,22 +6108,22 @@
         <v>486</v>
       </c>
       <c r="D64" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="F64" s="8">
-        <v>5224</v>
+        <v>1364430</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>508</v>
+        <v>622</v>
       </c>
       <c r="H64" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="I64" t="s">
-        <v>509</v>
+        <v>623</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -6029,22 +6137,22 @@
         <v>486</v>
       </c>
       <c r="D65" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>511</v>
+        <v>600</v>
       </c>
       <c r="F65" s="8">
-        <v>67109</v>
+        <v>15202</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="H65" t="s">
-        <v>512</v>
+        <v>601</v>
       </c>
       <c r="I65" t="s">
-        <v>514</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -6058,22 +6166,19 @@
         <v>486</v>
       </c>
       <c r="D66" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="F66" s="8">
-        <v>67108</v>
+        <v>280611</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="H66" t="s">
-        <v>517</v>
-      </c>
-      <c r="I66" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -6087,19 +6192,22 @@
         <v>486</v>
       </c>
       <c r="D67" t="s">
-        <v>520</v>
+        <v>629</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>521</v>
+        <v>630</v>
       </c>
       <c r="F67" s="8">
-        <v>67031</v>
+        <v>1927851</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>523</v>
+        <v>632</v>
       </c>
       <c r="H67" t="s">
-        <v>522</v>
+        <v>631</v>
+      </c>
+      <c r="I67" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -6113,13 +6221,22 @@
         <v>486</v>
       </c>
       <c r="D68" t="s">
-        <v>524</v>
+        <v>604</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>525</v>
+        <v>605</v>
       </c>
       <c r="F68" s="8">
-        <v>69528</v>
+        <v>60819</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="H68" t="s">
+        <v>606</v>
+      </c>
+      <c r="I68" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -6133,19 +6250,16 @@
         <v>486</v>
       </c>
       <c r="D69" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
       <c r="F69" s="8">
-        <v>75960</v>
+        <v>2110605</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="H69" t="s">
-        <v>528</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -6159,22 +6273,22 @@
         <v>486</v>
       </c>
       <c r="D70" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="F70" s="8">
-        <v>69646</v>
+        <v>1037042</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>533</v>
+        <v>612</v>
       </c>
       <c r="H70" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="I70" t="s">
-        <v>534</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -6188,19 +6302,22 @@
         <v>486</v>
       </c>
       <c r="D71" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="F71" s="8">
-        <v>280611</v>
+        <v>67109</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="H71" t="s">
-        <v>537</v>
+        <v>512</v>
+      </c>
+      <c r="I71" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -6208,28 +6325,28 @@
         <v>361</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C72" t="s">
         <v>486</v>
       </c>
       <c r="D72" t="s">
-        <v>540</v>
+        <v>592</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>541</v>
+        <v>593</v>
       </c>
       <c r="F72" s="8">
-        <v>32968</v>
+        <v>114934</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>543</v>
+        <v>595</v>
       </c>
       <c r="H72" t="s">
-        <v>542</v>
+        <v>594</v>
       </c>
       <c r="I72" t="s">
-        <v>544</v>
+        <v>596</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -6237,28 +6354,28 @@
         <v>361</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C73" t="s">
         <v>486</v>
       </c>
       <c r="D73" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="F73" s="8">
-        <v>10594</v>
+        <v>1598</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="H73" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
       <c r="I73" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -6266,28 +6383,28 @@
         <v>361</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C74" t="s">
         <v>486</v>
       </c>
       <c r="D74" t="s">
-        <v>550</v>
+        <v>624</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>551</v>
+        <v>625</v>
       </c>
       <c r="F74" s="8">
-        <v>3521</v>
+        <v>1599538</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>553</v>
+        <v>627</v>
       </c>
       <c r="H74" t="s">
-        <v>552</v>
+        <v>626</v>
       </c>
       <c r="I74" t="s">
-        <v>554</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,19 +6412,28 @@
         <v>361</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C75" t="s">
         <v>486</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="F75" s="8">
-        <v>27518</v>
+        <v>67108</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="H75" t="s">
+        <v>517</v>
+      </c>
+      <c r="I75" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -6315,28 +6441,28 @@
         <v>361</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C76" t="s">
         <v>486</v>
       </c>
       <c r="D76" t="s">
-        <v>557</v>
+        <v>634</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>558</v>
+        <v>635</v>
       </c>
       <c r="F76" s="8">
-        <v>83929</v>
+        <v>321208</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>560</v>
+        <v>637</v>
       </c>
       <c r="H76" t="s">
-        <v>559</v>
+        <v>636</v>
       </c>
       <c r="I76" t="s">
-        <v>561</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -6344,28 +6470,28 @@
         <v>361</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C77" t="s">
         <v>486</v>
       </c>
       <c r="D77" t="s">
-        <v>562</v>
+        <v>505</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>563</v>
+        <v>506</v>
       </c>
       <c r="F77" s="8">
-        <v>75635</v>
+        <v>5224</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="H77" t="s">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="I77" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -6373,28 +6499,22 @@
         <v>361</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C78" t="s">
         <v>486</v>
       </c>
       <c r="D78" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F78" s="8">
-        <v>73137</v>
+        <v>237057</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="H78" t="s">
-        <v>569</v>
-      </c>
-      <c r="I78" t="s">
-        <v>571</v>
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -6402,28 +6522,25 @@
         <v>361</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C79" t="s">
         <v>486</v>
       </c>
       <c r="D79" t="s">
-        <v>572</v>
+        <v>520</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="F79" s="8">
-        <v>613391</v>
+        <v>67031</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>575</v>
+        <v>523</v>
       </c>
       <c r="H79" t="s">
-        <v>574</v>
-      </c>
-      <c r="I79" t="s">
-        <v>576</v>
+        <v>522</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -6431,28 +6548,22 @@
         <v>361</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C80" t="s">
         <v>486</v>
       </c>
       <c r="D80" t="s">
-        <v>577</v>
+        <v>524</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>578</v>
+        <v>525</v>
       </c>
       <c r="F80" s="8">
-        <v>1116632</v>
+        <v>69528</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="H80" t="s">
-        <v>579</v>
-      </c>
-      <c r="I80" t="s">
-        <v>581</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -6460,28 +6571,22 @@
         <v>361</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C81" t="s">
         <v>486</v>
       </c>
       <c r="D81" t="s">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>583</v>
+        <v>498</v>
       </c>
       <c r="F81" s="8">
-        <v>1656052</v>
+        <v>8150</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="H81" t="s">
-        <v>584</v>
-      </c>
-      <c r="I81" t="s">
-        <v>586</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -6489,28 +6594,25 @@
         <v>361</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="C82" t="s">
         <v>486</v>
       </c>
       <c r="D82" t="s">
-        <v>587</v>
+        <v>526</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>588</v>
+        <v>527</v>
       </c>
       <c r="F82" s="8">
-        <v>1537034</v>
+        <v>75960</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>590</v>
+        <v>529</v>
       </c>
       <c r="H82" t="s">
-        <v>589</v>
-      </c>
-      <c r="I82" t="s">
-        <v>591</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -6524,22 +6626,22 @@
         <v>486</v>
       </c>
       <c r="D83" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="F83" s="8">
-        <v>114934</v>
+        <v>1114195</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="H83" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="I83" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -6553,13 +6655,22 @@
         <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>597</v>
+        <v>530</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>598</v>
+        <v>531</v>
       </c>
       <c r="F84" s="8">
-        <v>237057</v>
+        <v>69646</v>
+      </c>
+      <c r="G84" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="H84" t="s">
+        <v>532</v>
+      </c>
+      <c r="I84" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -6573,22 +6684,16 @@
         <v>486</v>
       </c>
       <c r="D85" t="s">
-        <v>599</v>
+        <v>503</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>600</v>
+        <v>504</v>
       </c>
       <c r="F85" s="8">
-        <v>15202</v>
+        <v>163426</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>602</v>
-      </c>
-      <c r="H85" t="s">
-        <v>601</v>
-      </c>
-      <c r="I85" t="s">
-        <v>603</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -6602,22 +6707,22 @@
         <v>486</v>
       </c>
       <c r="D86" t="s">
-        <v>604</v>
+        <v>492</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>605</v>
+        <v>493</v>
       </c>
       <c r="F86" s="8">
-        <v>60819</v>
+        <v>11289</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>607</v>
+        <v>495</v>
       </c>
       <c r="H86" t="s">
-        <v>606</v>
+        <v>494</v>
       </c>
       <c r="I86" t="s">
-        <v>608</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -6625,28 +6730,28 @@
         <v>361</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C87" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D87" t="s">
-        <v>609</v>
+        <v>467</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>610</v>
+        <v>468</v>
       </c>
       <c r="F87" s="8">
-        <v>1037042</v>
+        <v>1808</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>612</v>
+        <v>470</v>
       </c>
       <c r="H87" t="s">
-        <v>611</v>
+        <v>469</v>
       </c>
       <c r="I87" t="s">
-        <v>613</v>
+        <v>471</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -6654,28 +6759,22 @@
         <v>361</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C88" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D88" t="s">
-        <v>614</v>
+        <v>481</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>615</v>
+        <v>482</v>
       </c>
       <c r="F88" s="8">
-        <v>1114195</v>
+        <v>392534</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="H88" t="s">
-        <v>616</v>
-      </c>
-      <c r="I88" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -6683,28 +6782,22 @@
         <v>361</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D89" t="s">
-        <v>619</v>
+        <v>483</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="F89" s="8">
-        <v>1364430</v>
+        <v>4109</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="H89" t="s">
-        <v>621</v>
-      </c>
-      <c r="I89" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -6712,28 +6805,28 @@
         <v>361</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C90" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D90" t="s">
-        <v>624</v>
+        <v>462</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>625</v>
+        <v>463</v>
       </c>
       <c r="F90" s="8">
-        <v>1599538</v>
+        <v>4603</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>627</v>
+        <v>465</v>
       </c>
       <c r="H90" t="s">
-        <v>626</v>
+        <v>464</v>
       </c>
       <c r="I90" t="s">
-        <v>628</v>
+        <v>466</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -6741,28 +6834,22 @@
         <v>361</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C91" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D91" t="s">
-        <v>629</v>
+        <v>479</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>630</v>
+        <v>480</v>
       </c>
       <c r="F91" s="8">
-        <v>1927851</v>
+        <v>392464</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="H91" t="s">
-        <v>631</v>
-      </c>
-      <c r="I91" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -6770,28 +6857,22 @@
         <v>361</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C92" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D92" t="s">
-        <v>634</v>
+        <v>472</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>635</v>
+        <v>473</v>
       </c>
       <c r="F92" s="8">
-        <v>321208</v>
+        <v>33770</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>637</v>
-      </c>
-      <c r="H92" t="s">
-        <v>636</v>
-      </c>
-      <c r="I92" t="s">
-        <v>638</v>
+        <v>696</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -6799,26 +6880,35 @@
         <v>361</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="C93" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="D93" t="s">
-        <v>639</v>
+        <v>474</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>640</v>
+        <v>475</v>
       </c>
       <c r="F93" s="8">
-        <v>2110605</v>
+        <v>38413</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H93" t="s">
+        <v>476</v>
+      </c>
+      <c r="I93" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J18">
-    <sortCondition ref="B2:B18"/>
-    <sortCondition ref="C2:C18"/>
-    <sortCondition ref="D2:D18"/>
+  <sortState ref="A2:J93">
+    <sortCondition ref="B2:B93"/>
+    <sortCondition ref="C2:C93"/>
+    <sortCondition ref="D2:D93"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4CE_Phase1.1_File_Descriptions.xlsx
+++ b/4CE_Phase1.1_File_Descriptions.xlsx
@@ -17,6 +17,7 @@
     <sheet name="SevereCodes" sheetId="7" r:id="rId3"/>
     <sheet name="Labs" sheetId="3" r:id="rId4"/>
     <sheet name="Meds" sheetId="5" r:id="rId5"/>
+    <sheet name="Examples" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="712">
   <si>
     <t>DailyCounts</t>
   </si>
@@ -2125,14 +2126,54 @@
   </si>
   <si>
     <t>RxNorm:2284718,2284960</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>26to49</t>
+  </si>
+  <si>
+    <t>hispanic_latino</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>U07</t>
+  </si>
+  <si>
+    <t>J12</t>
+  </si>
+  <si>
+    <t>J96</t>
+  </si>
+  <si>
+    <t>E87</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>70to70</t>
+  </si>
+  <si>
+    <t>MYSITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2175,7 +2216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2188,8 +2229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2206,11 +2253,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2244,6 +2306,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2541,7 +2631,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>43957</v>
+        <v>43960</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -6912,4 +7002,971 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="20.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="43.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B3" s="23">
+        <v>43912</v>
+      </c>
+      <c r="C3" s="22">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E3" s="22">
+        <v>-999</v>
+      </c>
+      <c r="F3" s="22">
+        <v>-99</v>
+      </c>
+      <c r="G3" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B4" s="23">
+        <v>43913</v>
+      </c>
+      <c r="C4" s="22">
+        <v>20</v>
+      </c>
+      <c r="D4" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E4" s="22">
+        <v>-999</v>
+      </c>
+      <c r="F4" s="22">
+        <v>20</v>
+      </c>
+      <c r="G4" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B5" s="23">
+        <v>43914</v>
+      </c>
+      <c r="C5" s="22">
+        <v>30</v>
+      </c>
+      <c r="D5" s="22">
+        <v>10</v>
+      </c>
+      <c r="E5" s="22">
+        <v>-999</v>
+      </c>
+      <c r="F5" s="22">
+        <v>25</v>
+      </c>
+      <c r="G5" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B6" s="23">
+        <v>43915</v>
+      </c>
+      <c r="C6" s="22">
+        <v>35</v>
+      </c>
+      <c r="D6" s="22">
+        <v>15</v>
+      </c>
+      <c r="E6" s="22">
+        <v>-999</v>
+      </c>
+      <c r="F6" s="22">
+        <v>25</v>
+      </c>
+      <c r="G6" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B7" s="23">
+        <v>43916</v>
+      </c>
+      <c r="C7" s="22">
+        <v>40</v>
+      </c>
+      <c r="D7" s="22">
+        <v>20</v>
+      </c>
+      <c r="E7" s="22">
+        <v>-999</v>
+      </c>
+      <c r="F7" s="22">
+        <v>30</v>
+      </c>
+      <c r="G7" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>40</v>
+      </c>
+      <c r="D12" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1</v>
+      </c>
+      <c r="C13" s="22">
+        <v>35</v>
+      </c>
+      <c r="D13" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" s="22">
+        <v>2</v>
+      </c>
+      <c r="C14" s="22">
+        <v>25</v>
+      </c>
+      <c r="D14" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B15" s="22">
+        <v>3</v>
+      </c>
+      <c r="C15" s="22">
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B16" s="22">
+        <v>4</v>
+      </c>
+      <c r="C16" s="22">
+        <v>10</v>
+      </c>
+      <c r="D16" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="E21" s="22">
+        <v>40</v>
+      </c>
+      <c r="F21" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>701</v>
+      </c>
+      <c r="E22" s="22">
+        <v>-99</v>
+      </c>
+      <c r="F22" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>709</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>710</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>704</v>
+      </c>
+      <c r="E23" s="22">
+        <v>10</v>
+      </c>
+      <c r="F23" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>700</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>702</v>
+      </c>
+      <c r="E24" s="22">
+        <v>-99</v>
+      </c>
+      <c r="F24" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>699</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>703</v>
+      </c>
+      <c r="E25" s="22">
+        <v>20</v>
+      </c>
+      <c r="F25" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="22">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="22">
+        <v>30</v>
+      </c>
+      <c r="F30" s="22">
+        <v>51.234499999999997</v>
+      </c>
+      <c r="G30" s="22">
+        <v>102.46899999999999</v>
+      </c>
+      <c r="H30" s="22">
+        <v>3.9363999999999999</v>
+      </c>
+      <c r="I30" s="22">
+        <v>4.6295000000000002</v>
+      </c>
+      <c r="J30" s="22">
+        <v>15</v>
+      </c>
+      <c r="K30" s="22">
+        <v>61.481400000000001</v>
+      </c>
+      <c r="L30" s="22">
+        <v>122.9628</v>
+      </c>
+      <c r="M30" s="22">
+        <v>4.7236000000000002</v>
+      </c>
+      <c r="N30" s="22">
+        <v>5.5553999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="22">
+        <v>1</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="22">
+        <v>20</v>
+      </c>
+      <c r="F31" s="22">
+        <v>49.543199999999999</v>
+      </c>
+      <c r="G31" s="22">
+        <v>99.086399999999998</v>
+      </c>
+      <c r="H31" s="22">
+        <v>3.9028</v>
+      </c>
+      <c r="I31" s="22">
+        <v>4.5959000000000003</v>
+      </c>
+      <c r="J31" s="22">
+        <v>12</v>
+      </c>
+      <c r="K31" s="22">
+        <v>59.451799999999999</v>
+      </c>
+      <c r="L31" s="22">
+        <v>118.9036</v>
+      </c>
+      <c r="M31" s="22">
+        <v>4.6833999999999998</v>
+      </c>
+      <c r="N31" s="22">
+        <v>5.5151000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="22">
+        <v>2</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="22">
+        <v>15</v>
+      </c>
+      <c r="F32" s="22">
+        <v>48.123399999999997</v>
+      </c>
+      <c r="G32" s="22">
+        <v>96.246799999999993</v>
+      </c>
+      <c r="H32" s="22">
+        <v>3.8736999999999999</v>
+      </c>
+      <c r="I32" s="22">
+        <v>4.5669000000000004</v>
+      </c>
+      <c r="J32" s="22">
+        <v>10</v>
+      </c>
+      <c r="K32" s="22">
+        <v>57.747999999999998</v>
+      </c>
+      <c r="L32" s="22">
+        <v>115.4961</v>
+      </c>
+      <c r="M32" s="22">
+        <v>4.6485000000000003</v>
+      </c>
+      <c r="N32" s="22">
+        <v>5.4802</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="22">
+        <v>0</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="22">
+        <v>25</v>
+      </c>
+      <c r="F33" s="22">
+        <v>3.86754</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1.93377</v>
+      </c>
+      <c r="H33" s="22">
+        <v>1.3526</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0.65939999999999999</v>
+      </c>
+      <c r="J33" s="22">
+        <v>20</v>
+      </c>
+      <c r="K33" s="22">
+        <v>4.6412000000000004</v>
+      </c>
+      <c r="L33" s="22">
+        <v>2.3205</v>
+      </c>
+      <c r="M33" s="22">
+        <v>1.6231</v>
+      </c>
+      <c r="N33" s="22">
+        <v>0.7913</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E34" s="22">
+        <v>20</v>
+      </c>
+      <c r="F34" s="22">
+        <v>3.13456</v>
+      </c>
+      <c r="G34" s="22">
+        <v>1.56728</v>
+      </c>
+      <c r="H34" s="22">
+        <v>1.1424000000000001</v>
+      </c>
+      <c r="I34" s="22">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="J34" s="22">
+        <v>-99</v>
+      </c>
+      <c r="K34" s="22">
+        <v>-99</v>
+      </c>
+      <c r="L34" s="22">
+        <v>-99</v>
+      </c>
+      <c r="M34" s="22">
+        <v>-99</v>
+      </c>
+      <c r="N34" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>705</v>
+      </c>
+      <c r="C39" s="22">
+        <v>10</v>
+      </c>
+      <c r="D39" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E39" s="22">
+        <v>35</v>
+      </c>
+      <c r="F39" s="22">
+        <v>-99</v>
+      </c>
+      <c r="G39" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>706</v>
+      </c>
+      <c r="C40" s="22">
+        <v>10</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E40" s="22">
+        <v>30</v>
+      </c>
+      <c r="F40" s="22">
+        <v>-99</v>
+      </c>
+      <c r="G40" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>707</v>
+      </c>
+      <c r="C41" s="22">
+        <v>10</v>
+      </c>
+      <c r="D41" s="22">
+        <v>10</v>
+      </c>
+      <c r="E41" s="22">
+        <v>25</v>
+      </c>
+      <c r="F41" s="22">
+        <v>-99</v>
+      </c>
+      <c r="G41" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>708</v>
+      </c>
+      <c r="C42" s="22">
+        <v>10</v>
+      </c>
+      <c r="D42" s="22">
+        <v>30</v>
+      </c>
+      <c r="E42" s="22">
+        <v>25</v>
+      </c>
+      <c r="F42" s="22">
+        <v>20</v>
+      </c>
+      <c r="G42" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B43" s="22">
+        <v>123</v>
+      </c>
+      <c r="C43" s="22">
+        <v>9</v>
+      </c>
+      <c r="D43" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E43" s="22">
+        <v>10</v>
+      </c>
+      <c r="F43" s="22">
+        <v>-99</v>
+      </c>
+      <c r="G43" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="C48" s="22">
+        <v>15</v>
+      </c>
+      <c r="D48" s="22">
+        <v>20</v>
+      </c>
+      <c r="E48" s="22">
+        <v>10</v>
+      </c>
+      <c r="F48" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>426</v>
+      </c>
+      <c r="C49" s="22">
+        <v>10</v>
+      </c>
+      <c r="D49" s="22">
+        <v>15</v>
+      </c>
+      <c r="E49" s="22">
+        <v>-99</v>
+      </c>
+      <c r="F49" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="C50" s="22">
+        <v>20</v>
+      </c>
+      <c r="D50" s="22">
+        <v>-99</v>
+      </c>
+      <c r="E50" s="22">
+        <v>-99</v>
+      </c>
+      <c r="F50" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C51" s="22">
+        <v>-99</v>
+      </c>
+      <c r="D51" s="22">
+        <v>10</v>
+      </c>
+      <c r="E51" s="22">
+        <v>-99</v>
+      </c>
+      <c r="F51" s="22">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="C52" s="22">
+        <v>30</v>
+      </c>
+      <c r="D52" s="22">
+        <v>15</v>
+      </c>
+      <c r="E52" s="22">
+        <v>20</v>
+      </c>
+      <c r="F52" s="22">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A21:F25">
+    <sortCondition ref="B21:B25"/>
+    <sortCondition ref="C21:C25"/>
+    <sortCondition ref="D21:D25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>